--- a/方大碳素估值.xlsx
+++ b/方大碳素估值.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penpen926/workspace/finance/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18960" windowHeight="5715" tabRatio="690" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="利润表raw" sheetId="1" r:id="rId1"/>
@@ -26,11 +21,8 @@
     <sheet name="DCF估值" sheetId="8" r:id="rId12"/>
     <sheet name="DCF按年估值" sheetId="11" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="238">
   <si>
     <t>报表日期</t>
   </si>
@@ -1102,16 +1094,22 @@
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>perpetuity</t>
+  </si>
+  <si>
+    <t>2019E</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,8 +1300,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1483,6 +1490,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1657,7 +1670,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1674,10 +1687,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1686,67 +1699,69 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="55">
-    <cellStyle name="20%-个性色1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="41"/>
     <cellStyle name="Note 2" xfId="42"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="个性色1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1761,7 +1776,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1794,127 +1809,127 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>431.26423733</c:v>
+                  <c:v>431.26423732999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1101.89618506</c:v>
+                  <c:v>1101.8961850600001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>639.6908736</c:v>
+                  <c:v>639.6908735999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1169.84681812</c:v>
+                  <c:v>1169.8468181200001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>437.04861007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>578.0277131500001</c:v>
+                  <c:v>578.02771315000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>518.6978192400001</c:v>
+                  <c:v>518.69781924000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>588.1151921799999</c:v>
+                  <c:v>588.11519217999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>581.3675876099998</c:v>
+                  <c:v>581.36758760999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.1015113999998</c:v>
+                  <c:v>780.10151140000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>889.6945717099995</c:v>
+                  <c:v>889.69457170999954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>965.3219846100004</c:v>
+                  <c:v>965.32198461000053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902.9111498599998</c:v>
+                  <c:v>902.91114986000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1183.23571039</c:v>
+                  <c:v>1183.2357103899999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1278.1558289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1161.74291991</c:v>
+                  <c:v>1161.7429199100002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>843.43404217</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1168.88171162</c:v>
+                  <c:v>1168.8817116199998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>946.29359808</c:v>
+                  <c:v>946.29359808000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>992.09683827</c:v>
+                  <c:v>992.09683826999981</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>949.05876201</c:v>
+                  <c:v>949.05876201000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>945.4663590999995</c:v>
+                  <c:v>945.46635909999986</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>753.4474996799999</c:v>
+                  <c:v>753.44749967999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>725.4765811300003</c:v>
+                  <c:v>725.47658113000034</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>904.18796335</c:v>
+                  <c:v>904.18796335000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>883.3173373000002</c:v>
+                  <c:v>883.31733730000019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>854.5695267699996</c:v>
+                  <c:v>854.56952676999981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>806.9340411100002</c:v>
+                  <c:v>806.93404111000018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>633.9578744500001</c:v>
+                  <c:v>633.95787445000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>557.43508356</c:v>
+                  <c:v>557.43508355999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>605.49781106</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>533.5155219199999</c:v>
+                  <c:v>533.51552191999986</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>473.3281420499998</c:v>
+                  <c:v>473.32814205</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>598.23864497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>637.1482960999997</c:v>
+                  <c:v>637.14829609999992</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>686.5764984500004</c:v>
+                  <c:v>686.57649845000037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>692.74337554</c:v>
+                  <c:v>692.74337553999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1120.68901065</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3415.84437267</c:v>
+                  <c:v>3415.8443726699998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3121.1993459</c:v>
+                  <c:v>3121.1993459000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3521.91979806</c:v>
+                  <c:v>3521.9197980599997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,11 +2109,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70257152"/>
-        <c:axId val="70259472"/>
+        <c:axId val="88476672"/>
+        <c:axId val="88490752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70257152"/>
+        <c:axId val="88476672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70259472"/>
+        <c:crossAx val="88490752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2116,7 +2131,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70259472"/>
+        <c:axId val="88490752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70257152"/>
+        <c:crossAx val="88476672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2147,7 +2162,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2181,127 +2196,127 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.144698797693836</c:v>
+                  <c:v>0.14469879769383567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.243527356451042</c:v>
+                  <c:v>0.2435273564510422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.286301492917656</c:v>
+                  <c:v>0.28630149291765566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.226364721254963</c:v>
+                  <c:v>0.22636472125496282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0858946345899312</c:v>
+                  <c:v>8.589463458993124E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0885583194816743</c:v>
+                  <c:v>8.8558319481674252E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0536002188941218</c:v>
+                  <c:v>5.3600218894121823E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00407757168046086</c:v>
+                  <c:v>4.077571680460859E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0768033063101435</c:v>
+                  <c:v>7.6803306310143468E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.121170147710263</c:v>
+                  <c:v>0.12117014771026273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.154335543367612</c:v>
+                  <c:v>0.15433554336761238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.160102496688165</c:v>
+                  <c:v>0.16010249668816451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.239229079188458</c:v>
+                  <c:v>0.23922907918845843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.243197886695858</c:v>
+                  <c:v>0.24319788669585829</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.228949168564439</c:v>
+                  <c:v>0.22894916856443936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.213807197111073</c:v>
+                  <c:v>0.21380719711107346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103892259855381</c:v>
+                  <c:v>0.10389225985538099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.161884865765453</c:v>
+                  <c:v>0.16188486576545277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.150210128112759</c:v>
+                  <c:v>0.15021012811275913</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.139054610894902</c:v>
+                  <c:v>0.1390546108949024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.135396902229586</c:v>
+                  <c:v>0.13539690222958609</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.144106794192331</c:v>
+                  <c:v>0.14410679419233119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.119552989553024</c:v>
+                  <c:v>0.11955298955302383</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.100500721803381</c:v>
+                  <c:v>0.10050072180338111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.170548953492658</c:v>
+                  <c:v>0.17054895349265764</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.149569336601564</c:v>
+                  <c:v>0.14956933660156416</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.134128263912968</c:v>
+                  <c:v>0.13412826391296834</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0902151690704745</c:v>
+                  <c:v>9.0215169070474513E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.101896973242967</c:v>
+                  <c:v>0.10189697324296716</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.100718434772713</c:v>
+                  <c:v>0.10071843477271319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0410114375890198</c:v>
+                  <c:v>4.1011437589019747E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.011067812114875</c:v>
+                  <c:v>1.1067812114874986E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.00669017905059507</c:v>
+                  <c:v>-6.690179050595076E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00140959430461688</c:v>
+                  <c:v>1.4095943046168787E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0342129490442933</c:v>
+                  <c:v>3.4212949044293332E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0228756455838605</c:v>
+                  <c:v>2.2875645583860495E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.131280321921676</c:v>
+                  <c:v>0.13128032192167643</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.289172387685072</c:v>
+                  <c:v>0.28917238768507203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.50438219405794</c:v>
+                  <c:v>0.50438219405793994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.578106362478927</c:v>
+                  <c:v>0.57810636247892666</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.690769532758836</c:v>
+                  <c:v>0.69076953275883601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,12 +2496,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42867216"/>
-        <c:axId val="42869536"/>
+        <c:axId val="88531712"/>
+        <c:axId val="88533248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42867216"/>
+        <c:axId val="88531712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42869536"/>
+        <c:crossAx val="88533248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42869536"/>
+        <c:axId val="88533248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,7 +2531,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42867216"/>
+        <c:crossAx val="88531712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2535,7 +2551,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2571,124 +2587,124 @@
                   <c:v>54.6794498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244.4528373700001</c:v>
+                  <c:v>244.45283737000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.86103216</c:v>
+                  <c:v>203.86103215999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>117.87453495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.89832168</c:v>
+                  <c:v>33.898321680000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.53942561</c:v>
+                  <c:v>93.539425609999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.502735220000005</c:v>
+                  <c:v>1.5027352200000053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-148.41847136</c:v>
+                  <c:v>-148.41847136000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.59049659</c:v>
+                  <c:v>41.590496590000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.26055997</c:v>
+                  <c:v>103.26055996999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144.52169996</c:v>
+                  <c:v>144.52169996000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>132.39585828</c:v>
+                  <c:v>132.39585828000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176.49496307</c:v>
+                  <c:v>176.49496306999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225.25540927</c:v>
+                  <c:v>225.25540926999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143.1170427800001</c:v>
+                  <c:v>143.11704278000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.37830380999986</c:v>
+                  <c:v>91.37830380999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.12290491999995</c:v>
+                  <c:v>70.122904919999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193.90463809</c:v>
+                  <c:v>193.90463808999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123.0113318299999</c:v>
+                  <c:v>123.01133182999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85.0941960800001</c:v>
+                  <c:v>85.094196080000074</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>110.36932069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106.91735508</c:v>
+                  <c:v>106.91735508000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.50288532</c:v>
+                  <c:v>35.50288531999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-18.90155292000003</c:v>
+                  <c:v>-18.901552920000029</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>127.58341149</c:v>
+                  <c:v>127.58341148999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>131.86484223</c:v>
+                  <c:v>131.86484223000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.38483983999996</c:v>
+                  <c:v>75.384839839999984</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-71.31218788000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-13.94063555</c:v>
+                  <c:v>-13.940635550000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.42761528000001</c:v>
+                  <c:v>38.427615280000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-17.86843796</c:v>
+                  <c:v>-17.868437960000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.38212037</c:v>
+                  <c:v>6.3821203700000018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.307820209999997</c:v>
+                  <c:v>4.30782021</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.45368392</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.45962822</c:v>
+                  <c:v>58.459628219999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-31.2949681</c:v>
+                  <c:v>-31.294968099999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72.48789091</c:v>
+                  <c:v>72.48789090999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>375.8153249</c:v>
+                  <c:v>375.81532490000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1768.17529477</c:v>
+                  <c:v>1768.1752947700002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1755.71862063</c:v>
+                  <c:v>1755.7186206299998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2029.26553149</c:v>
+                  <c:v>2029.2655314900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2868,11 +2884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42827712"/>
-        <c:axId val="42829760"/>
+        <c:axId val="88877312"/>
+        <c:axId val="88887296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42827712"/>
+        <c:axId val="88877312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42829760"/>
+        <c:crossAx val="88887296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +2906,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42829760"/>
+        <c:axId val="88887296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42827712"/>
+        <c:crossAx val="88877312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2921,7 +2937,130 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>利润表（年）!$B$2:$K$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3342.69811411</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2121.88933464</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3216.4856553300001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4526.0456090600001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3950.7061901399998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3373.4492019200002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3449.0088685300002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2330.4062909899999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2395.2915815700003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8350.4761047600005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="131773568"/>
+        <c:axId val="131775104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="131773568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131775104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131775104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131773568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2966,26 +3105,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3025,31 +3144,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0091231E7</c:v>
+                  <c:v>20091231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0101231E7</c:v>
+                  <c:v>20101231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0111231E7</c:v>
+                  <c:v>20111231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0121231E7</c:v>
+                  <c:v>20121231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0131231E7</c:v>
+                  <c:v>20131231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0141231E7</c:v>
+                  <c:v>20141231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0151231E7</c:v>
+                  <c:v>20151231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0161231E7</c:v>
+                  <c:v>20161231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0171231E7</c:v>
+                  <c:v>20171231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3061,7 +3180,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>238.128395</c:v>
+                  <c:v>238.12839500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>245.223702</c:v>
@@ -3073,16 +3192,16 @@
                   <c:v>619.88198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288.366575</c:v>
+                  <c:v>288.36657500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-96.939312</c:v>
+                  <c:v>-96.939312000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-94.746551</c:v>
+                  <c:v>-94.746550999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-185.596323</c:v>
+                  <c:v>-185.59632300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>137.166203</c:v>
@@ -3101,11 +3220,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="44005392"/>
-        <c:axId val="44007440"/>
+        <c:axId val="88122112"/>
+        <c:axId val="88123648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44005392"/>
+        <c:axId val="88122112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,10 +3264,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44007440"/>
+        <c:crossAx val="88123648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3156,7 +3275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44007440"/>
+        <c:axId val="88123648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3176,6 +3295,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3203,10 +3323,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44005392"/>
+        <c:crossAx val="88122112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3244,7 +3364,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3255,10 +3375,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3304,26 +3424,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3362,34 +3462,34 @@
             <c:numRef>
               <c:f>运营资本追加!$C$7:$K$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>#,000_ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-108.153402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.126264</c:v>
+                  <c:v>85.126264000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1055.49837924</c:v>
+                  <c:v>1055.4983792400003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-870.4773645400003</c:v>
+                  <c:v>-870.47736454000039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1669.28885151</c:v>
+                  <c:v>1669.2888515100003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.23676510999966</c:v>
+                  <c:v>-17.236765109999656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-601.9396851000004</c:v>
+                  <c:v>-601.93968510000036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>713.909621</c:v>
+                  <c:v>713.90962100000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3760.362310700001</c:v>
+                  <c:v>3760.3623107000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,11 +3506,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70280032"/>
-        <c:axId val="70282512"/>
+        <c:axId val="88190976"/>
+        <c:axId val="88192896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70280032"/>
+        <c:axId val="88190976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3449,10 +3549,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70282512"/>
+        <c:crossAx val="88192896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +3560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70282512"/>
+        <c:axId val="88192896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,6 +3580,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="#,000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3507,10 +3608,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70280032"/>
+        <c:crossAx val="88190976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3548,7 +3649,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3559,10 +3660,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3574,7 +3675,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3600,7 +3700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3651,7 +3751,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3677,7 +3776,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3692,28 +3791,28 @@
                   <c:v>17.33926816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.86964496</c:v>
+                  <c:v>17.869644960000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.31055064</c:v>
+                  <c:v>19.310550639999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28.26132763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.13173623</c:v>
+                  <c:v>32.131736230000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.09239686</c:v>
+                  <c:v>48.092396860000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.49632664</c:v>
+                  <c:v>49.496326639999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.33802424</c:v>
+                  <c:v>46.338024240000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.01392028</c:v>
+                  <c:v>47.013920280000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>52.71841328</c:v>
@@ -3733,11 +3832,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70294080"/>
-        <c:axId val="70296560"/>
+        <c:axId val="87959424"/>
+        <c:axId val="87960960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70294080"/>
+        <c:axId val="87959424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,10 +3875,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70296560"/>
+        <c:crossAx val="87960960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70296560"/>
+        <c:axId val="87960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,6 +3906,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3834,10 +3934,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70294080"/>
+        <c:crossAx val="87959424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3875,7 +3975,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5615,6 +5715,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>2598207</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>465665</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>13605</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>188685</xdr:rowOff>
@@ -5645,7 +5780,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5680,7 +5815,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6008,33 +6143,33 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="17" width="16.1640625" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
-    <col min="19" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" customWidth="1"/>
-    <col min="23" max="25" width="16.1640625" customWidth="1"/>
-    <col min="26" max="26" width="14.83203125" customWidth="1"/>
-    <col min="27" max="29" width="16.1640625" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" customWidth="1"/>
-    <col min="31" max="33" width="16.1640625" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" customWidth="1"/>
-    <col min="35" max="37" width="16.1640625" customWidth="1"/>
-    <col min="38" max="38" width="14.83203125" customWidth="1"/>
-    <col min="39" max="41" width="16.1640625" customWidth="1"/>
-    <col min="42" max="42" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="21" width="16.125" customWidth="1"/>
+    <col min="22" max="22" width="14.875" customWidth="1"/>
+    <col min="23" max="25" width="16.125" customWidth="1"/>
+    <col min="26" max="26" width="14.875" customWidth="1"/>
+    <col min="27" max="29" width="16.125" customWidth="1"/>
+    <col min="30" max="30" width="14.875" customWidth="1"/>
+    <col min="31" max="33" width="16.125" customWidth="1"/>
+    <col min="34" max="34" width="14.875" customWidth="1"/>
+    <col min="35" max="37" width="16.125" customWidth="1"/>
+    <col min="38" max="38" width="14.875" customWidth="1"/>
+    <col min="39" max="41" width="16.125" customWidth="1"/>
+    <col min="42" max="42" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6162,7 +6297,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>0</v>
@@ -6288,7 +6423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -6416,7 +6551,7 @@
         <v>3521919798.0599999</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -6585,7 +6720,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -6713,7 +6848,7 @@
         <v>1088929384.6400001</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -6841,7 +6976,7 @@
         <v>593783894.86000001</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -6969,7 +7104,7 @@
         <v>64387327.390000001</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -7097,7 +7232,7 @@
         <v>42301679.880000003</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -7225,7 +7360,7 @@
         <v>415140283.13999999</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -7353,7 +7488,7 @@
         <v>12690359.24</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -7481,7 +7616,7 @@
         <v>-39374159.869999997</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -7609,7 +7744,7 @@
         <v>-19231802.129999999</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -7737,7 +7872,7 @@
         <v>19076282.030000001</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -7865,7 +8000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -7993,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -8162,7 +8297,7 @@
         <v>1088.9293846400001</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -8290,7 +8425,7 @@
         <v>2432834893.3200002</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -8459,7 +8594,7 @@
         <v>2432.83489332</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -8587,7 +8722,7 @@
         <v>7521133.6600000001</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8715,7 +8850,7 @@
         <v>8050088.71</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -8843,7 +8978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -8971,7 +9106,7 @@
         <v>2432305938.27</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -9140,7 +9275,7 @@
         <v>2432.3059382699998</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -9268,7 +9403,7 @@
         <v>403040406.77999997</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -9396,7 +9531,7 @@
         <v>2029265531.49</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -9565,7 +9700,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -9734,7 +9869,7 @@
         <v>0.16570300653324319</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -9783,7 +9918,7 @@
       <c r="AO28" s="5"/>
       <c r="AP28" s="14"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -9911,7 +10046,7 @@
         <v>1894467635.8499999</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42">
       <c r="A30" s="4" t="s">
         <v>123</v>
       </c>
@@ -10080,7 +10215,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -10208,7 +10343,7 @@
         <v>134797895.63999999</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -10254,7 +10389,7 @@
       <c r="AO32" s="5"/>
       <c r="AP32" s="14"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -10382,7 +10517,7 @@
         <v>1.0590999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -10510,7 +10645,7 @@
         <v>1.0590999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -10638,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
@@ -10766,7 +10901,7 @@
         <v>2029265531.49</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
@@ -10894,7 +11029,7 @@
         <v>1894467635.8499999</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
@@ -11022,7 +11157,7 @@
         <v>134797895.63999999</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42">
       <c r="A45" s="3"/>
       <c r="C45" s="2"/>
     </row>
@@ -11041,17 +11176,17 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -11095,7 +11230,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
         <v>224</v>
       </c>
@@ -11130,7 +11265,7 @@
         <v>9055120005.7000008</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="22" t="s">
         <v>227</v>
       </c>
@@ -11175,7 +11310,7 @@
         <v>9055.1200057000005</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="22" t="s">
         <v>94</v>
       </c>
@@ -11210,7 +11345,7 @@
         <v>3401988193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="22" t="s">
         <v>228</v>
       </c>
@@ -11255,7 +11390,7 @@
         <v>3401.9881930000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" s="24" t="s">
         <v>225</v>
       </c>
@@ -11296,7 +11431,7 @@
         <v>3760362310.7000008</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="27" t="s">
         <v>226</v>
       </c>
@@ -11357,16 +11492,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -11410,7 +11545,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="22" t="s">
         <v>172</v>
       </c>
@@ -11448,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="22" t="s">
         <v>173</v>
       </c>
@@ -11486,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="23" t="s">
         <v>220</v>
       </c>
@@ -11531,7 +11666,7 @@
         <v>52718413.280000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="24" t="s">
         <v>221</v>
       </c>
@@ -11605,12 +11740,12 @@
       <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11747,7 +11882,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -11875,7 +12010,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -12003,7 +12138,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -12131,7 +12266,7 @@
         <v>1088.9293846400001</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -12259,7 +12394,7 @@
         <v>2432.83489332</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -12387,7 +12522,7 @@
         <v>0.69076953275883601</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -12515,7 +12650,7 @@
         <v>2432.3059382699998</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -12643,7 +12778,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -12771,7 +12906,7 @@
         <v>0.16570300653324319</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -12779,7 +12914,7 @@
         <v>0.22599720161801548</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -12907,7 +13042,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45">
       <c r="A12" t="s">
         <v>206</v>
       </c>
@@ -13035,7 +13170,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -13163,7 +13298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -13288,7 +13423,7 @@
         <v>29.032228</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45">
       <c r="A15" t="s">
         <v>201</v>
       </c>
@@ -13413,7 +13548,7 @@
         <v>1423.2580610899981</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17" t="s">
         <v>208</v>
       </c>
@@ -13578,7 +13713,7 @@
         <v>576.97524240000189</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -13703,7 +13838,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -13828,7 +13963,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" t="s">
         <v>214</v>
       </c>
@@ -13876,7 +14011,7 @@
         <v>11539.504848000037</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" t="s">
         <v>212</v>
       </c>
@@ -13899,7 +14034,7 @@
         <v>1719.16</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -13924,7 +14059,7 @@
         <v>1719.16</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42">
       <c r="A23" t="s">
         <v>215</v>
       </c>
@@ -13941,24 +14076,24 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="180" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" customWidth="1"/>
+    <col min="20" max="20" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="42.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13999,22 +14134,31 @@
         <v>217</v>
       </c>
       <c r="N1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>218</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" t="s">
         <v>233</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="S1" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>235</v>
       </c>
+      <c r="U1" t="s">
+        <v>237</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -14051,19 +14195,25 @@
       <c r="M2">
         <v>10917</v>
       </c>
-      <c r="O2">
+      <c r="N2">
+        <v>10450</v>
+      </c>
+      <c r="P2">
         <v>13299</v>
       </c>
       <c r="Q2">
+        <v>13777</v>
+      </c>
+      <c r="S2">
         <f>3522*4</f>
         <v>14088</v>
       </c>
-      <c r="R2">
-        <f>Q2*0.8</f>
+      <c r="T2">
+        <f>S2*0.8</f>
         <v>11270.400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -14098,7 +14248,7 @@
         <v>3513.1368803800001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -14133,7 +14283,7 @@
         <v>4827.4633658900002</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -14168,7 +14318,7 @@
         <v>4830.4277729300002</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="25" customFormat="1" ht="13.5">
       <c r="A6" s="25" t="s">
         <v>222</v>
       </c>
@@ -14205,19 +14355,25 @@
       <c r="M6" s="25">
         <v>5840</v>
       </c>
-      <c r="O6" s="25">
+      <c r="N6" s="25">
+        <v>5010</v>
+      </c>
+      <c r="P6" s="25">
         <v>5989</v>
       </c>
       <c r="Q6" s="25">
-        <f>Q2*53%</f>
+        <v>6311</v>
+      </c>
+      <c r="S6" s="25">
+        <f>S2*53%</f>
         <v>7466.64</v>
       </c>
-      <c r="R6" s="25">
-        <f>R2*0.53</f>
+      <c r="T6" s="25">
+        <f>T2*0.53</f>
         <v>5973.3120000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -14252,12 +14408,12 @@
         <v>0.17767176781517674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -14292,7 +14448,7 @@
         <v>3620.4185970799999</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="26" t="s">
         <v>223</v>
       </c>
@@ -14330,17 +14486,29 @@
       <c r="M11">
         <v>55.963000000000001</v>
       </c>
-      <c r="O11">
+      <c r="N11">
+        <v>60.430999999999997</v>
+      </c>
+      <c r="P11">
         <v>55.963000000000001</v>
       </c>
       <c r="Q11">
+        <v>60.430999999999997</v>
+      </c>
+      <c r="S11">
         <v>55.963000000000001</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <v>55.963000000000001</v>
       </c>
+      <c r="U11">
+        <v>60.430999999999997</v>
+      </c>
+      <c r="V11">
+        <v>60.430999999999997</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="25" customFormat="1" ht="13.5">
       <c r="A12" s="26" t="s">
         <v>200</v>
       </c>
@@ -14376,17 +14544,29 @@
       <c r="M12" s="26">
         <v>139.18458955555559</v>
       </c>
-      <c r="O12" s="26">
+      <c r="N12" s="30">
+        <v>145</v>
+      </c>
+      <c r="P12" s="26">
         <v>139.18458955555559</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="30">
+        <v>145</v>
+      </c>
+      <c r="S12" s="25">
         <v>139.18458955555559</v>
       </c>
-      <c r="R12" s="25">
+      <c r="T12" s="25">
         <v>139.18458955555559</v>
       </c>
+      <c r="U12" s="30">
+        <v>145</v>
+      </c>
+      <c r="V12" s="30">
+        <v>145</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="25" t="s">
         <v>226</v>
       </c>
@@ -14420,17 +14600,24 @@
       <c r="M13">
         <v>3760.3623107000008</v>
       </c>
-      <c r="O13">
+      <c r="N13">
         <v>3760.3623107000008</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="31">
         <v>3760.3623107000008</v>
       </c>
-      <c r="R13">
+      <c r="Q13" s="31">
         <v>3760.3623107000008</v>
       </c>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="T13" s="31">
+        <v>3760.3623107000008</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="25" t="s">
         <v>208</v>
       </c>
@@ -14475,100 +14662,139 @@
         <f t="shared" si="0"/>
         <v>1996.4160997444437</v>
       </c>
-      <c r="O14" s="25">
-        <f>O6+O11-O12-O13</f>
+      <c r="N14" s="25">
+        <f>N6+N11-N12-N13</f>
+        <v>1165.0686892999988</v>
+      </c>
+      <c r="P14" s="25">
+        <f>P6+P11-P12-P13</f>
         <v>2145.4160997444437</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="25">
         <f>Q6+Q11-Q12-Q13</f>
+        <v>2466.0686892999988</v>
+      </c>
+      <c r="S14">
+        <f>S6+S11-S12-S13</f>
         <v>3623.0560997444441</v>
       </c>
-      <c r="R14">
-        <f>R6+R11-R12-R13</f>
+      <c r="T14">
+        <f>T6+T11-T12-T13</f>
         <v>2129.7280997444445</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:22">
+      <c r="A15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B17" s="18">
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>209</v>
       </c>
-      <c r="M17">
-        <f>M14/(B16-B15)</f>
+      <c r="M18">
+        <f>M14/(B17-B16)</f>
         <v>57040.459992698386</v>
       </c>
-      <c r="O17">
-        <f>O14/(B16-B15)</f>
-        <v>61297.602849841242</v>
-      </c>
-      <c r="Q17">
-        <f>Q14/(B16-B15)</f>
+      <c r="N18">
+        <f>N14/(B17-B16)</f>
+        <v>33287.676837142819</v>
+      </c>
+      <c r="P18">
+        <f>Q14/(B17-B16)</f>
+        <v>70459.105408571384</v>
+      </c>
+      <c r="Q18">
+        <f>Q14/(B17-B16)</f>
+        <v>70459.105408571384</v>
+      </c>
+      <c r="S18">
+        <f>S14/(B17-B16)</f>
         <v>103515.88856412696</v>
       </c>
-      <c r="R17">
-        <f>R14/(B16-B15)</f>
+      <c r="T18">
+        <f>T14/(B17-B16)</f>
         <v>60849.374278412695</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
         <v>213</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1719.16</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>1719.16</v>
       </c>
-      <c r="O18">
+      <c r="P19">
         <v>1719.16</v>
       </c>
-      <c r="Q18">
+      <c r="S19">
         <v>1719.16</v>
       </c>
-      <c r="R18">
+      <c r="T19">
         <v>1719.16</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>230</v>
       </c>
-      <c r="M19">
-        <f>M17/M18</f>
-        <v>33.179261960898572</v>
-      </c>
-      <c r="O19">
-        <f>O17/O18</f>
-        <v>35.65555436948349</v>
-      </c>
-      <c r="Q19">
-        <f>Q17/Q18</f>
+      <c r="M20">
+        <f>N18/M19</f>
+        <v>19.362756716735394</v>
+      </c>
+      <c r="P20">
+        <f>P18/P19</f>
+        <v>40.984611908473546</v>
+      </c>
+      <c r="S20">
+        <f>S18/S19</f>
         <v>60.213062521305147</v>
       </c>
-      <c r="R19">
-        <f>R17/R18</f>
+      <c r="T20">
+        <f>T18/T19</f>
         <v>35.394829031860148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -14576,38 +14802,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
     <col min="2" max="42" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="16.1640625" customWidth="1"/>
-    <col min="46" max="46" width="14.83203125" customWidth="1"/>
-    <col min="47" max="49" width="16.1640625" customWidth="1"/>
-    <col min="50" max="50" width="14.83203125" customWidth="1"/>
-    <col min="51" max="53" width="16.1640625" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" customWidth="1"/>
-    <col min="55" max="57" width="16.1640625" customWidth="1"/>
-    <col min="58" max="58" width="14.83203125" customWidth="1"/>
-    <col min="59" max="61" width="16.1640625" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" customWidth="1"/>
-    <col min="63" max="65" width="16.1640625" customWidth="1"/>
-    <col min="66" max="66" width="14.83203125" customWidth="1"/>
-    <col min="67" max="69" width="16.1640625" customWidth="1"/>
-    <col min="70" max="70" width="14.83203125" customWidth="1"/>
-    <col min="71" max="73" width="16.1640625" customWidth="1"/>
-    <col min="74" max="74" width="14.83203125" customWidth="1"/>
-    <col min="75" max="77" width="16.1640625" customWidth="1"/>
-    <col min="78" max="78" width="14.83203125" customWidth="1"/>
-    <col min="79" max="81" width="16.1640625" customWidth="1"/>
-    <col min="82" max="82" width="13.1640625" customWidth="1"/>
+    <col min="43" max="45" width="16.125" customWidth="1"/>
+    <col min="46" max="46" width="14.875" customWidth="1"/>
+    <col min="47" max="49" width="16.125" customWidth="1"/>
+    <col min="50" max="50" width="14.875" customWidth="1"/>
+    <col min="51" max="53" width="16.125" customWidth="1"/>
+    <col min="54" max="54" width="14.875" customWidth="1"/>
+    <col min="55" max="57" width="16.125" customWidth="1"/>
+    <col min="58" max="58" width="14.875" customWidth="1"/>
+    <col min="59" max="61" width="16.125" customWidth="1"/>
+    <col min="62" max="62" width="14.875" customWidth="1"/>
+    <col min="63" max="65" width="16.125" customWidth="1"/>
+    <col min="66" max="66" width="14.875" customWidth="1"/>
+    <col min="67" max="69" width="16.125" customWidth="1"/>
+    <col min="70" max="70" width="14.875" customWidth="1"/>
+    <col min="71" max="73" width="16.125" customWidth="1"/>
+    <col min="74" max="74" width="14.875" customWidth="1"/>
+    <col min="75" max="77" width="16.125" customWidth="1"/>
+    <col min="78" max="78" width="14.875" customWidth="1"/>
+    <col min="79" max="81" width="16.125" customWidth="1"/>
+    <col min="82" max="82" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -14735,7 +14961,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" s="1" customFormat="1">
       <c r="B2" s="10">
         <v>0</v>
       </c>
@@ -14860,7 +15086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -14988,7 +15214,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -15156,7 +15382,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -15284,7 +15510,7 @@
         <v>1088.9293846400001</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -15412,7 +15638,7 @@
         <v>2432.83489332</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -15581,7 +15807,7 @@
         <v>0.69076953275883601</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -15709,7 +15935,7 @@
         <v>2432.3059382699998</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -15837,7 +16063,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -16005,7 +16231,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -16133,7 +16359,7 @@
         <v>0.16570300653324319</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -16181,7 +16407,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="9"/>
     </row>
-    <row r="13" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -16309,7 +16535,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="28" spans="43:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="43:43">
       <c r="AQ28" s="2"/>
     </row>
   </sheetData>
@@ -16328,9 +16554,9 @@
       <selection sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -16465,19 +16691,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="A1:N9"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="16.1640625" customWidth="1"/>
+    <col min="2" max="11" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16521,7 +16747,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
@@ -16565,7 +16791,7 @@
         <v>10202</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
@@ -16600,7 +16826,7 @@
         <v>3513.1368803800001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -16635,7 +16861,7 @@
         <v>4827.4633658900002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -16670,7 +16896,7 @@
         <v>4830.4277729300002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -16714,7 +16940,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -16759,7 +16985,7 @@
         <v>0.17767176781517674</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
@@ -16774,7 +17000,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
         <v>123</v>
       </c>
@@ -16809,12 +17035,13 @@
         <v>3620.4185970799999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16822,23 +17049,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP85"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
       <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="42" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -16966,7 +17193,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42">
       <c r="A2" s="15" t="s">
         <v>124</v>
       </c>
@@ -17094,7 +17321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -17140,7 +17367,7 @@
       <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -17268,7 +17495,7 @@
         <v>2292472975</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
@@ -17396,7 +17623,7 @@
         <v>229286219</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
@@ -17524,7 +17751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -17652,7 +17879,7 @@
         <v>3181781928</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -17780,7 +18007,7 @@
         <v>1392378053</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42">
       <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
@@ -17908,7 +18135,7 @@
         <v>347575088.69999999</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
@@ -18036,7 +18263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42">
       <c r="A11" s="15" t="s">
         <v>45</v>
       </c>
@@ -18164,7 +18391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42">
       <c r="A12" s="15" t="s">
         <v>46</v>
       </c>
@@ -18292,7 +18519,7 @@
         <v>129165416.7</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42">
       <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
@@ -18420,7 +18647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="A14" s="15" t="s">
         <v>48</v>
       </c>
@@ -18548,7 +18775,7 @@
         <v>1705673404</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42">
       <c r="A15" s="15" t="s">
         <v>49</v>
       </c>
@@ -18676,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16" s="15" t="s">
         <v>50</v>
       </c>
@@ -18804,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
@@ -18932,7 +19159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18" s="15" t="s">
         <v>52</v>
       </c>
@@ -19060,7 +19287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
@@ -19188,7 +19415,7 @@
         <v>3527215618</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" s="15" t="s">
         <v>54</v>
       </c>
@@ -19316,7 +19543,7 @@
         <v>12805548702</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" s="15" t="s">
         <v>55</v>
       </c>
@@ -19362,7 +19589,7 @@
       <c r="AO21" s="15"/>
       <c r="AP21" s="15"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" s="15" t="s">
         <v>56</v>
       </c>
@@ -19490,7 +19717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42">
       <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
@@ -19618,7 +19845,7 @@
         <v>27143237.219999999</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42">
       <c r="A24" s="15" t="s">
         <v>58</v>
       </c>
@@ -19746,7 +19973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42">
       <c r="A25" s="15" t="s">
         <v>59</v>
       </c>
@@ -19874,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42">
       <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
@@ -20002,7 +20229,7 @@
         <v>285020691.69999999</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42">
       <c r="A27" s="15" t="s">
         <v>61</v>
       </c>
@@ -20130,7 +20357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42">
       <c r="A28" s="15" t="s">
         <v>62</v>
       </c>
@@ -20258,7 +20485,7 @@
         <v>1609418213</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42">
       <c r="A29" s="15" t="s">
         <v>63</v>
       </c>
@@ -20386,7 +20613,7 @@
         <v>420851221</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -20514,7 +20741,7 @@
         <v>1146325.78</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42">
       <c r="A31" s="15" t="s">
         <v>65</v>
       </c>
@@ -20642,7 +20869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42">
       <c r="A32" s="15" t="s">
         <v>66</v>
       </c>
@@ -20770,7 +20997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42">
       <c r="A33" s="15" t="s">
         <v>67</v>
       </c>
@@ -20898,7 +21125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42">
       <c r="A34" s="15" t="s">
         <v>68</v>
       </c>
@@ -21026,7 +21253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" s="15" t="s">
         <v>69</v>
       </c>
@@ -21154,7 +21381,7 @@
         <v>462994922.60000002</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42">
       <c r="A36" s="15" t="s">
         <v>70</v>
       </c>
@@ -21282,7 +21509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" s="15" t="s">
         <v>71</v>
       </c>
@@ -21410,7 +21637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" s="15" t="s">
         <v>72</v>
       </c>
@@ -21538,7 +21765,7 @@
         <v>3804088.07</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42">
       <c r="A39" s="15" t="s">
         <v>73</v>
       </c>
@@ -21666,7 +21893,7 @@
         <v>80827291.819999993</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42">
       <c r="A40" s="15" t="s">
         <v>74</v>
       </c>
@@ -21794,7 +22021,7 @@
         <v>102704259.7</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42">
       <c r="A41" s="15" t="s">
         <v>75</v>
       </c>
@@ -21922,7 +22149,7 @@
         <v>2993910251</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42">
       <c r="A42" s="15" t="s">
         <v>76</v>
       </c>
@@ -22050,7 +22277,7 @@
         <v>15799458953</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42">
       <c r="A43" s="15" t="s">
         <v>77</v>
       </c>
@@ -22096,7 +22323,7 @@
       <c r="AO43" s="15"/>
       <c r="AP43" s="15"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42">
       <c r="A44" s="15" t="s">
         <v>78</v>
       </c>
@@ -22224,7 +22451,7 @@
         <v>749000000</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42">
       <c r="A45" s="15" t="s">
         <v>79</v>
       </c>
@@ -22352,7 +22579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42">
       <c r="A46" s="15" t="s">
         <v>80</v>
       </c>
@@ -22480,7 +22707,7 @@
         <v>81020205.900000006</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42">
       <c r="A47" s="15" t="s">
         <v>81</v>
       </c>
@@ -22608,7 +22835,7 @@
         <v>396324850.5</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42">
       <c r="A48" s="15" t="s">
         <v>82</v>
       </c>
@@ -22736,7 +22963,7 @@
         <v>309895193.69999999</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42">
       <c r="A49" s="15" t="s">
         <v>83</v>
       </c>
@@ -22864,7 +23091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42">
       <c r="A50" s="15" t="s">
         <v>84</v>
       </c>
@@ -22992,7 +23219,7 @@
         <v>246365111.19999999</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42">
       <c r="A51" s="15" t="s">
         <v>85</v>
       </c>
@@ -23120,7 +23347,7 @@
         <v>833744073.70000005</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42">
       <c r="A52" s="15" t="s">
         <v>86</v>
       </c>
@@ -23248,7 +23475,7 @@
         <v>7772551.7000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42">
       <c r="A53" s="15" t="s">
         <v>87</v>
       </c>
@@ -23376,7 +23603,7 @@
         <v>1967198.15</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42">
       <c r="A54" s="15" t="s">
         <v>88</v>
       </c>
@@ -23504,7 +23731,7 @@
         <v>490223874.30000001</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42">
       <c r="A55" s="15" t="s">
         <v>89</v>
       </c>
@@ -23632,7 +23859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42">
       <c r="A56" s="15" t="s">
         <v>90</v>
       </c>
@@ -23760,7 +23987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42">
       <c r="A57" s="15" t="s">
         <v>91</v>
       </c>
@@ -23888,7 +24115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42">
       <c r="A58" s="15" t="s">
         <v>92</v>
       </c>
@@ -24016,7 +24243,7 @@
         <v>1285043.75</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42">
       <c r="A59" s="15" t="s">
         <v>93</v>
       </c>
@@ -24144,7 +24371,7 @@
         <v>2780617.99</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42">
       <c r="A60" s="15" t="s">
         <v>94</v>
       </c>
@@ -24272,7 +24499,7 @@
         <v>3120378721</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42">
       <c r="A61" s="15" t="s">
         <v>95</v>
       </c>
@@ -24318,7 +24545,7 @@
       <c r="AO61" s="15"/>
       <c r="AP61" s="15"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42">
       <c r="A62" s="15" t="s">
         <v>96</v>
       </c>
@@ -24446,7 +24673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42">
       <c r="A63" s="15" t="s">
         <v>97</v>
       </c>
@@ -24574,7 +24801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42">
       <c r="A64" s="15" t="s">
         <v>98</v>
       </c>
@@ -24702,7 +24929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42">
       <c r="A65" s="15" t="s">
         <v>99</v>
       </c>
@@ -24830,7 +25057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42">
       <c r="A66" s="15" t="s">
         <v>100</v>
       </c>
@@ -24958,7 +25185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42">
       <c r="A67" s="15" t="s">
         <v>101</v>
       </c>
@@ -25086,7 +25313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42">
       <c r="A68" s="15" t="s">
         <v>102</v>
       </c>
@@ -25214,7 +25441,7 @@
         <v>10252207.58</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42">
       <c r="A69" s="15" t="s">
         <v>103</v>
       </c>
@@ -25342,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42">
       <c r="A70" s="15" t="s">
         <v>104</v>
       </c>
@@ -25470,7 +25697,7 @@
         <v>345504037.69999999</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42">
       <c r="A71" s="15" t="s">
         <v>105</v>
       </c>
@@ -25598,7 +25825,7 @@
         <v>355756245.30000001</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42">
       <c r="A72" s="15" t="s">
         <v>106</v>
       </c>
@@ -25726,7 +25953,7 @@
         <v>3476134966</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42">
       <c r="A73" s="15" t="s">
         <v>107</v>
       </c>
@@ -25772,7 +25999,7 @@
       <c r="AO73" s="15"/>
       <c r="AP73" s="15"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42">
       <c r="A74" s="15" t="s">
         <v>108</v>
       </c>
@@ -25900,7 +26127,7 @@
         <v>1788794378</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42">
       <c r="A75" s="15" t="s">
         <v>109</v>
       </c>
@@ -26028,7 +26255,7 @@
         <v>2295171283</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42">
       <c r="A76" s="15" t="s">
         <v>110</v>
       </c>
@@ -26156,7 +26383,7 @@
         <v>327976140</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42">
       <c r="A77" s="15" t="s">
         <v>111</v>
       </c>
@@ -26284,7 +26511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42">
       <c r="A78" s="15" t="s">
         <v>112</v>
       </c>
@@ -26412,7 +26639,7 @@
         <v>31259667.850000001</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42">
       <c r="A79" s="15" t="s">
         <v>113</v>
       </c>
@@ -26540,7 +26767,7 @@
         <v>519122454.30000001</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42">
       <c r="A80" s="15" t="s">
         <v>114</v>
       </c>
@@ -26668,7 +26895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42">
       <c r="A81" s="15" t="s">
         <v>115</v>
       </c>
@@ -26796,7 +27023,7 @@
         <v>7391074088</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42">
       <c r="A82" s="15" t="s">
         <v>116</v>
       </c>
@@ -26924,7 +27151,7 @@
         <v>11697445731</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42">
       <c r="A83" s="15" t="s">
         <v>117</v>
       </c>
@@ -27052,7 +27279,7 @@
         <v>625878255.70000005</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42">
       <c r="A84" s="15" t="s">
         <v>118</v>
       </c>
@@ -27180,7 +27407,7 @@
         <v>12323323987</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42">
       <c r="A85" s="15" t="s">
         <v>119</v>
       </c>
@@ -27321,17 +27548,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K9"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27366,7 +27593,7 @@
         <v>20171231</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -27401,12 +27628,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -27441,7 +27668,7 @@
         <v>1616538055</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -27476,7 +27703,7 @@
         <v>316307133.30000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -27511,7 +27738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -27546,7 +27773,7 @@
         <v>3102085426</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -27581,7 +27808,7 @@
         <v>791899415.39999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -27616,7 +27843,7 @@
         <v>171464396.19999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -27651,7 +27878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -27686,7 +27913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -27721,7 +27948,7 @@
         <v>86785282.409999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -27756,7 +27983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -27791,7 +28018,7 @@
         <v>1406253492</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -27826,7 +28053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -27861,7 +28088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -27896,7 +28123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -27931,7 +28158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -27966,7 +28193,7 @@
         <v>3496631993</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -28001,12 +28228,12 @@
         <v>10987965194</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -28041,7 +28268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -28076,7 +28303,7 @@
         <v>28889282.100000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -28111,7 +28338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -28146,7 +28373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -28181,7 +28408,7 @@
         <v>285020691.69999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -28216,7 +28443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -28251,7 +28478,7 @@
         <v>1619465200</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -28286,7 +28513,7 @@
         <v>363973887.10000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -28321,7 +28548,7 @@
         <v>1318875.31</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -28356,7 +28583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -28391,7 +28618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -28426,7 +28653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -28461,7 +28688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -28496,7 +28723,7 @@
         <v>479920054.39999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -28531,7 +28758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -28566,7 +28793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -28601,7 +28828,7 @@
         <v>4575152.87</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -28636,7 +28863,7 @@
         <v>74241950.590000004</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -28671,7 +28898,7 @@
         <v>107472928.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -28706,7 +28933,7 @@
         <v>2964878023</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -28741,12 +28968,12 @@
         <v>13952843217</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -28781,7 +29008,7 @@
         <v>806768007.79999995</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -28816,7 +29043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -28851,7 +29078,7 @@
         <v>85749158.709999993</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -28886,7 +29113,7 @@
         <v>344711209.60000002</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -28921,7 +29148,7 @@
         <v>394284079</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -28956,7 +29183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -28991,7 +29218,7 @@
         <v>488506845.5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -29026,7 +29253,7 @@
         <v>736806756.10000002</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -29061,7 +29288,7 @@
         <v>7597814.7300000004</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -29096,7 +29323,7 @@
         <v>1967198.15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -29131,7 +29358,7 @@
         <v>497883730.80000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -29166,7 +29393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -29201,7 +29428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -29236,7 +29463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -29271,7 +29498,7 @@
         <v>37713393.009999998</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -29306,7 +29533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -29341,12 +29568,12 @@
         <v>3401988193</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -29381,7 +29608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -29416,7 +29643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -29451,7 +29678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -29486,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -29521,7 +29748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -29556,7 +29783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -29591,7 +29818,7 @@
         <v>9993687.2200000007</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -29626,7 +29853,7 @@
         <v>257169520.80000001</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -29661,7 +29888,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -29696,7 +29923,7 @@
         <v>357163208.10000002</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -29731,12 +29958,12 @@
         <v>3759151401</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -29771,7 +29998,7 @@
         <v>1788794378</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -29806,7 +30033,7 @@
         <v>2200741283</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -29841,7 +30068,7 @@
         <v>327976140</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -29876,7 +30103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -29911,7 +30138,7 @@
         <v>25323027.399999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -29946,7 +30173,7 @@
         <v>519122454.30000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -29981,7 +30208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -30016,7 +30243,7 @@
         <v>5496606452</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -30051,7 +30278,7 @@
         <v>9702611455</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -30086,7 +30313,7 @@
         <v>491080360.10000002</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -30121,7 +30348,7 @@
         <v>10193691815</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -30170,7 +30397,7 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
@@ -30181,7 +30408,7 @@
     <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30381,7 +30608,7 @@
         <v>19700101</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -30578,12 +30805,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66">
       <c r="A3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -30783,7 +31010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -30983,7 +31210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -31183,7 +31410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -31383,7 +31610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -31583,7 +31810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -31783,7 +32010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -31983,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -32183,7 +32410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -32383,7 +32610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -32583,12 +32810,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66">
       <c r="A14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -32788,7 +33015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -32988,7 +33215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -33188,7 +33415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -33388,7 +33615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -33588,7 +33815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -33788,7 +34015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -33988,7 +34215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -34188,7 +34415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -34388,7 +34615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -34588,7 +34815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -34788,7 +35015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -34988,12 +35215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66">
       <c r="A27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -35193,7 +35420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -35393,7 +35620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -35593,7 +35820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -35793,7 +36020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -35993,7 +36220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -36193,7 +36420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -36393,7 +36620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -36593,7 +36820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -36793,7 +37020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -36993,7 +37220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -37193,7 +37420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -37393,7 +37620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -37593,7 +37820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:66">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -37793,7 +38020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:66">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -37993,7 +38220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:66">
       <c r="A43" t="s">
         <v>166</v>
       </c>
@@ -38193,12 +38420,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:66">
       <c r="A44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:66">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -38398,7 +38625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:66">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -38598,7 +38825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:66">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -38798,7 +39025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:66">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -38998,7 +39225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:66">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -39198,7 +39425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:66">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -39398,7 +39625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:66">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -39598,7 +39825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:66">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -39798,7 +40025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:66">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -39998,7 +40225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:66">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -40198,7 +40425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:66">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -40398,7 +40625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:66">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -40598,7 +40825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:66">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -40798,7 +41025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:66">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -40998,7 +41225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:66">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -41198,7 +41425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:66">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -41398,7 +41625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:66">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -41598,7 +41825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:66">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -41798,7 +42025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:66">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -41998,7 +42225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:66">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -42198,7 +42425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:66">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -42398,7 +42625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:66">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -42598,7 +42825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:66">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -42798,7 +43025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:66">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -42998,7 +43225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:66">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -43198,7 +43425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:66">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -43398,7 +43625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -43598,7 +43825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:66">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -43798,7 +44025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:66">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -43998,7 +44225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:66">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -44198,7 +44425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:66">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -44398,7 +44625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:66">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -44598,7 +44825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:66">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -44809,16 +45036,16 @@
   <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -44856,12 +45083,12 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -44899,7 +45126,7 @@
         <v>3123608529.8299999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -44937,7 +45164,7 @@
         <v>933062.33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -44975,7 +45202,7 @@
         <v>18113703.219999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -45013,7 +45240,7 @@
         <v>3142655295.3800001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -45051,7 +45278,7 @@
         <v>840924632.85000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -45089,7 +45316,7 @@
         <v>632128451.74000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -45127,7 +45354,7 @@
         <v>884444496.09000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -45165,7 +45392,7 @@
         <v>97844715.969999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -45203,7 +45430,7 @@
         <v>2455342296.6500001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -45241,12 +45468,12 @@
         <v>687312998.73000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -45284,7 +45511,7 @@
         <v>144740453.33000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -45322,7 +45549,7 @@
         <v>21211162.949999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -45360,7 +45587,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -45398,7 +45625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -45436,7 +45663,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -45474,7 +45701,7 @@
         <v>645965216.27999997</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -45512,7 +45739,7 @@
         <v>34034760.479999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -45550,7 +45777,7 @@
         <v>75205296.239999995</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -45588,7 +45815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -45626,7 +45853,7 @@
         <v>190000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -45664,7 +45891,7 @@
         <v>299240056.72000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -45702,12 +45929,12 @@
         <v>346725159.56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -45745,7 +45972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -45783,7 +46010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -45821,7 +46048,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -45859,7 +46086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -45897,7 +46124,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -45935,7 +46162,7 @@
         <v>236000000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -45973,7 +46200,7 @@
         <v>236000000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -46011,7 +46238,7 @@
         <v>7742400.1100000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -46049,7 +46276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -46087,7 +46314,7 @@
         <v>57768007.829999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -46125,7 +46352,7 @@
         <v>301510407.94</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -46163,7 +46390,7 @@
         <v>-65510407.939999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -46201,7 +46428,7 @@
         <v>29043417.239999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>164</v>
       </c>
@@ -46239,7 +46466,7 @@
         <v>997571167.59000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -46277,7 +46504,7 @@
         <v>1572465931.21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -46315,12 +46542,12 @@
         <v>2570037098.8000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -46358,7 +46585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -46396,7 +46623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -46434,7 +46661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -46472,7 +46699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -46510,7 +46737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -46548,7 +46775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -46586,7 +46813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -46624,7 +46851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -46662,7 +46889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -46700,7 +46927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -46738,7 +46965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -46776,7 +47003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -46814,7 +47041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -46852,7 +47079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -46890,7 +47117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -46928,7 +47155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -46966,7 +47193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -47004,7 +47231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -47042,7 +47269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -47080,7 +47307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -47118,7 +47345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -47156,7 +47383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -47194,7 +47421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -47232,7 +47459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -47270,7 +47497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -47308,7 +47535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -47346,7 +47573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -47384,7 +47611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -47422,7 +47649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -47460,7 +47687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -47498,7 +47725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>197</v>
       </c>
@@ -47536,7 +47763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -47591,13 +47818,13 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -47641,7 +47868,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
         <v>75</v>
       </c>
@@ -47676,7 +47903,7 @@
         <v>2964878023</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -47717,7 +47944,7 @@
         <v>137166203</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -47767,7 +47994,7 @@
         <v>139.18458955555559</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="K5">
         <f>AVERAGE(C4:K4)</f>
         <v>139.18458955555559</v>

--- a/方大碳素估值.xlsx
+++ b/方大碳素估值.xlsx
@@ -9,22 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="利润表raw" sheetId="1" r:id="rId1"/>
     <sheet name="利润表（季度）" sheetId="2" r:id="rId2"/>
-    <sheet name="资本支出" sheetId="5" r:id="rId3"/>
-    <sheet name="利润表（年）" sheetId="4" r:id="rId4"/>
-    <sheet name="资产负债raw" sheetId="3" r:id="rId5"/>
-    <sheet name="资产负债（年）" sheetId="12" r:id="rId6"/>
-    <sheet name="现金流量raw" sheetId="6" r:id="rId7"/>
-    <sheet name="现金流量（年）" sheetId="13" r:id="rId8"/>
-    <sheet name="CAPEX" sheetId="9" r:id="rId9"/>
-    <sheet name="运营资本追加" sheetId="10" r:id="rId10"/>
-    <sheet name="NCC" sheetId="7" r:id="rId11"/>
-    <sheet name="DCF估值" sheetId="8" r:id="rId12"/>
-    <sheet name="DCF按年估值" sheetId="11" r:id="rId13"/>
+    <sheet name="利润表（年）" sheetId="4" r:id="rId3"/>
+    <sheet name="资产负债raw" sheetId="3" r:id="rId4"/>
+    <sheet name="资产负债（年）" sheetId="12" r:id="rId5"/>
+    <sheet name="现金流量raw" sheetId="6" r:id="rId6"/>
+    <sheet name="现金流量（年）" sheetId="13" r:id="rId7"/>
+    <sheet name="CAPEX" sheetId="9" r:id="rId8"/>
+    <sheet name="运营资本追加" sheetId="10" r:id="rId9"/>
+    <sheet name="NCC" sheetId="7" r:id="rId10"/>
+    <sheet name="DCF按年估值" sheetId="11" r:id="rId11"/>
+    <sheet name="FCFF估值" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="232">
   <si>
     <t>报表日期</t>
   </si>
@@ -652,67 +651,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>运营资本追加（百万）</t>
-    <rPh sb="0" eb="1">
-      <t>fca</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>uqwm</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>sg</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wnlk</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>djv</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>dnv</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20180631E</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20180931E</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20181231E</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>摊销（百万）NCC</t>
-    <rPh sb="0" eb="1">
-      <t>rcqi</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>djf</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>dnv</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>净利润（每季，百万）NI</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPEX（百万）FCInv</t>
-    <rPh sb="6" eb="7">
-      <t>djf</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>dnv</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>FCFF</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -736,19 +674,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>永续增长</t>
-    <rPh sb="0" eb="1">
-      <t>yni</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>xfn</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fut</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>折扣率</t>
     <rPh sb="0" eb="1">
       <t>rrr</t>
@@ -759,42 +684,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>流通股数量</t>
-  </si>
-  <si>
     <t>流通股数量（百万股）</t>
-  </si>
-  <si>
-    <t>资产价值（百万）</t>
-    <rPh sb="0" eb="1">
-      <t>uqwm</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>u</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wwwf</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>djf</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>dnv</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>每股估值</t>
-    <rPh sb="0" eb="1">
-      <t>txg</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>emc</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wdw</t>
-    </rPh>
-    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>2019E</t>
@@ -1102,14 +992,56 @@
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>2017 Baseline</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 E price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019E</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 E Price</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019E </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表日期 单位 百万</t>
+    <rPh sb="5" eb="6">
+      <t>ujw</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>djf</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dnv</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛利率</t>
+    <rPh sb="0" eb="1">
+      <t>tfn</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>tjy</t>
+    </rPh>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1600,7 +1532,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1656,8 +1588,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1676,8 +1612,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1691,7 +1625,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="59">
     <cellStyle name="20%-个性色1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20%-个性色2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20%-个性色3" xfId="26" builtinId="38" customBuiltin="1"/>
@@ -1725,6 +1659,8 @@
     <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="个性色1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="个性色2" xfId="21" builtinId="33" customBuiltin="1"/>
     <cellStyle name="个性色3" xfId="25" builtinId="37" customBuiltin="1"/>
@@ -1747,6 +1683,8 @@
     <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1818,10 +1756,10 @@
                   <c:v>588.1151921799999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>581.3675876099998</c:v>
+                  <c:v>581.3675876099996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.1015113999998</c:v>
+                  <c:v>780.1015113999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>889.6945717099995</c:v>
@@ -1830,7 +1768,7 @@
                   <c:v>965.3219846100004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902.9111498599998</c:v>
+                  <c:v>902.9111498599997</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1183.23571039</c:v>
@@ -1857,7 +1795,7 @@
                   <c:v>949.05876201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>945.4663590999995</c:v>
+                  <c:v>945.4663590999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>753.4474996799999</c:v>
@@ -1872,7 +1810,7 @@
                   <c:v>883.3173373000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>854.5695267699996</c:v>
+                  <c:v>854.5695267699995</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>806.9340411100002</c:v>
@@ -1890,13 +1828,13 @@
                   <c:v>533.5155219199999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>473.3281420499998</c:v>
+                  <c:v>473.3281420499997</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>598.23864497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>637.1482960999997</c:v>
+                  <c:v>637.1482960999996</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>686.5764984500004</c:v>
@@ -2094,11 +2032,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="70257152"/>
-        <c:axId val="70259472"/>
+        <c:axId val="-1175991344"/>
+        <c:axId val="-1176034720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70257152"/>
+        <c:axId val="-1175991344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,7 +2046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70259472"/>
+        <c:crossAx val="-1176034720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2116,7 +2054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70259472"/>
+        <c:axId val="-1176034720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2127,7 +2065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70257152"/>
+        <c:crossAx val="-1175991344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2482,11 +2420,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="42867216"/>
-        <c:axId val="42869536"/>
+        <c:axId val="-1176608560"/>
+        <c:axId val="-1176606240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42867216"/>
+        <c:axId val="-1176608560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,7 +2434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42869536"/>
+        <c:crossAx val="-1176606240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +2442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42869536"/>
+        <c:axId val="-1176606240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,7 +2453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42867216"/>
+        <c:crossAx val="-1176608560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2547,7 +2485,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2613,10 +2550,10 @@
                   <c:v>143.1170427800001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.37830380999986</c:v>
+                  <c:v>91.37830380999983</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.12290491999995</c:v>
+                  <c:v>70.12290491999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>193.90463809</c:v>
@@ -2646,7 +2583,7 @@
                   <c:v>131.86484223</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.38483983999996</c:v>
+                  <c:v>75.38483983999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-71.31218788000001</c:v>
@@ -2661,10 +2598,10 @@
                   <c:v>-17.86843796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.38212037</c:v>
+                  <c:v>6.382120369999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.307820209999997</c:v>
+                  <c:v>4.307820209999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.45368392</c:v>
@@ -2868,11 +2805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="42827712"/>
-        <c:axId val="42829760"/>
+        <c:axId val="-1176645952"/>
+        <c:axId val="-1176904608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="42827712"/>
+        <c:axId val="-1176645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2882,7 +2819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42829760"/>
+        <c:crossAx val="-1176904608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +2827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42829760"/>
+        <c:axId val="-1176904608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42827712"/>
+        <c:crossAx val="-1176645952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,11 +3038,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="44005392"/>
-        <c:axId val="44007440"/>
+        <c:axId val="-1181782112"/>
+        <c:axId val="-1177253568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44005392"/>
+        <c:axId val="-1181782112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3148,7 +3085,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44007440"/>
+        <c:crossAx val="-1177253568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3156,7 +3093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44007440"/>
+        <c:axId val="-1177253568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3206,7 +3143,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44005392"/>
+        <c:crossAx val="-1181782112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3406,11 +3343,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70280032"/>
-        <c:axId val="70282512"/>
+        <c:axId val="-1182002240"/>
+        <c:axId val="-1182000192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70280032"/>
+        <c:axId val="-1182002240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3452,7 +3389,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70282512"/>
+        <c:crossAx val="-1182000192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3460,7 +3397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70282512"/>
+        <c:axId val="-1182000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,7 +3447,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70280032"/>
+        <c:crossAx val="-1182002240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,7 +3511,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3651,7 +3587,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3733,11 +3668,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70294080"/>
-        <c:axId val="70296560"/>
+        <c:axId val="-1203328336"/>
+        <c:axId val="-1178367568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70294080"/>
+        <c:axId val="-1203328336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3714,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70296560"/>
+        <c:crossAx val="-1178367568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3787,7 +3722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70296560"/>
+        <c:axId val="-1178367568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3837,7 +3772,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70294080"/>
+        <c:crossAx val="-1203328336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6005,7 +5940,7 @@
   <dimension ref="A1:AP45"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11038,323 +10973,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22">
-        <v>20081231</v>
-      </c>
-      <c r="C1" s="22">
-        <v>20091231</v>
-      </c>
-      <c r="D1" s="22">
-        <v>20101231</v>
-      </c>
-      <c r="E1" s="22">
-        <v>20111231</v>
-      </c>
-      <c r="F1" s="22">
-        <v>20121231</v>
-      </c>
-      <c r="G1" s="22">
-        <v>20131231</v>
-      </c>
-      <c r="H1" s="22">
-        <v>20141231</v>
-      </c>
-      <c r="I1" s="22">
-        <v>20151231</v>
-      </c>
-      <c r="J1" s="22">
-        <v>20161231</v>
-      </c>
-      <c r="K1" s="22">
-        <v>20171231</v>
-      </c>
-      <c r="L1" t="s">
-        <v>218</v>
-      </c>
-      <c r="M1" t="s">
-        <v>216</v>
-      </c>
-      <c r="N1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B2" s="22">
-        <v>2394012201</v>
-      </c>
-      <c r="C2" s="22">
-        <v>2334122097</v>
-      </c>
-      <c r="D2" s="22">
-        <v>2977181426</v>
-      </c>
-      <c r="E2" s="22">
-        <v>3819949243.2400002</v>
-      </c>
-      <c r="F2" s="22">
-        <v>3797905623.6999998</v>
-      </c>
-      <c r="G2" s="22">
-        <v>4629091022.21</v>
-      </c>
-      <c r="H2" s="22">
-        <v>3787276644.1000004</v>
-      </c>
-      <c r="I2" s="22">
-        <v>3849001211</v>
-      </c>
-      <c r="J2" s="22">
-        <v>3595139702</v>
-      </c>
-      <c r="K2" s="22">
-        <v>9055120005.7000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="28">
-        <f>B2/1000000</f>
-        <v>2394.012201</v>
-      </c>
-      <c r="C3" s="28">
-        <f t="shared" ref="C3:J3" si="0">C2/1000000</f>
-        <v>2334.1220969999999</v>
-      </c>
-      <c r="D3" s="28">
-        <f t="shared" si="0"/>
-        <v>2977.1814260000001</v>
-      </c>
-      <c r="E3" s="28">
-        <f t="shared" si="0"/>
-        <v>3819.9492432400002</v>
-      </c>
-      <c r="F3" s="28">
-        <f t="shared" si="0"/>
-        <v>3797.9056237</v>
-      </c>
-      <c r="G3" s="28">
-        <f t="shared" si="0"/>
-        <v>4629.0910222100001</v>
-      </c>
-      <c r="H3" s="28">
-        <f t="shared" si="0"/>
-        <v>3787.2766441000003</v>
-      </c>
-      <c r="I3" s="28">
-        <f t="shared" si="0"/>
-        <v>3849.0012109999998</v>
-      </c>
-      <c r="J3" s="28">
-        <f t="shared" si="0"/>
-        <v>3595.1397019999999</v>
-      </c>
-      <c r="K3" s="28">
-        <f>K2/1000000</f>
-        <v>9055.1200057000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="22">
-        <v>2427258598</v>
-      </c>
-      <c r="C4" s="22">
-        <v>2475521896</v>
-      </c>
-      <c r="D4" s="22">
-        <v>3033454961</v>
-      </c>
-      <c r="E4" s="22">
-        <v>2820724399</v>
-      </c>
-      <c r="F4" s="22">
-        <v>3669158144</v>
-      </c>
-      <c r="G4" s="22">
-        <v>2831054691</v>
-      </c>
-      <c r="H4" s="22">
-        <v>2006477078</v>
-      </c>
-      <c r="I4" s="22">
-        <v>2670141330</v>
-      </c>
-      <c r="J4" s="22">
-        <v>1702370200</v>
-      </c>
-      <c r="K4" s="22">
-        <v>3401988193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" s="28">
-        <f>B4/1000000</f>
-        <v>2427.2585979999999</v>
-      </c>
-      <c r="C5" s="28">
-        <f t="shared" ref="C5:K5" si="1">C4/1000000</f>
-        <v>2475.5218960000002</v>
-      </c>
-      <c r="D5" s="28">
-        <f t="shared" si="1"/>
-        <v>3033.4549609999999</v>
-      </c>
-      <c r="E5" s="28">
-        <f t="shared" si="1"/>
-        <v>2820.7243990000002</v>
-      </c>
-      <c r="F5" s="28">
-        <f t="shared" si="1"/>
-        <v>3669.158144</v>
-      </c>
-      <c r="G5" s="28">
-        <f t="shared" si="1"/>
-        <v>2831.0546909999998</v>
-      </c>
-      <c r="H5" s="28">
-        <f t="shared" si="1"/>
-        <v>2006.4770779999999</v>
-      </c>
-      <c r="I5" s="28">
-        <f t="shared" si="1"/>
-        <v>2670.1413299999999</v>
-      </c>
-      <c r="J5" s="28">
-        <f t="shared" si="1"/>
-        <v>1702.3702000000001</v>
-      </c>
-      <c r="K5" s="28">
-        <f t="shared" si="1"/>
-        <v>3401.9881930000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6">
-        <f>C2-B2-(C4-B4)</f>
-        <v>-108153402</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ref="D6:K6" si="2">D2-C2-(D4-C4)</f>
-        <v>85126264</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>1055498379.2400002</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>-870477364.54000044</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>1669288851.5100002</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>-17236765.109999657</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
-        <v>-601939685.10000038</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>713909621</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>3760362310.7000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="16">
-        <f>C6/1000000</f>
-        <v>-108.153402</v>
-      </c>
-      <c r="D7" s="16">
-        <f t="shared" ref="D7:K7" si="3">D6/1000000</f>
-        <v>85.126264000000006</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" si="3"/>
-        <v>1055.4983792400003</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="3"/>
-        <v>-870.47736454000039</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="3"/>
-        <v>1669.2888515100003</v>
-      </c>
-      <c r="H7" s="16">
-        <f t="shared" si="3"/>
-        <v>-17.236765109999656</v>
-      </c>
-      <c r="I7" s="16">
-        <f t="shared" si="3"/>
-        <v>-601.93968510000036</v>
-      </c>
-      <c r="J7" s="16">
-        <f t="shared" si="3"/>
-        <v>713.90962100000002</v>
-      </c>
-      <c r="K7" s="16">
-        <f t="shared" si="3"/>
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="L7" s="16">
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="M7" s="16">
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="N7" s="16">
-        <v>3760.3623106999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
@@ -11367,128 +10985,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20">
         <v>20081231</v>
       </c>
-      <c r="C1" s="22">
+      <c r="C1" s="20">
         <v>20091231</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="20">
         <v>20101231</v>
       </c>
-      <c r="E1" s="22">
+      <c r="E1" s="20">
         <v>20111231</v>
       </c>
-      <c r="F1" s="22">
+      <c r="F1" s="20">
         <v>20121231</v>
       </c>
-      <c r="G1" s="22">
+      <c r="G1" s="20">
         <v>20131231</v>
       </c>
-      <c r="H1" s="22">
+      <c r="H1" s="20">
         <v>20141231</v>
       </c>
-      <c r="I1" s="22">
+      <c r="I1" s="20">
         <v>20151231</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="20">
         <v>20161231</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="20">
         <v>20171231</v>
       </c>
-      <c r="L1" s="22" t="s">
-        <v>218</v>
+      <c r="L1" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>17306480.559999999</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="20">
         <v>17636164.120000001</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="20">
         <v>18110686.420000002</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="20">
         <v>26282595.219999999</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>31907225.109999999</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <v>37365147.289999999</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="20">
         <v>38303378.869999997</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="20">
         <v>37367572.710000001</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="20">
         <v>37475840.049999997</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="20">
         <v>43045394.469999999</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>32787.599999999999</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="20">
         <v>233480.84</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="20">
         <v>1199864.22</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>1978732.41</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>224511.12</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <v>10727249.57</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="20">
         <v>11192947.77</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="20">
         <v>8970451.5299999993</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="20">
         <v>9538080.2300000004</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="20">
         <v>9673018.8100000005</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>220</v>
+      <c r="A4" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="B4">
         <f>SUM(B2:B3)</f>
@@ -11532,8 +11150,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>221</v>
+      <c r="A5" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="B5">
         <f>B4/1000000</f>
@@ -11596,2341 +11214,727 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="15" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="19.33203125" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>20080331</v>
+        <v>20081231</v>
       </c>
       <c r="C1">
-        <v>20080630</v>
+        <v>20091231</v>
       </c>
       <c r="D1">
-        <v>20080930</v>
+        <v>20101231</v>
       </c>
       <c r="E1">
-        <v>20081231</v>
+        <v>20111231</v>
       </c>
       <c r="F1">
-        <v>20090331</v>
+        <v>20121231</v>
       </c>
       <c r="G1">
-        <v>20090630</v>
+        <v>20131231</v>
       </c>
       <c r="H1">
-        <v>20090930</v>
+        <v>20141231</v>
       </c>
       <c r="I1">
-        <v>20091231</v>
+        <v>20151231</v>
       </c>
       <c r="J1">
-        <v>20100331</v>
+        <v>20161231</v>
       </c>
       <c r="K1">
-        <v>20100630</v>
-      </c>
-      <c r="L1">
-        <v>20100930</v>
-      </c>
-      <c r="M1">
-        <v>20101231</v>
-      </c>
-      <c r="N1">
-        <v>20110331</v>
-      </c>
-      <c r="O1">
-        <v>20110630</v>
-      </c>
-      <c r="P1">
-        <v>20110930</v>
-      </c>
-      <c r="Q1">
-        <v>20111231</v>
-      </c>
-      <c r="R1">
-        <v>20120331</v>
-      </c>
-      <c r="S1">
-        <v>20120630</v>
-      </c>
-      <c r="T1">
-        <v>20120930</v>
-      </c>
-      <c r="U1">
-        <v>20121231</v>
-      </c>
-      <c r="V1">
-        <v>20130331</v>
-      </c>
-      <c r="W1">
-        <v>20130630</v>
-      </c>
-      <c r="X1">
-        <v>20130930</v>
-      </c>
-      <c r="Y1">
-        <v>20131231</v>
-      </c>
-      <c r="Z1">
-        <v>20140331</v>
-      </c>
-      <c r="AA1">
-        <v>20140630</v>
-      </c>
-      <c r="AB1">
-        <v>20140930</v>
-      </c>
-      <c r="AC1">
-        <v>20141231</v>
-      </c>
-      <c r="AD1">
-        <v>20150331</v>
-      </c>
-      <c r="AE1">
-        <v>20150630</v>
-      </c>
-      <c r="AF1">
-        <v>20150930</v>
-      </c>
-      <c r="AG1">
-        <v>20151231</v>
-      </c>
-      <c r="AH1">
-        <v>20160331</v>
-      </c>
-      <c r="AI1">
-        <v>20160630</v>
-      </c>
-      <c r="AJ1">
-        <v>20160930</v>
-      </c>
-      <c r="AK1">
-        <v>20161231</v>
-      </c>
-      <c r="AL1">
-        <v>20170331</v>
-      </c>
-      <c r="AM1">
-        <v>20170630</v>
-      </c>
-      <c r="AN1">
-        <v>20170930</v>
-      </c>
-      <c r="AO1">
         <v>20171231</v>
       </c>
-      <c r="AP1">
-        <v>20180331</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>204</v>
+      <c r="L1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
-        <v>431.26423732999996</v>
+        <v>3342.69811411</v>
       </c>
       <c r="C2">
-        <v>1533.1604223900001</v>
+        <v>2121.88933464</v>
       </c>
       <c r="D2">
-        <v>2172.8512959899999</v>
+        <v>3216.4856553300001</v>
       </c>
       <c r="E2">
-        <v>3342.69811411</v>
+        <v>4526.0456090600001</v>
       </c>
       <c r="F2">
-        <v>437.04861007</v>
+        <v>3950.7061901399998</v>
       </c>
       <c r="G2">
-        <v>1015.0763232200001</v>
+        <v>3373.4492019200002</v>
       </c>
       <c r="H2">
-        <v>1533.7741424600001</v>
+        <v>3449.0088685300002</v>
       </c>
       <c r="I2">
-        <v>2121.88933464</v>
+        <v>2330.4062909899999</v>
       </c>
       <c r="J2">
-        <v>581.36758760999999</v>
+        <v>2395.2915815700003</v>
       </c>
       <c r="K2">
-        <v>1361.46909901</v>
-      </c>
-      <c r="L2">
-        <v>2251.1636707199996</v>
+        <v>8350.4761047600005</v>
       </c>
       <c r="M2">
-        <v>3216.4856553300001</v>
+        <v>10917</v>
       </c>
       <c r="N2">
-        <v>902.91114986000002</v>
-      </c>
-      <c r="O2">
-        <v>2086.1468602499999</v>
+        <v>10450</v>
       </c>
       <c r="P2">
-        <v>3364.3026891499999</v>
+        <v>13299</v>
       </c>
       <c r="Q2">
-        <v>4526.0456090600001</v>
-      </c>
-      <c r="R2">
-        <v>843.43404217</v>
+        <v>13777</v>
       </c>
       <c r="S2">
-        <v>2012.3157537899999</v>
+        <f>3522*4</f>
+        <v>14088</v>
       </c>
       <c r="T2">
-        <v>2958.60935187</v>
+        <v>14088</v>
       </c>
       <c r="U2">
-        <v>3950.7061901399998</v>
-      </c>
-      <c r="V2">
-        <v>949.05876201000001</v>
-      </c>
-      <c r="W2">
-        <v>1894.5251211099999</v>
-      </c>
-      <c r="X2">
-        <v>2647.9726207899998</v>
-      </c>
-      <c r="Y2">
-        <v>3373.4492019200002</v>
-      </c>
-      <c r="Z2">
-        <v>904.18796335000002</v>
-      </c>
-      <c r="AA2">
-        <v>1787.5053006500002</v>
-      </c>
-      <c r="AB2">
-        <v>2642.07482742</v>
-      </c>
-      <c r="AC2">
-        <v>3449.0088685300002</v>
-      </c>
-      <c r="AD2">
-        <v>633.95787445000008</v>
-      </c>
-      <c r="AE2">
-        <v>1191.39295801</v>
-      </c>
-      <c r="AF2">
-        <v>1796.89076907</v>
-      </c>
-      <c r="AG2">
-        <v>2330.4062909899999</v>
-      </c>
-      <c r="AH2">
-        <v>473.32814205</v>
-      </c>
-      <c r="AI2">
-        <v>1071.56678702</v>
-      </c>
-      <c r="AJ2">
-        <v>1708.7150831199999</v>
-      </c>
-      <c r="AK2">
-        <v>2395.2915815700003</v>
-      </c>
-      <c r="AL2">
-        <v>692.74337553999999</v>
-      </c>
-      <c r="AM2">
-        <v>1813.43238619</v>
-      </c>
-      <c r="AN2">
-        <v>5229.27675886</v>
-      </c>
-      <c r="AO2">
-        <v>8350.4761047600005</v>
-      </c>
-      <c r="AP2">
-        <v>3521.9197980599997</v>
+        <f>S2*0.8</f>
+        <v>11270.400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B3">
-        <v>431.26423732999996</v>
+        <v>2582.3348036500001</v>
       </c>
       <c r="C3">
-        <v>1101.8961850600001</v>
+        <v>2113.0369445400001</v>
       </c>
       <c r="D3">
-        <v>639.6908735999998</v>
+        <v>2703.1679991199999</v>
       </c>
       <c r="E3">
-        <v>1169.8468181200001</v>
+        <v>3547.9169763200002</v>
       </c>
       <c r="F3">
-        <v>437.04861007</v>
+        <v>3401.7400051700001</v>
       </c>
       <c r="G3">
-        <v>578.02771315000007</v>
+        <v>3046.8230343699997</v>
       </c>
       <c r="H3">
-        <v>518.69781924000006</v>
+        <v>3235.5625738400004</v>
       </c>
       <c r="I3">
-        <v>588.11519217999989</v>
+        <v>2421.4237705300002</v>
       </c>
       <c r="J3">
-        <v>581.36758760999999</v>
+        <v>2448.6466470999999</v>
       </c>
       <c r="K3">
-        <v>780.10151140000005</v>
-      </c>
-      <c r="L3">
-        <v>889.69457170999954</v>
-      </c>
-      <c r="M3">
-        <v>965.32198461000053</v>
-      </c>
-      <c r="N3">
-        <v>902.91114986000002</v>
-      </c>
-      <c r="O3">
-        <v>1183.2357103899999</v>
-      </c>
-      <c r="P3">
-        <v>1278.1558289</v>
-      </c>
-      <c r="Q3">
-        <v>1161.7429199100002</v>
-      </c>
-      <c r="R3">
-        <v>843.43404217</v>
-      </c>
-      <c r="S3">
-        <v>1168.8817116199998</v>
-      </c>
-      <c r="T3">
-        <v>946.29359808000004</v>
-      </c>
-      <c r="U3">
-        <v>992.09683826999981</v>
-      </c>
-      <c r="V3">
-        <v>949.05876201000001</v>
-      </c>
-      <c r="W3">
-        <v>945.46635909999986</v>
-      </c>
-      <c r="X3">
-        <v>753.44749967999996</v>
-      </c>
-      <c r="Y3">
-        <v>725.47658113000034</v>
-      </c>
-      <c r="Z3">
-        <v>904.18796335000002</v>
-      </c>
-      <c r="AA3">
-        <v>883.31733730000019</v>
-      </c>
-      <c r="AB3">
-        <v>854.56952676999981</v>
-      </c>
-      <c r="AC3">
-        <v>806.93404111000018</v>
-      </c>
-      <c r="AD3">
-        <v>633.95787445000008</v>
-      </c>
-      <c r="AE3">
-        <v>557.43508355999995</v>
-      </c>
-      <c r="AF3">
-        <v>605.49781106</v>
-      </c>
-      <c r="AG3">
-        <v>533.51552191999986</v>
-      </c>
-      <c r="AH3">
-        <v>473.32814205</v>
-      </c>
-      <c r="AI3">
-        <v>598.23864497</v>
-      </c>
-      <c r="AJ3">
-        <v>637.14829609999992</v>
-      </c>
-      <c r="AK3">
-        <v>686.57649845000037</v>
-      </c>
-      <c r="AL3">
-        <v>692.74337553999999</v>
-      </c>
-      <c r="AM3">
-        <v>1120.68901065</v>
-      </c>
-      <c r="AN3">
-        <v>3415.8443726699998</v>
-      </c>
-      <c r="AO3">
-        <v>3121.1993459000005</v>
-      </c>
-      <c r="AP3">
-        <v>3521.9197980599997</v>
+        <v>3513.1368803800001</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>368.85678268999999</v>
+        <v>756.66892684000004</v>
       </c>
       <c r="C4">
-        <v>1159.5596536500002</v>
+        <v>8.6521558599999988</v>
       </c>
       <c r="D4">
-        <v>1550.13068312</v>
+        <v>514.96738398000002</v>
       </c>
       <c r="E4">
-        <v>2582.3348036500001</v>
+        <v>967.70112567000001</v>
       </c>
       <c r="F4">
-        <v>399.72365225999999</v>
+        <v>549.36391202999994</v>
       </c>
       <c r="G4">
-        <v>925.41808415000003</v>
+        <v>339.03407976</v>
       </c>
       <c r="H4">
-        <v>1451.89941765</v>
+        <v>311.15291819999999</v>
       </c>
       <c r="I4">
-        <v>2113.0369445400001</v>
+        <v>25.792498980000001</v>
       </c>
       <c r="J4">
-        <v>537.84455229999992</v>
+        <v>54.793841289999996</v>
       </c>
       <c r="K4">
-        <v>1197.5804230899998</v>
-      </c>
-      <c r="L4">
-        <v>1904.9858425999998</v>
-      </c>
-      <c r="M4">
-        <v>2703.1679991199999</v>
-      </c>
-      <c r="N4">
-        <v>686.95633921000001</v>
-      </c>
-      <c r="O4">
-        <v>1574.28192474</v>
-      </c>
-      <c r="P4">
-        <v>2585.3202839200003</v>
-      </c>
-      <c r="Q4">
-        <v>3547.9169763200002</v>
-      </c>
-      <c r="R4">
-        <v>756.71492855999998</v>
-      </c>
-      <c r="S4">
-        <v>1684.15148929</v>
-      </c>
-      <c r="T4">
-        <v>2512.8266657899999</v>
-      </c>
-      <c r="U4">
-        <v>3401.7400051700001</v>
-      </c>
-      <c r="V4">
-        <v>821.71308572999999</v>
-      </c>
-      <c r="W4">
-        <v>1627.2432545300001</v>
-      </c>
-      <c r="X4">
-        <v>2340.51174485</v>
-      </c>
-      <c r="Y4">
-        <v>3046.8230343699997</v>
-      </c>
-      <c r="Z4">
-        <v>749.61357942999996</v>
-      </c>
-      <c r="AA4">
-        <v>1521.7813063499998</v>
-      </c>
-      <c r="AB4">
-        <v>2324.1808509000002</v>
-      </c>
-      <c r="AC4">
-        <v>3235.5625738400004</v>
-      </c>
-      <c r="AD4">
-        <v>638.33027005999998</v>
-      </c>
-      <c r="AE4">
-        <v>1192.73494583</v>
-      </c>
-      <c r="AF4">
-        <v>1794.6746447799999</v>
-      </c>
-      <c r="AG4">
-        <v>2421.4237705300002</v>
-      </c>
-      <c r="AH4">
-        <v>509.11786260000002</v>
-      </c>
-      <c r="AI4">
-        <v>1118.86010792</v>
-      </c>
-      <c r="AJ4">
-        <v>1713.3511856600001</v>
-      </c>
-      <c r="AK4">
-        <v>2448.6466470999999</v>
-      </c>
-      <c r="AL4">
-        <v>613.56577773000004</v>
-      </c>
-      <c r="AM4">
-        <v>1311.9008594500001</v>
-      </c>
-      <c r="AN4">
-        <v>2613.17111024</v>
-      </c>
-      <c r="AO4">
-        <v>3513.1368803800001</v>
-      </c>
-      <c r="AP4">
-        <v>1088.9293846400001</v>
+        <v>4827.4633658900002</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5">
-        <v>62.403416630000002</v>
+        <v>810.04568854000001</v>
       </c>
       <c r="C5">
-        <v>373.36650467999999</v>
+        <v>14.681769429999999</v>
       </c>
       <c r="D5">
-        <v>622.0905699299999</v>
+        <v>567.00109246</v>
       </c>
       <c r="E5">
-        <v>756.66892684000004</v>
+        <v>872.92892398000004</v>
       </c>
       <c r="F5">
-        <v>37.540130659999996</v>
+        <v>615.49017186000003</v>
       </c>
       <c r="G5">
-        <v>89.89345333</v>
+        <v>339.51682505000002</v>
       </c>
       <c r="H5">
-        <v>82.210629769999997</v>
+        <v>350.92120604000002</v>
       </c>
       <c r="I5">
-        <v>8.6521558599999988</v>
+        <v>45.484489189999998</v>
       </c>
       <c r="J5">
-        <v>44.650952909999994</v>
+        <v>84.951218099999991</v>
       </c>
       <c r="K5">
-        <v>164.96941183000001</v>
-      </c>
-      <c r="L5">
-        <v>347.43456832999999</v>
-      </c>
-      <c r="M5">
-        <v>514.96738398000002</v>
-      </c>
-      <c r="N5">
-        <v>216.00260297</v>
-      </c>
-      <c r="O5">
-        <v>507.34650775</v>
-      </c>
-      <c r="P5">
-        <v>770.25430347999998</v>
-      </c>
-      <c r="Q5">
-        <v>967.70112567000001</v>
-      </c>
-      <c r="R5">
-        <v>87.62626868000001</v>
-      </c>
-      <c r="S5">
-        <v>325.76346568000002</v>
-      </c>
-      <c r="T5">
-        <v>444.41308977999995</v>
-      </c>
-      <c r="U5">
-        <v>549.36391202999994</v>
-      </c>
-      <c r="V5">
-        <v>128.49961640999999</v>
-      </c>
-      <c r="W5">
-        <v>273.01394172000005</v>
-      </c>
-      <c r="X5">
-        <v>316.57304306999998</v>
-      </c>
-      <c r="Y5">
-        <v>339.03407976</v>
-      </c>
-      <c r="Z5">
-        <v>154.20831090999999</v>
-      </c>
-      <c r="AA5">
-        <v>267.35598199000003</v>
-      </c>
-      <c r="AB5">
-        <v>354.37690973000002</v>
-      </c>
-      <c r="AC5">
-        <v>311.15291819999999</v>
-      </c>
-      <c r="AD5">
-        <v>64.598388569999997</v>
-      </c>
-      <c r="AE5">
-        <v>119.99523393000001</v>
-      </c>
-      <c r="AF5">
-        <v>73.693073630000001</v>
-      </c>
-      <c r="AG5">
-        <v>25.792498980000001</v>
-      </c>
-      <c r="AH5">
-        <v>-3.1666500200000001</v>
-      </c>
-      <c r="AI5">
-        <v>1.5104744399999999</v>
-      </c>
-      <c r="AJ5">
-        <v>58.460182070000002</v>
-      </c>
-      <c r="AK5">
-        <v>54.793841289999996</v>
-      </c>
-      <c r="AL5">
-        <v>90.943573349999994</v>
-      </c>
-      <c r="AM5">
-        <v>524.39457301999994</v>
-      </c>
-      <c r="AN5">
-        <v>2637.5540849699996</v>
-      </c>
-      <c r="AO5">
-        <v>4827.4633658900002</v>
-      </c>
-      <c r="AP5">
-        <v>2432.83489332</v>
+        <v>4830.4277729300002</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6">
-        <v>0.14469879769383567</v>
-      </c>
-      <c r="C6">
-        <v>0.2435273564510422</v>
-      </c>
-      <c r="D6">
-        <v>0.28630149291765566</v>
-      </c>
-      <c r="E6">
-        <v>0.22636472125496282</v>
-      </c>
-      <c r="F6">
-        <v>8.589463458993124E-2</v>
-      </c>
-      <c r="G6">
-        <v>8.8558319481674252E-2</v>
-      </c>
-      <c r="H6">
-        <v>5.3600218894121823E-2</v>
-      </c>
-      <c r="I6">
-        <v>4.077571680460859E-3</v>
-      </c>
-      <c r="J6">
-        <v>7.6803306310143468E-2</v>
-      </c>
-      <c r="K6">
-        <v>0.12117014771026273</v>
-      </c>
-      <c r="L6">
-        <v>0.15433554336761238</v>
-      </c>
-      <c r="M6">
-        <v>0.16010249668816451</v>
-      </c>
-      <c r="N6">
-        <v>0.23922907918845843</v>
-      </c>
-      <c r="O6">
-        <v>0.24319788669585829</v>
-      </c>
-      <c r="P6">
-        <v>0.22894916856443936</v>
-      </c>
-      <c r="Q6">
-        <v>0.21380719711107346</v>
-      </c>
-      <c r="R6">
-        <v>0.10389225985538099</v>
-      </c>
-      <c r="S6">
-        <v>0.16188486576545277</v>
-      </c>
-      <c r="T6">
-        <v>0.15021012811275913</v>
-      </c>
-      <c r="U6">
-        <v>0.1390546108949024</v>
-      </c>
-      <c r="V6">
-        <v>0.13539690222958609</v>
-      </c>
-      <c r="W6">
-        <v>0.14410679419233119</v>
-      </c>
-      <c r="X6">
-        <v>0.11955298955302383</v>
-      </c>
-      <c r="Y6">
-        <v>0.10050072180338111</v>
-      </c>
-      <c r="Z6">
-        <v>0.17054895349265764</v>
-      </c>
-      <c r="AA6">
-        <v>0.14956933660156416</v>
-      </c>
-      <c r="AB6">
-        <v>0.13412826391296834</v>
-      </c>
-      <c r="AC6">
-        <v>9.0215169070474513E-2</v>
-      </c>
-      <c r="AD6">
-        <v>0.10189697324296716</v>
-      </c>
-      <c r="AE6">
-        <v>0.10071843477271319</v>
-      </c>
-      <c r="AF6">
-        <v>4.1011437589019747E-2</v>
-      </c>
-      <c r="AG6">
-        <v>1.1067812114874986E-2</v>
-      </c>
-      <c r="AH6">
-        <v>-6.690179050595076E-3</v>
-      </c>
-      <c r="AI6">
-        <v>1.4095943046168787E-3</v>
-      </c>
-      <c r="AJ6">
-        <v>3.4212949044293332E-2</v>
-      </c>
-      <c r="AK6">
-        <v>2.2875645583860495E-2</v>
-      </c>
-      <c r="AL6">
-        <v>0.13128032192167643</v>
-      </c>
-      <c r="AM6">
-        <v>0.28917238768507203</v>
-      </c>
-      <c r="AN6">
-        <v>0.50438219405793994</v>
-      </c>
-      <c r="AO6">
-        <v>0.57810636247892666</v>
-      </c>
-      <c r="AP6">
-        <v>0.69076953275883601</v>
+    <row r="6" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="23">
+        <v>620.86785427999996</v>
+      </c>
+      <c r="C6" s="23">
+        <v>-19.477988850000003</v>
+      </c>
+      <c r="D6" s="23">
+        <v>421.76861480000002</v>
+      </c>
+      <c r="E6" s="23">
+        <v>636.24571892999995</v>
+      </c>
+      <c r="F6" s="23">
+        <v>472.13307092000002</v>
+      </c>
+      <c r="G6" s="23">
+        <v>233.88800816999998</v>
+      </c>
+      <c r="H6" s="23">
+        <v>263.52090568</v>
+      </c>
+      <c r="I6" s="23">
+        <v>13.000662140000001</v>
+      </c>
+      <c r="J6" s="23">
+        <v>30.01879641</v>
+      </c>
+      <c r="K6" s="23">
+        <v>3972.19713121</v>
+      </c>
+      <c r="M6" s="23">
+        <v>5840</v>
+      </c>
+      <c r="N6" s="23">
+        <v>5010</v>
+      </c>
+      <c r="P6" s="23">
+        <v>5989</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>6311</v>
+      </c>
+      <c r="S6" s="23">
+        <f>S2*53%</f>
+        <v>7466.64</v>
+      </c>
+      <c r="U6" s="23">
+        <f>U2*0.53</f>
+        <v>5973.3120000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>66.093972679999993</v>
+        <v>0.23353970885391417</v>
       </c>
       <c r="C7">
-        <v>391.24420150999998</v>
+        <v>2.3266785684700682</v>
       </c>
       <c r="D7">
-        <v>649.58457908000003</v>
+        <v>0.25614144239104025</v>
       </c>
       <c r="E7">
-        <v>810.04568854000001</v>
+        <v>0.27113685724935699</v>
       </c>
       <c r="F7">
-        <v>49.522163620000001</v>
+        <v>0.232915337229151</v>
       </c>
       <c r="G7">
-        <v>174.55921149</v>
+        <v>0.31111511738613923</v>
       </c>
       <c r="H7">
-        <v>174.79597771000002</v>
+        <v>0.24905961468181445</v>
       </c>
       <c r="I7">
-        <v>14.681769429999999</v>
+        <v>0.71417372446037564</v>
       </c>
       <c r="J7">
-        <v>60.603756109999999</v>
+        <v>0.64663489139539476</v>
       </c>
       <c r="K7">
-        <v>190.17101994000001</v>
-      </c>
-      <c r="L7">
-        <v>377.34293086000002</v>
-      </c>
-      <c r="M7">
-        <v>567.00109246</v>
-      </c>
-      <c r="N7">
-        <v>225.57733730999999</v>
-      </c>
-      <c r="O7">
-        <v>520.02104809000002</v>
-      </c>
-      <c r="P7">
-        <v>736.70410792999996</v>
-      </c>
-      <c r="Q7">
-        <v>872.92892398000004</v>
-      </c>
-      <c r="R7">
-        <v>96.890524499999998</v>
-      </c>
-      <c r="S7">
-        <v>348.39628055000003</v>
-      </c>
-      <c r="T7">
-        <v>502.88424363000001</v>
-      </c>
-      <c r="U7">
-        <v>615.49017186000003</v>
-      </c>
-      <c r="V7">
-        <v>147.71315365999999</v>
-      </c>
-      <c r="W7">
-        <v>298.36781136000002</v>
-      </c>
-      <c r="X7">
-        <v>350.59467423000001</v>
-      </c>
-      <c r="Y7">
-        <v>339.51682505000002</v>
-      </c>
-      <c r="Z7">
-        <v>171.85146718999999</v>
-      </c>
-      <c r="AA7">
-        <v>292.08677958999999</v>
-      </c>
-      <c r="AB7">
-        <v>390.31680112999999</v>
-      </c>
-      <c r="AC7">
-        <v>350.92120604000002</v>
-      </c>
-      <c r="AD7">
-        <v>-8.8821748500000002</v>
-      </c>
-      <c r="AE7">
-        <v>44.349006680000002</v>
-      </c>
-      <c r="AF7">
-        <v>1.6574030399999999</v>
-      </c>
-      <c r="AG7">
-        <v>45.484489189999998</v>
-      </c>
-      <c r="AH7">
-        <v>4.4786785499999997</v>
-      </c>
-      <c r="AI7">
-        <v>14.621756080000001</v>
-      </c>
-      <c r="AJ7">
-        <v>88.666864019999991</v>
-      </c>
-      <c r="AK7">
-        <v>84.951218099999991</v>
-      </c>
-      <c r="AL7">
-        <v>95.149494869999998</v>
-      </c>
-      <c r="AM7">
-        <v>526.69273158999999</v>
-      </c>
-      <c r="AN7">
-        <v>2642.95750993</v>
-      </c>
-      <c r="AO7">
-        <v>4830.4277729300002</v>
-      </c>
-      <c r="AP7">
-        <v>2432.3059382699998</v>
+        <v>0.17767176781517674</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8">
-        <v>54.6794498</v>
-      </c>
-      <c r="C8">
-        <v>299.13228717000004</v>
-      </c>
-      <c r="D8">
-        <v>502.99331932999996</v>
-      </c>
-      <c r="E8">
-        <v>620.86785427999996</v>
-      </c>
-      <c r="F8">
-        <v>33.898321680000002</v>
-      </c>
-      <c r="G8">
-        <v>127.43774729</v>
-      </c>
-      <c r="H8">
-        <v>128.94048251000001</v>
-      </c>
-      <c r="I8">
-        <v>-19.477988850000003</v>
-      </c>
-      <c r="J8">
-        <v>41.590496590000001</v>
-      </c>
-      <c r="K8">
-        <v>144.85105655999999</v>
-      </c>
-      <c r="L8">
-        <v>289.37275652</v>
-      </c>
-      <c r="M8">
-        <v>421.76861480000002</v>
-      </c>
-      <c r="N8">
-        <v>176.49496306999998</v>
-      </c>
-      <c r="O8">
-        <v>401.75037233999996</v>
-      </c>
-      <c r="P8">
-        <v>544.86741512000003</v>
-      </c>
-      <c r="Q8">
-        <v>636.24571892999995</v>
-      </c>
-      <c r="R8">
-        <v>70.122904919999996</v>
-      </c>
-      <c r="S8">
-        <v>264.02754300999999</v>
-      </c>
-      <c r="T8">
-        <v>387.03887483999995</v>
-      </c>
-      <c r="U8">
-        <v>472.13307092000002</v>
-      </c>
-      <c r="V8">
-        <v>110.36932069</v>
-      </c>
-      <c r="W8">
-        <v>217.28667577000002</v>
-      </c>
-      <c r="X8">
-        <v>252.78956109000001</v>
-      </c>
-      <c r="Y8">
-        <v>233.88800816999998</v>
-      </c>
-      <c r="Z8">
-        <v>127.58341148999999</v>
-      </c>
-      <c r="AA8">
-        <v>259.44825372000003</v>
-      </c>
-      <c r="AB8">
-        <v>334.83309356000001</v>
-      </c>
-      <c r="AC8">
-        <v>263.52090568</v>
-      </c>
-      <c r="AD8">
-        <v>-13.940635550000001</v>
-      </c>
-      <c r="AE8">
-        <v>24.486979730000002</v>
-      </c>
-      <c r="AF8">
-        <v>6.6185417699999993</v>
-      </c>
-      <c r="AG8">
-        <v>13.000662140000001</v>
-      </c>
-      <c r="AH8">
-        <v>4.30782021</v>
-      </c>
-      <c r="AI8">
-        <v>2.85413629</v>
-      </c>
-      <c r="AJ8">
-        <v>61.313764509999999</v>
-      </c>
-      <c r="AK8">
-        <v>30.01879641</v>
-      </c>
-      <c r="AL8">
-        <v>72.48789090999999</v>
-      </c>
-      <c r="AM8">
-        <v>448.30321580999998</v>
-      </c>
-      <c r="AN8">
-        <v>2216.4785105800001</v>
-      </c>
-      <c r="AO8">
-        <v>3972.19713121</v>
-      </c>
-      <c r="AP8">
-        <v>2029.2655314900001</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B9">
-        <v>0.17270141916365742</v>
+        <v>545.3106808</v>
       </c>
       <c r="C9">
-        <v>0.23543330223041189</v>
+        <v>19.119210800000001</v>
       </c>
       <c r="D9">
-        <v>0.22566924226805951</v>
+        <v>405.90687181999999</v>
       </c>
       <c r="E9">
-        <v>0.23353970885391412</v>
+        <v>614.04388022000001</v>
       </c>
       <c r="F9">
-        <v>0.31549190903464813</v>
+        <v>468.54861161000002</v>
       </c>
       <c r="G9">
-        <v>0.26994544600529119</v>
+        <v>236.05076645</v>
       </c>
       <c r="H9">
-        <v>0.26233724483110132</v>
+        <v>279.16552812999998</v>
       </c>
       <c r="I9">
-        <v>2.3266785684700677</v>
+        <v>31.01373224</v>
       </c>
       <c r="J9">
-        <v>0.31373071143461179</v>
+        <v>67.44890706999999</v>
       </c>
       <c r="K9">
-        <v>0.2383116175866265</v>
-      </c>
-      <c r="L9">
-        <v>0.23313057472550952</v>
-      </c>
-      <c r="M9">
-        <v>0.25614144239104025</v>
-      </c>
-      <c r="N9">
-        <v>0.21758557320210087</v>
-      </c>
-      <c r="O9">
-        <v>0.22743440132740725</v>
-      </c>
-      <c r="P9">
-        <v>0.26039856537385825</v>
-      </c>
-      <c r="Q9">
-        <v>0.27113685724935693</v>
-      </c>
-      <c r="R9">
-        <v>0.27626663926254214</v>
-      </c>
-      <c r="S9">
-        <v>0.24216314079705523</v>
-      </c>
-      <c r="T9">
-        <v>0.23036189790673559</v>
-      </c>
-      <c r="U9">
-        <v>0.23291533722915098</v>
-      </c>
-      <c r="V9">
-        <v>0.25281318585856261</v>
-      </c>
-      <c r="W9">
-        <v>0.27174893706000469</v>
-      </c>
-      <c r="X9">
-        <v>0.27896919242942375</v>
-      </c>
-      <c r="Y9">
-        <v>0.31111511738613906</v>
-      </c>
-      <c r="Z9">
-        <v>0.2575948662169813</v>
-      </c>
-      <c r="AA9">
-        <v>0.11174256471249557</v>
-      </c>
-      <c r="AB9">
-        <v>0.14215044653309825</v>
-      </c>
-      <c r="AC9">
-        <v>0.2490596146818144</v>
-      </c>
-      <c r="AD9">
-        <v>-0.56950699411192074</v>
-      </c>
-      <c r="AE9">
-        <v>0.44785731264094231</v>
-      </c>
-      <c r="AF9">
-        <v>-2.9933206409468154</v>
-      </c>
-      <c r="AG9">
-        <v>0.71417372446037586</v>
-      </c>
-      <c r="AH9">
-        <v>3.8149275080257769E-2</v>
-      </c>
-      <c r="AI9">
-        <v>0.80480208571500111</v>
-      </c>
-      <c r="AJ9">
-        <v>0.30849291685595359</v>
-      </c>
-      <c r="AK9">
-        <v>0.64663489139539487</v>
-      </c>
-      <c r="AL9">
-        <v>0.23816841057287685</v>
-      </c>
-      <c r="AM9">
-        <v>0.14883348692387449</v>
-      </c>
-      <c r="AN9">
-        <v>0.16136430409783453</v>
-      </c>
-      <c r="AO9">
-        <v>0.17767176781517668</v>
-      </c>
-      <c r="AP9">
-        <v>0.16570300653324319</v>
+        <v>3620.4185970799999</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10">
-        <v>0.22599720161801548</v>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="24">
+        <v>17.33926816</v>
+      </c>
+      <c r="C11" s="24">
+        <v>17.869644960000002</v>
+      </c>
+      <c r="D11" s="24">
+        <v>19.310550639999999</v>
+      </c>
+      <c r="E11" s="24">
+        <v>28.26132763</v>
+      </c>
+      <c r="F11" s="24">
+        <v>32.131736230000001</v>
+      </c>
+      <c r="G11" s="24">
+        <v>48.092396860000001</v>
+      </c>
+      <c r="H11" s="24">
+        <v>49.496326639999999</v>
+      </c>
+      <c r="I11" s="24">
+        <v>46.338024240000003</v>
+      </c>
+      <c r="J11" s="24">
+        <v>47.013920280000001</v>
+      </c>
+      <c r="K11" s="20">
+        <v>52.71841328</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11">
+        <v>55.963000000000001</v>
+      </c>
+      <c r="N11">
+        <v>55.963000000000001</v>
+      </c>
+      <c r="P11">
+        <v>55.963000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>55.963000000000001</v>
+      </c>
+      <c r="S11">
+        <v>55.963000000000001</v>
+      </c>
+      <c r="U11">
+        <v>55.963000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
-        <v>48.088020340000007</v>
-      </c>
-      <c r="C11">
-        <v>277.4241581</v>
-      </c>
-      <c r="D11">
-        <v>450.09541947000002</v>
-      </c>
-      <c r="E11">
-        <v>545.3106808</v>
-      </c>
-      <c r="F11">
-        <v>40.846092640000002</v>
-      </c>
-      <c r="G11">
-        <v>142.38778762999999</v>
-      </c>
-      <c r="H11">
-        <v>152.72929746</v>
-      </c>
-      <c r="I11">
-        <v>19.119210800000001</v>
-      </c>
-      <c r="J11">
-        <v>39.662934450000002</v>
-      </c>
-      <c r="K11">
-        <v>135.38509403</v>
-      </c>
-      <c r="L11">
-        <v>278.46170101000001</v>
-      </c>
-      <c r="M11">
-        <v>405.90687181999999</v>
-      </c>
-      <c r="N11">
-        <v>172.35139562999998</v>
-      </c>
-      <c r="O11">
-        <v>386.74277044999997</v>
-      </c>
-      <c r="P11">
-        <v>526.24696429000005</v>
-      </c>
-      <c r="Q11">
-        <v>614.04388022000001</v>
-      </c>
-      <c r="R11">
-        <v>70.97009709999999</v>
-      </c>
-      <c r="S11">
-        <v>258.38811165999999</v>
-      </c>
-      <c r="T11">
-        <v>379.41922777999997</v>
-      </c>
-      <c r="U11">
-        <v>468.54861161000002</v>
-      </c>
-      <c r="V11">
-        <v>108.15375075</v>
-      </c>
-      <c r="W11">
-        <v>213.78516547999999</v>
-      </c>
-      <c r="X11">
-        <v>250.47206965000001</v>
-      </c>
-      <c r="Y11">
-        <v>236.05076645</v>
-      </c>
-      <c r="Z11">
-        <v>129.25306365</v>
-      </c>
-      <c r="AA11">
-        <v>263.16086447999999</v>
-      </c>
-      <c r="AB11">
-        <v>339.21467982000001</v>
-      </c>
-      <c r="AC11">
-        <v>279.16552812999998</v>
-      </c>
-      <c r="AD11">
-        <v>-11.89610098</v>
-      </c>
-      <c r="AE11">
-        <v>29.804193809999997</v>
-      </c>
-      <c r="AF11">
-        <v>14.92598841</v>
-      </c>
-      <c r="AG11">
-        <v>31.01373224</v>
-      </c>
-      <c r="AH11">
-        <v>11.033624470000001</v>
-      </c>
-      <c r="AI11">
-        <v>14.98924382</v>
-      </c>
-      <c r="AJ11">
-        <v>78.751983499999994</v>
-      </c>
-      <c r="AK11">
-        <v>67.44890706999999</v>
-      </c>
-      <c r="AL11">
-        <v>73.521676170000006</v>
-      </c>
-      <c r="AM11">
-        <v>411.8541242</v>
-      </c>
-      <c r="AN11">
-        <v>2019.1173202100001</v>
-      </c>
-      <c r="AO11">
-        <v>3620.4185970799999</v>
-      </c>
-      <c r="AP11">
-        <v>1894.4676358499999</v>
+    <row r="12" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24">
+        <v>238.12839500000001</v>
+      </c>
+      <c r="D12" s="24">
+        <v>245.223702</v>
+      </c>
+      <c r="E12" s="24">
+        <v>101.176637</v>
+      </c>
+      <c r="F12" s="24">
+        <v>619.88198</v>
+      </c>
+      <c r="G12" s="24">
+        <v>288.36657500000001</v>
+      </c>
+      <c r="H12" s="24">
+        <v>-96.939312000000001</v>
+      </c>
+      <c r="I12" s="24">
+        <v>-94.746550999999997</v>
+      </c>
+      <c r="J12" s="24">
+        <v>-185.59632300000001</v>
+      </c>
+      <c r="K12" s="24">
+        <v>137.166203</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24">
+        <v>139.18458955555559</v>
+      </c>
+      <c r="N12" s="24">
+        <v>139.18458999999999</v>
+      </c>
+      <c r="P12" s="24">
+        <v>139.18458955555559</v>
+      </c>
+      <c r="Q12" s="24">
+        <v>139.18458999999999</v>
+      </c>
+      <c r="S12" s="23">
+        <v>139.18458955555559</v>
+      </c>
+      <c r="U12" s="23">
+        <v>139.18458955555559</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12">
-        <v>54.6794498</v>
-      </c>
-      <c r="C12">
-        <v>244.45283737000005</v>
-      </c>
-      <c r="D12">
-        <v>203.86103215999992</v>
-      </c>
-      <c r="E12">
-        <v>117.87453495</v>
-      </c>
-      <c r="F12">
-        <v>33.898321680000002</v>
-      </c>
-      <c r="G12">
-        <v>93.539425609999995</v>
-      </c>
-      <c r="H12">
-        <v>1.5027352200000053</v>
-      </c>
-      <c r="I12">
-        <v>-148.41847136000001</v>
-      </c>
-      <c r="J12">
-        <v>41.590496590000001</v>
-      </c>
-      <c r="K12">
-        <v>103.26055996999999</v>
-      </c>
-      <c r="L12">
-        <v>144.52169996000001</v>
-      </c>
-      <c r="M12">
-        <v>132.39585828000003</v>
-      </c>
-      <c r="N12">
-        <v>176.49496306999998</v>
-      </c>
-      <c r="O12">
-        <v>225.25540926999997</v>
-      </c>
-      <c r="P12">
-        <v>143.11704278000008</v>
-      </c>
-      <c r="Q12">
-        <v>91.37830380999992</v>
-      </c>
-      <c r="R12">
-        <v>70.122904919999996</v>
-      </c>
-      <c r="S12">
-        <v>193.90463808999999</v>
-      </c>
-      <c r="T12">
-        <v>123.01133182999996</v>
-      </c>
-      <c r="U12">
-        <v>85.094196080000074</v>
-      </c>
-      <c r="V12">
-        <v>110.36932069</v>
-      </c>
-      <c r="W12">
-        <v>106.91735508000002</v>
-      </c>
-      <c r="X12">
-        <v>35.50288531999999</v>
-      </c>
-      <c r="Y12">
-        <v>-18.901552920000029</v>
-      </c>
-      <c r="Z12">
-        <v>127.58341148999999</v>
-      </c>
-      <c r="AA12">
-        <v>131.86484223000002</v>
-      </c>
-      <c r="AB12">
-        <v>75.384839839999984</v>
-      </c>
-      <c r="AC12">
-        <v>-71.31218788000001</v>
-      </c>
-      <c r="AD12">
-        <v>-13.940635550000001</v>
-      </c>
-      <c r="AE12">
-        <v>38.427615280000005</v>
-      </c>
-      <c r="AF12">
-        <v>-17.868437960000001</v>
-      </c>
-      <c r="AG12">
-        <v>6.3821203700000018</v>
-      </c>
-      <c r="AH12">
-        <v>4.30782021</v>
-      </c>
-      <c r="AI12">
-        <v>-1.45368392</v>
-      </c>
-      <c r="AJ12">
-        <v>58.459628219999999</v>
-      </c>
-      <c r="AK12">
-        <v>-31.294968099999998</v>
-      </c>
-      <c r="AL12">
-        <v>72.48789090999999</v>
-      </c>
-      <c r="AM12">
-        <v>375.81532490000001</v>
-      </c>
-      <c r="AN12">
-        <v>1768.1752947700002</v>
-      </c>
-      <c r="AO12">
-        <v>1755.7186206299998</v>
-      </c>
-      <c r="AP12">
-        <v>2029.2655314900001</v>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13">
+        <v>-108.153402</v>
+      </c>
+      <c r="D13">
+        <v>85.126264000000006</v>
+      </c>
+      <c r="E13">
+        <v>1055.4983792400003</v>
+      </c>
+      <c r="F13">
+        <v>-870.47736454000039</v>
+      </c>
+      <c r="G13">
+        <v>1669.2888515100003</v>
+      </c>
+      <c r="H13">
+        <v>-17.236765109999656</v>
+      </c>
+      <c r="I13">
+        <v>-601.93968510000036</v>
+      </c>
+      <c r="J13">
+        <v>713.90962100000002</v>
+      </c>
+      <c r="K13">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="M13">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="N13">
+        <v>3300</v>
+      </c>
+      <c r="P13">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="Q13">
+        <v>3760.3620999999998</v>
+      </c>
+      <c r="S13">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="U13">
+        <v>3760.3623107000008</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>9.1587563500000009</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>17.33926816</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>7.3253008299999998</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>17.869644960000002</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>7.6609624600000004</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>19.310550639999999</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>11.37789564</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>28.26132763</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>15.05228533</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>32.131736230000001</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>18.606925100000002</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>48.092396860000001</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>20.59291691</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>49.496326639999999</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>26.67515238</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>46.338024240000003</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>29.021990450000001</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>47.013920280000001</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>23.352216559999999</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>52.71841328</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="23">
+        <f>C6+C11-C12-C13</f>
+        <v>-131.58333689000003</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" ref="D14:M14" si="0">D6+D11-D12-D13</f>
+        <v>110.72919943999999</v>
+      </c>
+      <c r="E14" s="23">
+        <f t="shared" si="0"/>
+        <v>-492.1679696800004</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="0"/>
+        <v>754.86019169000042</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" si="0"/>
+        <v>-1675.6750214800004</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" si="0"/>
+        <v>427.19330942999972</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="0"/>
+        <v>756.02492248000033</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="0"/>
+        <v>-451.28058131</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="0"/>
+        <v>127.38703078999924</v>
+      </c>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23">
+        <f t="shared" si="0"/>
+        <v>1996.4160997444437</v>
+      </c>
+      <c r="N14" s="23">
+        <f>N6-N12-N13+N11</f>
+        <v>1626.7784100000001</v>
+      </c>
+      <c r="P14" s="23">
+        <f>P6+P11-P12-P13</f>
+        <v>2145.4160997444437</v>
+      </c>
+      <c r="Q14" s="23">
+        <f>Q6+Q11-Q12-Q13</f>
+        <v>2467.4163100000001</v>
+      </c>
+      <c r="S14">
+        <f>S6+S11-S12-S13</f>
+        <v>3623.0560997444441</v>
+      </c>
+      <c r="U14">
+        <f>U6+U11-U12-U13</f>
+        <v>2129.7280997444445</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14">
-        <v>277.425679</v>
-      </c>
-      <c r="D14">
-        <v>-121.436937</v>
-      </c>
-      <c r="E14">
-        <v>375.67509799999999</v>
-      </c>
-      <c r="F14">
-        <v>47.941761999999997</v>
-      </c>
-      <c r="G14">
-        <v>65.111444000000006</v>
-      </c>
-      <c r="H14">
-        <v>73.731307999999999</v>
-      </c>
-      <c r="I14">
-        <v>51.343881000000003</v>
-      </c>
-      <c r="J14">
-        <v>-8.6547140000000002</v>
-      </c>
-      <c r="K14">
-        <v>97.565625999999995</v>
-      </c>
-      <c r="L14">
-        <v>156.626947</v>
-      </c>
-      <c r="M14">
-        <v>-0.31415700000000002</v>
-      </c>
-      <c r="N14">
-        <v>81.612498000000002</v>
-      </c>
-      <c r="O14">
-        <v>-1.6023890000000001</v>
-      </c>
-      <c r="P14">
-        <v>-67.403447</v>
-      </c>
-      <c r="Q14">
-        <v>88.569974999999999</v>
-      </c>
-      <c r="R14">
-        <v>-19.1829</v>
-      </c>
-      <c r="S14">
-        <v>-8.4033359999999995</v>
-      </c>
-      <c r="T14">
-        <v>87.003753000000003</v>
-      </c>
-      <c r="U14">
-        <v>560.46446300000002</v>
-      </c>
-      <c r="V14">
-        <v>-2.057194</v>
-      </c>
-      <c r="W14">
-        <v>5.9783739999999996</v>
-      </c>
-      <c r="X14">
-        <v>37.267592999999998</v>
-      </c>
-      <c r="Y14">
-        <v>247.17780200000001</v>
-      </c>
-      <c r="Z14">
-        <v>7.8136609999999997</v>
-      </c>
-      <c r="AA14">
-        <v>-50.098854000000003</v>
-      </c>
-      <c r="AB14">
-        <v>-31.58267</v>
-      </c>
-      <c r="AC14">
-        <v>-23.071449000000001</v>
-      </c>
-      <c r="AD14">
-        <v>13.029801000000001</v>
-      </c>
-      <c r="AE14">
-        <v>-21.421382999999999</v>
-      </c>
-      <c r="AF14">
-        <v>12.618955</v>
-      </c>
-      <c r="AG14">
-        <v>-98.973923999999997</v>
-      </c>
-      <c r="AH14">
-        <v>27.786435999999998</v>
-      </c>
-      <c r="AI14">
-        <v>-124.295804</v>
-      </c>
-      <c r="AJ14">
-        <v>-90.535038</v>
-      </c>
-      <c r="AK14">
-        <v>1.448083</v>
-      </c>
-      <c r="AL14">
-        <v>-26.383883999999998</v>
-      </c>
-      <c r="AM14">
-        <v>113.099261</v>
-      </c>
-      <c r="AN14">
-        <v>221.34249800000001</v>
-      </c>
-      <c r="AO14">
-        <v>-170.891672</v>
-      </c>
-      <c r="AP14">
-        <v>29.032228</v>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P15" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15">
-        <v>-39.89022540999985</v>
-      </c>
-      <c r="D15">
-        <v>603.49937245999979</v>
-      </c>
-      <c r="E15">
-        <v>-586.59971363000011</v>
-      </c>
-      <c r="F15">
-        <v>-282.92918971000006</v>
-      </c>
-      <c r="G15">
-        <v>-29.779510210000037</v>
-      </c>
-      <c r="H15">
-        <v>393.63673577000048</v>
-      </c>
-      <c r="I15">
-        <v>-189.39948306000042</v>
-      </c>
-      <c r="J15">
-        <v>238.47328994000054</v>
-      </c>
-      <c r="K15">
-        <v>-69.754988680000778</v>
-      </c>
-      <c r="L15">
-        <v>91.385486640000337</v>
-      </c>
-      <c r="M15">
-        <v>-174.58512844000006</v>
-      </c>
-      <c r="N15">
-        <v>326.81322888000011</v>
-      </c>
-      <c r="O15">
-        <v>130.48181439000035</v>
-      </c>
-      <c r="P15">
-        <v>411.80903624999951</v>
-      </c>
-      <c r="Q15">
-        <v>210.18066657999992</v>
-      </c>
-      <c r="R15">
-        <v>-284.97088787999962</v>
-      </c>
-      <c r="S15">
-        <v>80.155672200000282</v>
-      </c>
-      <c r="T15">
-        <v>279.36375962999966</v>
-      </c>
-      <c r="U15">
-        <v>-949.46893968000029</v>
-      </c>
-      <c r="V15">
-        <v>292.81780784000017</v>
-      </c>
-      <c r="W15">
-        <v>896.71110207000015</v>
-      </c>
-      <c r="X15">
-        <v>-88.732603389999866</v>
-      </c>
-      <c r="Y15">
-        <v>644.63116422999951</v>
-      </c>
-      <c r="Z15">
-        <v>234.13470042000009</v>
-      </c>
-      <c r="AA15">
-        <v>174.88739315999985</v>
-      </c>
-      <c r="AB15">
-        <v>-24.467053969999313</v>
-      </c>
-      <c r="AC15">
-        <v>-352.07028497000027</v>
-      </c>
-      <c r="AD15">
-        <v>632.64252743999953</v>
-      </c>
-      <c r="AE15">
-        <v>666.3351946400004</v>
-      </c>
-      <c r="AF15">
-        <v>-1236.4043843299999</v>
-      </c>
-      <c r="AG15">
-        <v>-810.13719719999983</v>
-      </c>
-      <c r="AH15">
-        <v>572.6586401199994</v>
-      </c>
-      <c r="AI15">
-        <v>-742.61265858999968</v>
-      </c>
-      <c r="AJ15">
-        <v>930.58725934999995</v>
-      </c>
-      <c r="AK15">
-        <v>-23.956630150000095</v>
-      </c>
-      <c r="AL15">
-        <v>-134.99275767000009</v>
-      </c>
-      <c r="AM15">
-        <v>-145.39165025</v>
-      </c>
-      <c r="AN15">
-        <v>1743.1906796000003</v>
-      </c>
-      <c r="AO15">
-        <v>2591.0961815100013</v>
-      </c>
-      <c r="AP15">
-        <v>1423.2580610899981</v>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="M16" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>208</v>
-      </c>
-      <c r="C17">
-        <f>C12+C13-C14-C15</f>
-        <v>16.076140129999906</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:AP17" si="0">D12+D13-D14-D15</f>
-        <v>-278.20140329999987</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>346.13841874000013</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>268.88574939000006</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>65.532792650000033</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>-465.86530855000046</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>7.5067756600004145</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>-188.22807935000054</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>83.110885110000766</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>-103.49073368000033</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>326.60569436000009</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>-231.93076381000014</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>107.7538795199996</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>-201.28854646999943</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>-179.11101014000002</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
-        <v>374.27669279999964</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>137.20458721999969</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>-243.35618079999972</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="U17">
-        <f t="shared" si="0"/>
-        <v>506.23040899000034</v>
-      </c>
-      <c r="V17">
-        <f t="shared" si="0"/>
-        <v>-180.39129315000019</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="0"/>
-        <v>-777.16519589000018</v>
-      </c>
-      <c r="X17">
-        <f t="shared" si="0"/>
-        <v>86.967895709999851</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="0"/>
-        <v>-862.61812228999952</v>
-      </c>
-      <c r="Z17">
-        <f t="shared" si="0"/>
-        <v>-114.36494993000009</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="0"/>
-        <v>27.669219980000179</v>
-      </c>
-      <c r="AB17">
-        <f t="shared" si="0"/>
-        <v>131.4345638099993</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="0"/>
-        <v>353.32587273000024</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="0"/>
-        <v>-659.61296398999957</v>
-      </c>
-      <c r="AE17">
-        <f t="shared" si="0"/>
-        <v>-579.81104398000036</v>
-      </c>
-      <c r="AF17">
-        <f t="shared" si="0"/>
-        <v>1205.9169913699998</v>
-      </c>
-      <c r="AG17">
-        <f t="shared" si="0"/>
-        <v>961.83126580999988</v>
-      </c>
-      <c r="AH17">
-        <f t="shared" si="0"/>
-        <v>-596.13725590999945</v>
-      </c>
-      <c r="AI17">
-        <f t="shared" si="0"/>
-        <v>894.47676911999974</v>
-      </c>
-      <c r="AJ17">
-        <f t="shared" si="0"/>
-        <v>-781.59259312999995</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="0"/>
-        <v>38.2274993300001</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="0"/>
-        <v>233.86453258000006</v>
-      </c>
-      <c r="AM17">
-        <f t="shared" si="0"/>
-        <v>431.45993070999998</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="0"/>
-        <v>-196.35788283000011</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="0"/>
-        <v>-611.76747560000149</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="0"/>
-        <v>576.97524240000189</v>
+        <f>U14/(B16-B15)</f>
+        <v>47327.291105432101</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="K18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="L18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="M18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="O18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="P18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="R18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="S18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="T18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="U18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="V18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="W18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="X18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AB18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AC18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AD18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AE18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AF18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AG18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AH18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AI18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AJ18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AK18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AL18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AM18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AN18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AO18" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="AP18" s="18">
-        <v>0.05</v>
+        <v>204</v>
+      </c>
+      <c r="B18">
+        <v>1719.16</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="U18">
+        <v>1719.16</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="L19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="M19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="N19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="O19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="P19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Q19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="R19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="S19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="T19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="U19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="V19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="W19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="X19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Y19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="Z19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AA19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AB19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AC19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AD19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AE19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AF19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AG19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AH19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AI19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AJ19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AK19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AL19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AM19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AN19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AO19" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="AP19" s="18">
-        <v>0.1</v>
+        <v>219</v>
+      </c>
+      <c r="M19">
+        <f>M14/(M16-N15)</f>
+        <v>49910.40249361108</v>
+      </c>
+      <c r="P19">
+        <f>P14/(B16-B15)</f>
+        <v>47675.913327654307</v>
+      </c>
+      <c r="Q19">
+        <f>Q14/(B16-B15)</f>
+        <v>54831.47355555556</v>
+      </c>
+      <c r="U19">
+        <f>U17/U18</f>
+        <v>27.529311469224563</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
-      <c r="AG20" s="18"/>
-      <c r="AH20" s="18"/>
-      <c r="AI20" s="18"/>
-      <c r="AJ20" s="18"/>
-      <c r="AK20" s="18"/>
-      <c r="AL20" s="18"/>
-      <c r="AM20" s="18"/>
-      <c r="AN20" s="18"/>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="19">
-        <f>AP17/(AP19-AP18)</f>
-        <v>11539.504848000037</v>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M20">
+        <v>1719.16</v>
+      </c>
+      <c r="P20">
+        <v>1719.16</v>
+      </c>
+      <c r="Q20">
+        <v>1719.16</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B21">
-        <v>1719160000</v>
-      </c>
-      <c r="C21">
-        <v>1719160000</v>
-      </c>
-      <c r="D21">
-        <v>1719160000</v>
-      </c>
-      <c r="E21">
-        <v>1719160000</v>
-      </c>
-      <c r="F21">
-        <v>1719160000</v>
-      </c>
-      <c r="AP21">
-        <v>1719.16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B22">
-        <f>B21/1000000</f>
-        <v>1719.16</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:F22" si="1">C21/1000000</f>
-        <v>1719.16</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>1719.16</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>1719.16</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>1719.16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP23">
-        <f>AP20/AP21</f>
-        <v>6.712292542869795</v>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M21">
+        <f>M19/M20</f>
+        <v>29.031854215786243</v>
+      </c>
+      <c r="P21">
+        <f>P19/P20</f>
+        <v>27.732097842931609</v>
+      </c>
+      <c r="Q21">
+        <f>Q19/Q20</f>
+        <v>31.894340000672162</v>
       </c>
     </row>
   </sheetData>
@@ -13939,632 +11943,1094 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="180" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" customWidth="1"/>
-    <col min="18" max="18" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>20081231</v>
-      </c>
-      <c r="C1">
-        <v>20091231</v>
-      </c>
-      <c r="D1">
-        <v>20101231</v>
-      </c>
-      <c r="E1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="14">
         <v>20111231</v>
       </c>
-      <c r="F1">
+      <c r="C1" s="14">
         <v>20121231</v>
       </c>
-      <c r="G1">
+      <c r="D1" s="14">
         <v>20131231</v>
       </c>
-      <c r="H1">
+      <c r="E1" s="14">
         <v>20141231</v>
       </c>
-      <c r="I1">
+      <c r="F1" s="14">
         <v>20151231</v>
       </c>
-      <c r="J1">
+      <c r="G1" s="14">
         <v>20161231</v>
       </c>
-      <c r="K1">
+      <c r="H1" s="14">
         <v>20171231</v>
       </c>
-      <c r="L1" t="s">
+      <c r="I1" s="14">
+        <v>20180331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <f>利润表raw!Q3/1000000</f>
+        <v>4526.0456090600001</v>
+      </c>
+      <c r="C3">
+        <f>利润表raw!U3/1000000</f>
+        <v>3950.7061901399998</v>
+      </c>
+      <c r="D3">
+        <f>利润表raw!Y3/1000000</f>
+        <v>3373.4492019200002</v>
+      </c>
+      <c r="E3">
+        <f>利润表raw!AC3/1000000</f>
+        <v>3449.0088685300002</v>
+      </c>
+      <c r="F3">
+        <f>利润表raw!AG3/1000000</f>
+        <v>2330.4062909899999</v>
+      </c>
+      <c r="G3">
+        <f>利润表raw!AK3/1000000</f>
+        <v>2395.2915815700003</v>
+      </c>
+      <c r="H3">
+        <f>利润表raw!AO3/1000000</f>
+        <v>8350.4761047600005</v>
+      </c>
+      <c r="I3">
+        <f>利润表raw!AP3/1000000</f>
+        <v>3521.9197980599997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>利润表raw!Q5/1000000</f>
+        <v>3547.9169763200002</v>
+      </c>
+      <c r="C4">
+        <f>利润表raw!U5/1000000</f>
+        <v>3401.7400051700001</v>
+      </c>
+      <c r="D4">
+        <f>利润表raw!Y5/1000000</f>
+        <v>3046.8230343699997</v>
+      </c>
+      <c r="E4">
+        <f>利润表raw!AC5/1000000</f>
+        <v>3235.5625738400004</v>
+      </c>
+      <c r="F4">
+        <f>利润表raw!AG5/1000000</f>
+        <v>2421.4237705300002</v>
+      </c>
+      <c r="G4">
+        <f>利润表raw!AK5/1000000</f>
+        <v>2448.6466470999999</v>
+      </c>
+      <c r="H4">
+        <f>利润表raw!AO5/1000000</f>
+        <v>3513.1368803800001</v>
+      </c>
+      <c r="I4">
+        <f>利润表raw!AP5/1000000</f>
+        <v>1088.9293846400001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>利润表raw!Q6/1000000</f>
+        <v>2792.3941216200001</v>
+      </c>
+      <c r="C5">
+        <f>利润表raw!U6/1000000</f>
+        <v>2657.1424088700001</v>
+      </c>
+      <c r="D5">
+        <f>利润表raw!Y6/1000000</f>
+        <v>2309.9260681700002</v>
+      </c>
+      <c r="E5">
+        <f>利润表raw!AC6/1000000</f>
+        <v>2438.38015774</v>
+      </c>
+      <c r="F5">
+        <f>利润表raw!AG6/1000000</f>
+        <v>1771.9774966800001</v>
+      </c>
+      <c r="G5">
+        <f>利润表raw!AK6/1000000</f>
+        <v>1786.7738677899999</v>
+      </c>
+      <c r="H5">
+        <f>利润表raw!AO6/1000000</f>
+        <v>1955.1838092</v>
+      </c>
+      <c r="I5">
+        <f>利润表raw!AP6/1000000</f>
+        <v>593.78389486000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="M1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" t="s">
-        <v>218</v>
-      </c>
-      <c r="P1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>235</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2">
-        <v>3342.69811411</v>
-      </c>
-      <c r="C2">
-        <v>2121.88933464</v>
-      </c>
-      <c r="D2">
-        <v>3216.4856553300001</v>
-      </c>
-      <c r="E2">
-        <v>4526.0456090600001</v>
-      </c>
-      <c r="F2">
-        <v>3950.7061901399998</v>
-      </c>
-      <c r="G2">
-        <v>3373.4492019200002</v>
-      </c>
-      <c r="H2">
-        <v>3449.0088685300002</v>
-      </c>
-      <c r="I2">
-        <v>2330.4062909899999</v>
-      </c>
-      <c r="J2">
-        <v>2395.2915815700003</v>
-      </c>
-      <c r="K2">
-        <v>8350.4761047600005</v>
-      </c>
-      <c r="M2">
-        <v>10917</v>
-      </c>
-      <c r="O2">
-        <v>13299</v>
-      </c>
-      <c r="Q2">
-        <f>3522*4</f>
-        <v>14088</v>
-      </c>
-      <c r="R2">
-        <f>Q2*0.8</f>
-        <v>11270.400000000001</v>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>利润表raw!Q7/1000000</f>
+        <v>30.69856437</v>
+      </c>
+      <c r="C7">
+        <f>利润表raw!U7/1000000</f>
+        <v>25.83358011</v>
+      </c>
+      <c r="D7">
+        <f>利润表raw!Y7/1000000</f>
+        <v>26.065415100000003</v>
+      </c>
+      <c r="E7">
+        <f>利润表raw!AC7/1000000</f>
+        <v>31.627534600000001</v>
+      </c>
+      <c r="F7">
+        <f>利润表raw!AG7/1000000</f>
+        <v>28.918686340000001</v>
+      </c>
+      <c r="G7">
+        <f>利润表raw!AK7/1000000</f>
+        <v>56.076148170000003</v>
+      </c>
+      <c r="H7">
+        <f>利润表raw!AO7/1000000</f>
+        <v>166.02655465999999</v>
+      </c>
+      <c r="I7">
+        <f>利润表raw!AP7/1000000</f>
+        <v>64.387327389999996</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>2582.3348036500001</v>
-      </c>
-      <c r="C3">
-        <v>2113.0369445400001</v>
-      </c>
-      <c r="D3">
-        <v>2703.1679991199999</v>
-      </c>
-      <c r="E3">
-        <v>3547.9169763200002</v>
-      </c>
-      <c r="F3">
-        <v>3401.7400051700001</v>
-      </c>
-      <c r="G3">
-        <v>3046.8230343699997</v>
-      </c>
-      <c r="H3">
-        <v>3235.5625738400004</v>
-      </c>
-      <c r="I3">
-        <v>2421.4237705300002</v>
-      </c>
-      <c r="J3">
-        <v>2448.6466470999999</v>
-      </c>
-      <c r="K3">
-        <v>3513.1368803800001</v>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <f>利润表raw!Q8/1000000</f>
+        <v>194.71390231000001</v>
+      </c>
+      <c r="C8">
+        <f>利润表raw!U8/1000000</f>
+        <v>165.66985165</v>
+      </c>
+      <c r="D8">
+        <f>利润表raw!Y8/1000000</f>
+        <v>177.35942424000001</v>
+      </c>
+      <c r="E8">
+        <f>利润表raw!AC8/1000000</f>
+        <v>200.51145274999999</v>
+      </c>
+      <c r="F8">
+        <f>利润表raw!AG8/1000000</f>
+        <v>134.12179008000001</v>
+      </c>
+      <c r="G8">
+        <f>利润表raw!AK8/1000000</f>
+        <v>152.13959713</v>
+      </c>
+      <c r="H8">
+        <f>利润表raw!AO8/1000000</f>
+        <v>193.27036274</v>
+      </c>
+      <c r="I8">
+        <f>利润表raw!AP8/1000000</f>
+        <v>42.301679880000002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>756.66892684000004</v>
-      </c>
-      <c r="C4">
-        <v>8.6521558599999988</v>
-      </c>
-      <c r="D4">
-        <v>514.96738398000002</v>
-      </c>
-      <c r="E4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>利润表raw!Q9/1000000</f>
+        <v>372.15962579000001</v>
+      </c>
+      <c r="C9">
+        <f>利润表raw!U9/1000000</f>
+        <v>394.21621502999994</v>
+      </c>
+      <c r="D9">
+        <f>利润表raw!Y9/1000000</f>
+        <v>396.31415743999997</v>
+      </c>
+      <c r="E9">
+        <f>利润表raw!AC9/1000000</f>
+        <v>401.31733464000001</v>
+      </c>
+      <c r="F9">
+        <f>利润表raw!AG9/1000000</f>
+        <v>368.83012945999997</v>
+      </c>
+      <c r="G9">
+        <f>利润表raw!AK9/1000000</f>
+        <v>320.96665751</v>
+      </c>
+      <c r="H9">
+        <f>利润表raw!AO9/1000000</f>
+        <v>1119.69901334</v>
+      </c>
+      <c r="I9">
+        <f>利润表raw!AP9/1000000</f>
+        <v>415.14028314000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f>利润表raw!Q10/1000000</f>
+        <v>124.89163486</v>
+      </c>
+      <c r="C10">
+        <f>利润表raw!U10/1000000</f>
+        <v>145.35006736000003</v>
+      </c>
+      <c r="D10">
+        <f>利润表raw!Y10/1000000</f>
+        <v>148.32948542</v>
+      </c>
+      <c r="E10">
+        <f>利润表raw!AC10/1000000</f>
+        <v>101.44231511</v>
+      </c>
+      <c r="F10">
+        <f>利润表raw!AG10/1000000</f>
+        <v>62.693938090000003</v>
+      </c>
+      <c r="G10">
+        <f>利润表raw!AK10/1000000</f>
+        <v>37.757198270000004</v>
+      </c>
+      <c r="H10">
+        <f>利润表raw!AO10/1000000</f>
+        <v>41.405342909999995</v>
+      </c>
+      <c r="I10">
+        <f>利润表raw!AP10/1000000</f>
+        <v>12.690359239999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <f>利润表raw!Q11/1000000</f>
+        <v>33.059127369999999</v>
+      </c>
+      <c r="C11">
+        <f>利润表raw!U11/1000000</f>
+        <v>13.52788215</v>
+      </c>
+      <c r="D11">
+        <f>利润表raw!Y11/1000000</f>
+        <v>-11.171516</v>
+      </c>
+      <c r="E11">
+        <f>利润表raw!AC11/1000000</f>
+        <v>62.283779000000003</v>
+      </c>
+      <c r="F11">
+        <f>利润表raw!AG11/1000000</f>
+        <v>54.881729880000002</v>
+      </c>
+      <c r="G11">
+        <f>利润表raw!AK11/1000000</f>
+        <v>94.93317823000001</v>
+      </c>
+      <c r="H11">
+        <f>利润表raw!AO11/1000000</f>
+        <v>37.551797530000002</v>
+      </c>
+      <c r="I11">
+        <f>利润表raw!AP11/1000000</f>
+        <v>-39.37415987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <f>利润表raw!Q12/1000000</f>
+        <v>-20.182418379999998</v>
+      </c>
+      <c r="C12">
+        <f>利润表raw!U12/1000000</f>
+        <v>0.69176263999999998</v>
+      </c>
+      <c r="D12">
+        <f>利润表raw!Y12/1000000</f>
+        <v>-5.7470531500000002</v>
+      </c>
+      <c r="E12">
+        <f>利润表raw!AC12/1000000</f>
+        <v>22.070061320000001</v>
+      </c>
+      <c r="F12">
+        <f>利润表raw!AG12/1000000</f>
+        <v>-22.070061320000001</v>
+      </c>
+      <c r="G12">
+        <f>利润表raw!AK12/1000000</f>
+        <v>-5.7150655700000002</v>
+      </c>
+      <c r="H12">
+        <f>利润表raw!AO12/1000000</f>
+        <v>-43.032607509999998</v>
+      </c>
+      <c r="I12">
+        <f>利润表raw!AP12/1000000</f>
+        <v>-19.231802129999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <f>利润表raw!Q13/1000000</f>
+        <v>9.7549113100000007</v>
+      </c>
+      <c r="C13">
+        <f>利润表raw!U13/1000000</f>
+        <v>-0.29403558000000002</v>
+      </c>
+      <c r="D13">
+        <f>利润表raw!Y13/1000000</f>
+        <v>18.154965359999998</v>
+      </c>
+      <c r="E13">
+        <f>利润表raw!AC13/1000000</f>
+        <v>75.636562189999992</v>
+      </c>
+      <c r="F13">
+        <f>利润表raw!AG13/1000000</f>
+        <v>138.88003983999999</v>
+      </c>
+      <c r="G13">
+        <f>利润表raw!AK13/1000000</f>
+        <v>113.86397239</v>
+      </c>
+      <c r="H13">
+        <f>利润表raw!AO13/1000000</f>
+        <v>8.8080578900000006</v>
+      </c>
+      <c r="I13">
+        <f>利润表raw!AP13/1000000</f>
+        <v>19.076282030000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f>利润表raw!Q17/1000000</f>
         <v>967.70112567000001</v>
       </c>
-      <c r="F4">
+      <c r="C14">
+        <f>利润表raw!U17/1000000</f>
         <v>549.36391202999994</v>
       </c>
-      <c r="G4">
+      <c r="D14">
+        <f>利润表raw!Y17/1000000</f>
         <v>339.03407976</v>
       </c>
-      <c r="H4">
+      <c r="E14">
+        <f>利润表raw!AC17/1000000</f>
         <v>311.15291819999999</v>
       </c>
-      <c r="I4">
+      <c r="F14">
+        <f>利润表raw!AG17/1000000</f>
         <v>25.792498980000001</v>
       </c>
-      <c r="J4">
+      <c r="G14">
+        <f>利润表raw!AK17/1000000</f>
         <v>54.793841289999996</v>
       </c>
-      <c r="K4">
+      <c r="H14">
+        <f>利润表raw!AO17/1000000</f>
         <v>4827.4633658900002</v>
       </c>
+      <c r="I14">
+        <f>利润表raw!AP17/1000000</f>
+        <v>2432.83489332</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5">
-        <v>810.04568854000001</v>
-      </c>
-      <c r="C5">
-        <v>14.681769429999999</v>
-      </c>
-      <c r="D5">
-        <v>567.00109246</v>
-      </c>
-      <c r="E5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f>利润表raw!Q19/1000000</f>
+        <v>65.141211350000006</v>
+      </c>
+      <c r="C15">
+        <f>利润表raw!U19/1000000</f>
+        <v>79.320450840000007</v>
+      </c>
+      <c r="D15">
+        <f>利润表raw!Y19/1000000</f>
+        <v>62.196823270000003</v>
+      </c>
+      <c r="E15">
+        <f>利润表raw!AC19/1000000</f>
+        <v>46.433190179999997</v>
+      </c>
+      <c r="F15">
+        <f>利润表raw!AG19/1000000</f>
+        <v>26.899386120000003</v>
+      </c>
+      <c r="G15">
+        <f>利润表raw!AK19/1000000</f>
+        <v>39.776820200000003</v>
+      </c>
+      <c r="H15">
+        <f>利润表raw!AO19/1000000</f>
+        <v>24.938546850000002</v>
+      </c>
+      <c r="I15">
+        <f>利润表raw!AP19/1000000</f>
+        <v>7.5211336600000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f>利润表raw!Q20/1000000</f>
+        <v>159.91341303999999</v>
+      </c>
+      <c r="C16">
+        <f>利润表raw!U20/1000000</f>
+        <v>13.194191009999999</v>
+      </c>
+      <c r="D16">
+        <f>利润表raw!Y20/1000000</f>
+        <v>61.714077979999999</v>
+      </c>
+      <c r="E16">
+        <f>利润表raw!AC20/1000000</f>
+        <v>6.6649023400000003</v>
+      </c>
+      <c r="F16">
+        <f>利润表raw!AG20/1000000</f>
+        <v>7.2073959099999998</v>
+      </c>
+      <c r="G16">
+        <f>利润表raw!AK20/1000000</f>
+        <v>9.6194433900000007</v>
+      </c>
+      <c r="H16">
+        <f>利润表raw!AO20/1000000</f>
+        <v>21.974139809999997</v>
+      </c>
+      <c r="I16">
+        <f>利润表raw!AP20/1000000</f>
+        <v>8.0500887100000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f>利润表raw!Q21/1000000</f>
+        <v>6.04496404</v>
+      </c>
+      <c r="C17">
+        <f>利润表raw!U21/1000000</f>
+        <v>2.30826303</v>
+      </c>
+      <c r="D17">
+        <f>利润表raw!Y21/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>利润表raw!AC21/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>利润表raw!AG21/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>利润表raw!AK21/1000000</f>
+        <v>4.4052465999999999</v>
+      </c>
+      <c r="H17">
+        <f>利润表raw!AO21/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>利润表raw!AP21/1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f>利润表raw!Q22/1000000</f>
         <v>872.92892398000004</v>
       </c>
-      <c r="F5">
+      <c r="C18">
+        <f>利润表raw!U22/1000000</f>
         <v>615.49017186000003</v>
       </c>
-      <c r="G5">
+      <c r="D18">
+        <f>利润表raw!Y22/1000000</f>
         <v>339.51682505000002</v>
       </c>
-      <c r="H5">
+      <c r="E18">
+        <f>利润表raw!AC22/1000000</f>
         <v>350.92120604000002</v>
       </c>
-      <c r="I5">
+      <c r="F18">
+        <f>利润表raw!AG22/1000000</f>
         <v>45.484489189999998</v>
       </c>
-      <c r="J5">
+      <c r="G18">
+        <f>利润表raw!AK22/1000000</f>
         <v>84.951218099999991</v>
       </c>
-      <c r="K5">
+      <c r="H18">
+        <f>利润表raw!AO22/1000000</f>
         <v>4830.4277729300002</v>
       </c>
+      <c r="I18">
+        <f>利润表raw!AP22/1000000</f>
+        <v>2432.3059382699998</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" s="25">
-        <v>620.86785427999996</v>
-      </c>
-      <c r="C6" s="25">
-        <v>-19.477988850000003</v>
-      </c>
-      <c r="D6" s="25">
-        <v>421.76861480000002</v>
-      </c>
-      <c r="E6" s="25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f>利润表raw!Q24/1000000</f>
+        <v>236.68320505</v>
+      </c>
+      <c r="C19">
+        <f>利润表raw!U24/1000000</f>
+        <v>143.35710094000001</v>
+      </c>
+      <c r="D19">
+        <f>利润表raw!Y24/1000000</f>
+        <v>105.62881688</v>
+      </c>
+      <c r="E19">
+        <f>利润表raw!AC24/1000000</f>
+        <v>87.400300360000003</v>
+      </c>
+      <c r="F19">
+        <f>利润表raw!AG24/1000000</f>
+        <v>32.483827050000002</v>
+      </c>
+      <c r="G19">
+        <f>利润表raw!AK24/1000000</f>
+        <v>54.932421689999998</v>
+      </c>
+      <c r="H19">
+        <f>利润表raw!AO24/1000000</f>
+        <v>858.23064171999999</v>
+      </c>
+      <c r="I19">
+        <f>利润表raw!AP24/1000000</f>
+        <v>403.04040677999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f>利润表raw!Q25/1000000</f>
         <v>636.24571892999995</v>
       </c>
-      <c r="F6" s="25">
+      <c r="C20">
+        <f>利润表raw!U25/1000000</f>
         <v>472.13307092000002</v>
       </c>
-      <c r="G6" s="25">
+      <c r="D20">
+        <f>利润表raw!Y25/1000000</f>
         <v>233.88800816999998</v>
       </c>
-      <c r="H6" s="25">
+      <c r="E20">
+        <f>利润表raw!AC25/1000000</f>
         <v>263.52090568</v>
       </c>
-      <c r="I6" s="25">
+      <c r="F20">
+        <f>利润表raw!AG25/1000000</f>
         <v>13.000662140000001</v>
       </c>
-      <c r="J6" s="25">
+      <c r="G20">
+        <f>利润表raw!AK25/1000000</f>
         <v>30.01879641</v>
       </c>
-      <c r="K6" s="25">
+      <c r="H20">
+        <f>利润表raw!AO25/1000000</f>
         <v>3972.19713121</v>
       </c>
-      <c r="M6" s="25">
-        <v>5840</v>
-      </c>
-      <c r="O6" s="25">
-        <v>5989</v>
-      </c>
-      <c r="Q6" s="25">
-        <f>Q2*53%</f>
-        <v>7466.64</v>
-      </c>
-      <c r="R6" s="25">
-        <f>R2*0.53</f>
-        <v>5973.3120000000008</v>
+      <c r="I20">
+        <f>利润表raw!AP25/1000000</f>
+        <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>0.23353970885391417</v>
-      </c>
-      <c r="C7">
-        <v>2.3266785684700682</v>
-      </c>
-      <c r="D7">
-        <v>0.25614144239104025</v>
-      </c>
-      <c r="E7">
-        <v>0.27113685724935699</v>
-      </c>
-      <c r="F7">
-        <v>0.232915337229151</v>
-      </c>
-      <c r="G7">
-        <v>0.31111511738613923</v>
-      </c>
-      <c r="H7">
-        <v>0.24905961468181445</v>
-      </c>
-      <c r="I7">
-        <v>0.71417372446037564</v>
-      </c>
-      <c r="J7">
-        <v>0.64663489139539476</v>
-      </c>
-      <c r="K7">
-        <v>0.17767176781517674</v>
+      <c r="B21">
+        <f>利润表raw!Q27/1000000</f>
+        <v>2.7113685724935693E-7</v>
+      </c>
+      <c r="C21">
+        <f>利润表raw!U27/1000000</f>
+        <v>2.3291533722915097E-7</v>
+      </c>
+      <c r="D21">
+        <f>利润表raw!Y27/1000000</f>
+        <v>3.1111511738613904E-7</v>
+      </c>
+      <c r="E21">
+        <f>利润表raw!AC27/1000000</f>
+        <v>2.4905961468181442E-7</v>
+      </c>
+      <c r="F21">
+        <f>利润表raw!AG27/1000000</f>
+        <v>7.1417372446037591E-7</v>
+      </c>
+      <c r="G21">
+        <f>利润表raw!AK27/1000000</f>
+        <v>6.466348913953949E-7</v>
+      </c>
+      <c r="H21">
+        <f>利润表raw!AO27/1000000</f>
+        <v>1.7767176781517668E-7</v>
+      </c>
+      <c r="I21">
+        <f>利润表raw!AP27/1000000</f>
+        <v>1.6570300653324319E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="B22">
+        <f>利润表raw!Q28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>利润表raw!U28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>利润表raw!Y28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>利润表raw!AC28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>利润表raw!AG28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>利润表raw!AK28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>利润表raw!AO28/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>利润表raw!AP28/1000000</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9">
-        <v>545.3106808</v>
-      </c>
-      <c r="C9">
-        <v>19.119210800000001</v>
-      </c>
-      <c r="D9">
-        <v>405.90687181999999</v>
-      </c>
-      <c r="E9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <f>利润表raw!Q29/1000000</f>
         <v>614.04388022000001</v>
       </c>
-      <c r="F9">
+      <c r="C23">
+        <f>利润表raw!U29/1000000</f>
         <v>468.54861161000002</v>
       </c>
-      <c r="G9">
+      <c r="D23">
+        <f>利润表raw!Y29/1000000</f>
         <v>236.05076645</v>
       </c>
-      <c r="H9">
+      <c r="E23">
+        <f>利润表raw!AC29/1000000</f>
         <v>279.16552812999998</v>
       </c>
-      <c r="I9">
+      <c r="F23">
+        <f>利润表raw!AG29/1000000</f>
         <v>31.01373224</v>
       </c>
-      <c r="J9">
+      <c r="G23">
+        <f>利润表raw!AK29/1000000</f>
         <v>67.44890706999999</v>
       </c>
-      <c r="K9">
+      <c r="H23">
+        <f>利润表raw!AO29/1000000</f>
         <v>3620.4185970799999</v>
       </c>
+      <c r="I23">
+        <f>利润表raw!AP29/1000000</f>
+        <v>1894.4676358499999</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="B11" s="26">
-        <v>17.33926816</v>
-      </c>
-      <c r="C11" s="26">
-        <v>17.869644960000002</v>
-      </c>
-      <c r="D11" s="26">
-        <v>19.310550639999999</v>
-      </c>
-      <c r="E11" s="26">
-        <v>28.26132763</v>
-      </c>
-      <c r="F11" s="26">
-        <v>32.131736230000001</v>
-      </c>
-      <c r="G11" s="26">
-        <v>48.092396860000001</v>
-      </c>
-      <c r="H11" s="26">
-        <v>49.496326639999999</v>
-      </c>
-      <c r="I11" s="26">
-        <v>46.338024240000003</v>
-      </c>
-      <c r="J11" s="26">
-        <v>47.013920280000001</v>
-      </c>
-      <c r="K11" s="22">
-        <v>52.71841328</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11">
-        <v>55.963000000000001</v>
-      </c>
-      <c r="O11">
-        <v>55.963000000000001</v>
-      </c>
-      <c r="Q11">
-        <v>55.963000000000001</v>
-      </c>
-      <c r="R11">
-        <v>55.963000000000001</v>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <f>利润表raw!Q31/1000000</f>
+        <v>22.201838710000001</v>
+      </c>
+      <c r="C24">
+        <f>利润表raw!U31/1000000</f>
+        <v>3.5844593100000002</v>
+      </c>
+      <c r="D24">
+        <f>利润表raw!Y31/1000000</f>
+        <v>-2.1627582799999998</v>
+      </c>
+      <c r="E24">
+        <f>利润表raw!AC31/1000000</f>
+        <v>-15.64462245</v>
+      </c>
+      <c r="F24">
+        <f>利润表raw!AG31/1000000</f>
+        <v>-18.0130701</v>
+      </c>
+      <c r="G24">
+        <f>利润表raw!AK31/1000000</f>
+        <v>-37.430110659999997</v>
+      </c>
+      <c r="H24">
+        <f>利润表raw!AO31/1000000</f>
+        <v>351.77853412999997</v>
+      </c>
+      <c r="I24">
+        <f>利润表raw!AP31/1000000</f>
+        <v>134.79789563999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26">
-        <v>238.12839500000001</v>
-      </c>
-      <c r="D12" s="26">
-        <v>245.223702</v>
-      </c>
-      <c r="E12" s="26">
-        <v>101.176637</v>
-      </c>
-      <c r="F12" s="26">
-        <v>619.88198</v>
-      </c>
-      <c r="G12" s="26">
-        <v>288.36657500000001</v>
-      </c>
-      <c r="H12" s="26">
-        <v>-96.939312000000001</v>
-      </c>
-      <c r="I12" s="26">
-        <v>-94.746550999999997</v>
-      </c>
-      <c r="J12" s="26">
-        <v>-185.59632300000001</v>
-      </c>
-      <c r="K12" s="26">
-        <v>137.166203</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26">
-        <v>139.18458955555559</v>
-      </c>
-      <c r="O12" s="26">
-        <v>139.18458955555559</v>
-      </c>
-      <c r="Q12" s="25">
-        <v>139.18458955555559</v>
-      </c>
-      <c r="R12" s="25">
-        <v>139.18458955555559</v>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <f>利润表raw!Q32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>利润表raw!U32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>利润表raw!Y32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>利润表raw!AC32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>利润表raw!AG32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>利润表raw!AK32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>利润表raw!AO32/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>利润表raw!AP32/1000000</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13">
-        <v>-108.153402</v>
-      </c>
-      <c r="D13">
-        <v>85.126264000000006</v>
-      </c>
-      <c r="E13">
-        <v>1055.4983792400003</v>
-      </c>
-      <c r="F13">
-        <v>-870.47736454000039</v>
-      </c>
-      <c r="G13">
-        <v>1669.2888515100003</v>
-      </c>
-      <c r="H13">
-        <v>-17.236765109999656</v>
-      </c>
-      <c r="I13">
-        <v>-601.93968510000036</v>
-      </c>
-      <c r="J13">
-        <v>713.90962100000002</v>
-      </c>
-      <c r="K13">
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="M13">
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="O13">
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="Q13">
-        <v>3760.3623107000008</v>
-      </c>
-      <c r="R13">
-        <v>3760.3623107000008</v>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <f>利润表raw!Q33/1000000</f>
+        <v>4.8010000000000007E-7</v>
+      </c>
+      <c r="C26">
+        <f>利润表raw!U33/1000000</f>
+        <v>3.6629999999999999E-7</v>
+      </c>
+      <c r="D26">
+        <f>利润表raw!Y33/1000000</f>
+        <v>1.451E-7</v>
+      </c>
+      <c r="E26">
+        <f>利润表raw!AC33/1000000</f>
+        <v>1.624E-7</v>
+      </c>
+      <c r="F26">
+        <f>利润表raw!AG33/1000000</f>
+        <v>1.7999999999999999E-8</v>
+      </c>
+      <c r="G26">
+        <f>利润表raw!AK33/1000000</f>
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="H26">
+        <f>利润表raw!AO33/1000000</f>
+        <v>2.1099999999999997E-6</v>
+      </c>
+      <c r="I26">
+        <f>利润表raw!AP33/1000000</f>
+        <v>1.0590999999999999E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="25">
-        <f>C6+C11-C12-C13</f>
-        <v>-131.58333689000003</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" ref="D14:M14" si="0">D6+D11-D12-D13</f>
-        <v>110.72919943999999</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="0"/>
-        <v>-492.1679696800004</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="0"/>
-        <v>754.86019169000042</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" si="0"/>
-        <v>-1675.6750214800004</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="0"/>
-        <v>427.19330942999972</v>
-      </c>
-      <c r="I14" s="25">
-        <f t="shared" si="0"/>
-        <v>756.02492248000033</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="0"/>
-        <v>-451.28058131</v>
-      </c>
-      <c r="K14" s="25">
-        <f t="shared" si="0"/>
-        <v>127.38703078999924</v>
-      </c>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25">
-        <f t="shared" si="0"/>
-        <v>1996.4160997444437</v>
-      </c>
-      <c r="O14" s="25">
-        <f>O6+O11-O12-O13</f>
-        <v>2145.4160997444437</v>
-      </c>
-      <c r="Q14">
-        <f>Q6+Q11-Q12-Q13</f>
-        <v>3623.0560997444441</v>
-      </c>
-      <c r="R14">
-        <f>R6+R11-R12-R13</f>
-        <v>2129.7280997444445</v>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <f>利润表raw!Q34/1000000</f>
+        <v>4.8010000000000007E-7</v>
+      </c>
+      <c r="C27">
+        <f>利润表raw!U34/1000000</f>
+        <v>3.6629999999999999E-7</v>
+      </c>
+      <c r="D27">
+        <f>利润表raw!Y34/1000000</f>
+        <v>1.451E-7</v>
+      </c>
+      <c r="E27">
+        <f>利润表raw!AC34/1000000</f>
+        <v>1.624E-7</v>
+      </c>
+      <c r="F27">
+        <f>利润表raw!AG34/1000000</f>
+        <v>1.7999999999999999E-8</v>
+      </c>
+      <c r="G27">
+        <f>利润表raw!AK34/1000000</f>
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="H27">
+        <f>利润表raw!AO34/1000000</f>
+        <v>2.04E-6</v>
+      </c>
+      <c r="I27">
+        <f>利润表raw!AP34/1000000</f>
+        <v>1.0590999999999999E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4.4999999999999998E-2</v>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <f>利润表raw!Q35/1000000</f>
+        <v>-0.47876626999999999</v>
+      </c>
+      <c r="C28">
+        <f>利润表raw!U35/1000000</f>
+        <v>0.13055759</v>
+      </c>
+      <c r="D28">
+        <f>利润表raw!Y35/1000000</f>
+        <v>-0.6732580600000001</v>
+      </c>
+      <c r="E28">
+        <f>利润表raw!AC35/1000000</f>
+        <v>1.6331357399999999</v>
+      </c>
+      <c r="F28">
+        <f>利润表raw!AG35/1000000</f>
+        <v>-0.98650234999999997</v>
+      </c>
+      <c r="G28">
+        <f>利润表raw!AK35/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>利润表raw!AO35/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>利润表raw!AP35/1000000</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="18">
-        <v>0.08</v>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <f>利润表raw!Q36/1000000</f>
+        <v>635.76695266000002</v>
+      </c>
+      <c r="C29">
+        <f>利润表raw!U36/1000000</f>
+        <v>472.26362850999999</v>
+      </c>
+      <c r="D29">
+        <f>利润表raw!Y36/1000000</f>
+        <v>233.21475011000001</v>
+      </c>
+      <c r="E29">
+        <f>利润表raw!AC36/1000000</f>
+        <v>265.15404142</v>
+      </c>
+      <c r="F29">
+        <f>利润表raw!AG36/1000000</f>
+        <v>12.014159789999999</v>
+      </c>
+      <c r="G29">
+        <f>利润表raw!AK36/1000000</f>
+        <v>30.01879641</v>
+      </c>
+      <c r="H29">
+        <f>利润表raw!AO36/1000000</f>
+        <v>3972.19713121</v>
+      </c>
+      <c r="I29">
+        <f>利润表raw!AP36/1000000</f>
+        <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>209</v>
-      </c>
-      <c r="M17">
-        <f>M14/(B16-B15)</f>
-        <v>57040.459992698386</v>
-      </c>
-      <c r="O17">
-        <f>O14/(B16-B15)</f>
-        <v>61297.602849841242</v>
-      </c>
-      <c r="Q17">
-        <f>Q14/(B16-B15)</f>
-        <v>103515.88856412696</v>
-      </c>
-      <c r="R17">
-        <f>R14/(B16-B15)</f>
-        <v>60849.374278412695</v>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <f>利润表raw!Q37/1000000</f>
+        <v>613.65183821000005</v>
+      </c>
+      <c r="C30">
+        <f>利润表raw!U37/1000000</f>
+        <v>468.59967195999997</v>
+      </c>
+      <c r="D30">
+        <f>利润表raw!Y37/1000000</f>
+        <v>235.68865671</v>
+      </c>
+      <c r="E30">
+        <f>利润表raw!AC37/1000000</f>
+        <v>280.15919658999996</v>
+      </c>
+      <c r="F30">
+        <f>利润表raw!AG37/1000000</f>
+        <v>30.46329154</v>
+      </c>
+      <c r="G30">
+        <f>利润表raw!AK37/1000000</f>
+        <v>67.44890706999999</v>
+      </c>
+      <c r="H30">
+        <f>利润表raw!AO37/1000000</f>
+        <v>3620.4185970799999</v>
+      </c>
+      <c r="I30">
+        <f>利润表raw!AP37/1000000</f>
+        <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18">
-        <v>1719.16</v>
-      </c>
-      <c r="M18">
-        <v>1719.16</v>
-      </c>
-      <c r="O18">
-        <v>1719.16</v>
-      </c>
-      <c r="Q18">
-        <v>1719.16</v>
-      </c>
-      <c r="R18">
-        <v>1719.16</v>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <f>利润表raw!Q38/1000000</f>
+        <v>22.11511445</v>
+      </c>
+      <c r="C31">
+        <f>利润表raw!U38/1000000</f>
+        <v>3.66395655</v>
+      </c>
+      <c r="D31">
+        <f>利润表raw!Y38/1000000</f>
+        <v>-2.4739066000000003</v>
+      </c>
+      <c r="E31">
+        <f>利润表raw!AC38/1000000</f>
+        <v>-15.00515517</v>
+      </c>
+      <c r="F31">
+        <f>利润表raw!AG38/1000000</f>
+        <v>-18.449131749999999</v>
+      </c>
+      <c r="G31">
+        <f>利润表raw!AK38/1000000</f>
+        <v>-37.430110659999997</v>
+      </c>
+      <c r="H31">
+        <f>利润表raw!AO38/1000000</f>
+        <v>351.77853412999997</v>
+      </c>
+      <c r="I31">
+        <f>利润表raw!AP38/1000000</f>
+        <v>134.79789563999998</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>230</v>
-      </c>
-      <c r="M19">
-        <f>M17/M18</f>
-        <v>33.179261960898572</v>
-      </c>
-      <c r="O19">
-        <f>O17/O18</f>
-        <v>35.65555436948349</v>
-      </c>
-      <c r="Q19">
-        <f>Q17/Q18</f>
-        <v>60.213062521305147</v>
-      </c>
-      <c r="R19">
-        <f>R17/R18</f>
-        <v>35.394829031860148</v>
-      </c>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -16322,152 +14788,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO1"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection sqref="A1:AO1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15">
-        <v>20080331</v>
-      </c>
-      <c r="C1" s="15">
-        <v>20080630</v>
-      </c>
-      <c r="D1" s="15">
-        <v>20080930</v>
-      </c>
-      <c r="E1" s="15">
-        <v>20081231</v>
-      </c>
-      <c r="F1" s="15">
-        <v>20090331</v>
-      </c>
-      <c r="G1" s="15">
-        <v>20090630</v>
-      </c>
-      <c r="H1" s="15">
-        <v>20090930</v>
-      </c>
-      <c r="I1" s="15">
-        <v>20091231</v>
-      </c>
-      <c r="J1" s="15">
-        <v>20100331</v>
-      </c>
-      <c r="K1" s="15">
-        <v>20100630</v>
-      </c>
-      <c r="L1" s="15">
-        <v>20100930</v>
-      </c>
-      <c r="M1" s="15">
-        <v>20101231</v>
-      </c>
-      <c r="N1" s="15">
-        <v>20110331</v>
-      </c>
-      <c r="O1" s="15">
-        <v>20110630</v>
-      </c>
-      <c r="P1" s="15">
-        <v>20110930</v>
-      </c>
-      <c r="Q1" s="15">
-        <v>20111231</v>
-      </c>
-      <c r="R1" s="15">
-        <v>20120331</v>
-      </c>
-      <c r="S1" s="15">
-        <v>20120630</v>
-      </c>
-      <c r="T1" s="15">
-        <v>20120930</v>
-      </c>
-      <c r="U1" s="15">
-        <v>20121231</v>
-      </c>
-      <c r="V1" s="15">
-        <v>20130331</v>
-      </c>
-      <c r="W1" s="15">
-        <v>20130630</v>
-      </c>
-      <c r="X1" s="15">
-        <v>20130930</v>
-      </c>
-      <c r="Y1" s="15">
-        <v>20131231</v>
-      </c>
-      <c r="Z1" s="15">
-        <v>20140331</v>
-      </c>
-      <c r="AA1" s="15">
-        <v>20140630</v>
-      </c>
-      <c r="AB1" s="15">
-        <v>20140930</v>
-      </c>
-      <c r="AC1" s="15">
-        <v>20141231</v>
-      </c>
-      <c r="AD1" s="15">
-        <v>20150331</v>
-      </c>
-      <c r="AE1" s="15">
-        <v>20150630</v>
-      </c>
-      <c r="AF1" s="15">
-        <v>20150930</v>
-      </c>
-      <c r="AG1" s="15">
-        <v>20151231</v>
-      </c>
-      <c r="AH1" s="15">
-        <v>20160331</v>
-      </c>
-      <c r="AI1" s="15">
-        <v>20160630</v>
-      </c>
-      <c r="AJ1" s="15">
-        <v>20160930</v>
-      </c>
-      <c r="AK1" s="15">
-        <v>20161231</v>
-      </c>
-      <c r="AL1" s="15">
-        <v>20170331</v>
-      </c>
-      <c r="AM1" s="15">
-        <v>20170630</v>
-      </c>
-      <c r="AN1" s="15">
-        <v>20170930</v>
-      </c>
-      <c r="AO1" s="15">
-        <v>20171231</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N9" sqref="A1:N9"/>
+      <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16512,13 +14837,13 @@
         <v>20171231</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -16555,13 +14880,13 @@
       <c r="K2" s="7">
         <v>8350.4761047600005</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="19">
         <v>10917</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="19">
         <v>10450</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="19">
         <v>10202</v>
       </c>
     </row>
@@ -16704,13 +15029,13 @@
       <c r="K6" s="7">
         <v>3972.19713121</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="19">
         <v>5840</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="19">
         <v>5010</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="19">
         <v>4460</v>
       </c>
     </row>
@@ -16718,43 +15043,43 @@
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <f>(B5-B6)/B5</f>
         <v>0.23353970885391417</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <f t="shared" ref="C7:K7" si="0">(C5-C6)/C5</f>
         <v>2.3266785684700682</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <f t="shared" si="0"/>
         <v>0.25614144239104025</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>0.27113685724935699</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <f t="shared" si="0"/>
         <v>0.232915337229151</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>0.31111511738613923</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>0.24905961468181445</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="18">
         <f t="shared" si="0"/>
         <v>0.71417372446037564</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="18">
         <f t="shared" si="0"/>
         <v>0.64663489139539476</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <f t="shared" si="0"/>
         <v>0.17767176781517674</v>
       </c>
@@ -16818,7 +15143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP85"/>
   <sheetViews>
@@ -27317,7 +25642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
@@ -30162,7 +28487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN77"/>
   <sheetViews>
@@ -44804,7 +43129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L76"/>
   <sheetViews>
@@ -47583,7 +45908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
@@ -47632,13 +45957,13 @@
         <v>20171231</v>
       </c>
       <c r="L1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -47771,6 +46096,323 @@
       <c r="K5">
         <f>AVERAGE(C4:K4)</f>
         <v>139.18458955555559</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20">
+        <v>20081231</v>
+      </c>
+      <c r="C1" s="20">
+        <v>20091231</v>
+      </c>
+      <c r="D1" s="20">
+        <v>20101231</v>
+      </c>
+      <c r="E1" s="20">
+        <v>20111231</v>
+      </c>
+      <c r="F1" s="20">
+        <v>20121231</v>
+      </c>
+      <c r="G1" s="20">
+        <v>20131231</v>
+      </c>
+      <c r="H1" s="20">
+        <v>20141231</v>
+      </c>
+      <c r="I1" s="20">
+        <v>20151231</v>
+      </c>
+      <c r="J1" s="20">
+        <v>20161231</v>
+      </c>
+      <c r="K1" s="20">
+        <v>20171231</v>
+      </c>
+      <c r="L1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="20">
+        <v>2394012201</v>
+      </c>
+      <c r="C2" s="20">
+        <v>2334122097</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2977181426</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3819949243.2400002</v>
+      </c>
+      <c r="F2" s="20">
+        <v>3797905623.6999998</v>
+      </c>
+      <c r="G2" s="20">
+        <v>4629091022.21</v>
+      </c>
+      <c r="H2" s="20">
+        <v>3787276644.1000004</v>
+      </c>
+      <c r="I2" s="20">
+        <v>3849001211</v>
+      </c>
+      <c r="J2" s="20">
+        <v>3595139702</v>
+      </c>
+      <c r="K2" s="20">
+        <v>9055120005.7000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="26">
+        <f>B2/1000000</f>
+        <v>2394.012201</v>
+      </c>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:J3" si="0">C2/1000000</f>
+        <v>2334.1220969999999</v>
+      </c>
+      <c r="D3" s="26">
+        <f t="shared" si="0"/>
+        <v>2977.1814260000001</v>
+      </c>
+      <c r="E3" s="26">
+        <f t="shared" si="0"/>
+        <v>3819.9492432400002</v>
+      </c>
+      <c r="F3" s="26">
+        <f t="shared" si="0"/>
+        <v>3797.9056237</v>
+      </c>
+      <c r="G3" s="26">
+        <f t="shared" si="0"/>
+        <v>4629.0910222100001</v>
+      </c>
+      <c r="H3" s="26">
+        <f t="shared" si="0"/>
+        <v>3787.2766441000003</v>
+      </c>
+      <c r="I3" s="26">
+        <f t="shared" si="0"/>
+        <v>3849.0012109999998</v>
+      </c>
+      <c r="J3" s="26">
+        <f t="shared" si="0"/>
+        <v>3595.1397019999999</v>
+      </c>
+      <c r="K3" s="26">
+        <f>K2/1000000</f>
+        <v>9055.1200057000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="20">
+        <v>2427258598</v>
+      </c>
+      <c r="C4" s="20">
+        <v>2475521896</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3033454961</v>
+      </c>
+      <c r="E4" s="20">
+        <v>2820724399</v>
+      </c>
+      <c r="F4" s="20">
+        <v>3669158144</v>
+      </c>
+      <c r="G4" s="20">
+        <v>2831054691</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2006477078</v>
+      </c>
+      <c r="I4" s="20">
+        <v>2670141330</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1702370200</v>
+      </c>
+      <c r="K4" s="20">
+        <v>3401988193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="26">
+        <f>B4/1000000</f>
+        <v>2427.2585979999999</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" ref="C5:K5" si="1">C4/1000000</f>
+        <v>2475.5218960000002</v>
+      </c>
+      <c r="D5" s="26">
+        <f t="shared" si="1"/>
+        <v>3033.4549609999999</v>
+      </c>
+      <c r="E5" s="26">
+        <f t="shared" si="1"/>
+        <v>2820.7243990000002</v>
+      </c>
+      <c r="F5" s="26">
+        <f t="shared" si="1"/>
+        <v>3669.158144</v>
+      </c>
+      <c r="G5" s="26">
+        <f t="shared" si="1"/>
+        <v>2831.0546909999998</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="1"/>
+        <v>2006.4770779999999</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="1"/>
+        <v>2670.1413299999999</v>
+      </c>
+      <c r="J5" s="26">
+        <f t="shared" si="1"/>
+        <v>1702.3702000000001</v>
+      </c>
+      <c r="K5" s="26">
+        <f t="shared" si="1"/>
+        <v>3401.9881930000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6">
+        <f>C2-B2-(C4-B4)</f>
+        <v>-108153402</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:K6" si="2">D2-C2-(D4-C4)</f>
+        <v>85126264</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1055498379.2400002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-870477364.54000044</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1669288851.5100002</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-17236765.109999657</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>-601939685.10000038</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>713909621</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>3760362310.7000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="16">
+        <f>C6/1000000</f>
+        <v>-108.153402</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" ref="D7:K7" si="3">D6/1000000</f>
+        <v>85.126264000000006</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="3"/>
+        <v>1055.4983792400003</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="3"/>
+        <v>-870.47736454000039</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" si="3"/>
+        <v>1669.2888515100003</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="3"/>
+        <v>-17.236765109999656</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="3"/>
+        <v>-601.93968510000036</v>
+      </c>
+      <c r="J7" s="16">
+        <f t="shared" si="3"/>
+        <v>713.90962100000002</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="3"/>
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="L7" s="16">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="M7" s="16">
+        <v>3760.3623107000008</v>
+      </c>
+      <c r="N7" s="16">
+        <v>3760.3623106999999</v>
       </c>
     </row>
   </sheetData>

--- a/方大碳素估值.xlsx
+++ b/方大碳素估值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="21060" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="利润表raw" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="253">
   <si>
     <t>报表日期</t>
   </si>
@@ -1257,6 +1257,10 @@
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>fff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1264,9 +1268,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1861,15 +1865,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1"/>
     <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="20%-个性色1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -1959,7 +1963,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2004,10 +2007,10 @@
                   <c:v>588.1151921799999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>581.3675876099994</c:v>
+                  <c:v>581.3675876099993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.1015113999996</c:v>
+                  <c:v>780.1015113999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>889.6945717099995</c:v>
@@ -2016,7 +2019,7 @@
                   <c:v>965.3219846100004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902.9111498599996</c:v>
+                  <c:v>902.9111498599995</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1183.23571039</c:v>
@@ -2043,7 +2046,7 @@
                   <c:v>949.05876201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>945.4663590999992</c:v>
+                  <c:v>945.4663590999991</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>753.4474996799999</c:v>
@@ -2076,13 +2079,13 @@
                   <c:v>533.5155219199999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>473.3281420499996</c:v>
+                  <c:v>473.3281420499995</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>598.23864497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>637.1482960999995</c:v>
+                  <c:v>637.1482960999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>686.5764984500004</c:v>
@@ -2280,11 +2283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1138613392"/>
-        <c:axId val="-1138611344"/>
+        <c:axId val="1462582656"/>
+        <c:axId val="1537347104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1138613392"/>
+        <c:axId val="1462582656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1138611344"/>
+        <c:crossAx val="1537347104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1138611344"/>
+        <c:axId val="1537347104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1138613392"/>
+        <c:crossAx val="1462582656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2345,7 +2348,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2668,11 +2670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1138634592"/>
-        <c:axId val="-1138632272"/>
+        <c:axId val="1537013280"/>
+        <c:axId val="1490893616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1138634592"/>
+        <c:axId val="1537013280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2682,7 +2684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1138632272"/>
+        <c:crossAx val="1490893616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2690,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1138632272"/>
+        <c:axId val="1490893616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1138634592"/>
+        <c:crossAx val="1537013280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2798,10 +2800,10 @@
                   <c:v>143.1170427800001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.37830380999981</c:v>
+                  <c:v>91.37830380999979</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.12290491999993</c:v>
+                  <c:v>70.12290491999991</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>193.90463809</c:v>
@@ -2831,7 +2833,7 @@
                   <c:v>131.86484223</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.38483983999993</c:v>
+                  <c:v>75.38483983999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-71.31218788000001</c:v>
@@ -2846,10 +2848,10 @@
                   <c:v>-17.86843796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.382120369999997</c:v>
+                  <c:v>6.382120369999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.307820209999995</c:v>
+                  <c:v>4.307820209999994</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.45368392</c:v>
@@ -3053,11 +3055,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1138686576"/>
-        <c:axId val="-1138684256"/>
+        <c:axId val="1460299696"/>
+        <c:axId val="1460302016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1138686576"/>
+        <c:axId val="1460299696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3067,7 +3069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1138684256"/>
+        <c:crossAx val="1460302016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3075,7 +3077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1138684256"/>
+        <c:axId val="1460302016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3086,7 +3088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1138686576"/>
+        <c:crossAx val="1460299696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3143,7 +3145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3287,11 +3288,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1136574208"/>
-        <c:axId val="-1136571888"/>
+        <c:axId val="1540598528"/>
+        <c:axId val="1540600848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1136574208"/>
+        <c:axId val="1540598528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3335,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1136571888"/>
+        <c:crossAx val="1540600848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,7 +3343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1136571888"/>
+        <c:axId val="1540600848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3393,7 +3394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1136574208"/>
+        <c:crossAx val="1540598528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3483,7 +3484,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3594,11 +3594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1138655088"/>
-        <c:axId val="-1138653040"/>
+        <c:axId val="1537987424"/>
+        <c:axId val="1537989472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1138655088"/>
+        <c:axId val="1537987424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1138653040"/>
+        <c:crossAx val="1537989472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +3648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1138653040"/>
+        <c:axId val="1537989472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1138655088"/>
+        <c:crossAx val="1537987424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3762,7 +3762,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3839,7 +3838,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3921,11 +3919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1137885936"/>
-        <c:axId val="-1137883616"/>
+        <c:axId val="1538007376"/>
+        <c:axId val="1538009856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1137885936"/>
+        <c:axId val="1538007376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3965,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1137883616"/>
+        <c:crossAx val="1538009856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3975,7 +3973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1137883616"/>
+        <c:axId val="1538009856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +4023,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1137885936"/>
+        <c:crossAx val="1538007376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17459,7 +17457,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L74" sqref="L74"/>
+      <selection pane="topRight" activeCell="N75" sqref="N75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18593,27 +18591,27 @@
         <v>238</v>
       </c>
       <c r="B36" s="30">
-        <f>SUM(B28:B34)</f>
+        <f t="shared" ref="B36:G36" si="3">SUM(B28:B34)</f>
         <v>3817.6696594499999</v>
       </c>
       <c r="C36" s="30">
-        <f>SUM(C28:C34)</f>
+        <f t="shared" si="3"/>
         <v>4724.9936772000001</v>
       </c>
       <c r="D36" s="30">
-        <f>SUM(D28:D34)</f>
+        <f t="shared" si="3"/>
         <v>3932.9008188400003</v>
       </c>
       <c r="E36" s="30">
-        <f>SUM(E28:E34)</f>
+        <f t="shared" si="3"/>
         <v>3849.0012113900002</v>
       </c>
       <c r="F36" s="30">
-        <f>SUM(F28:F34)</f>
+        <f t="shared" si="3"/>
         <v>3617.9066921200001</v>
       </c>
       <c r="G36" s="30">
-        <f>SUM(G28:G34)</f>
+        <f t="shared" si="3"/>
         <v>9371.4271383100004</v>
       </c>
       <c r="H36" s="30">
@@ -18621,11 +18619,11 @@
         <v>7089</v>
       </c>
       <c r="I36" s="30">
-        <f t="shared" ref="I36:J36" si="3">SUM(I28:I33)</f>
+        <f t="shared" ref="I36:J36" si="4">SUM(I28:I33)</f>
         <v>7415</v>
       </c>
       <c r="J36" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7777</v>
       </c>
       <c r="K36" s="30">
@@ -18636,11 +18634,11 @@
         <v>12396</v>
       </c>
       <c r="M36" s="30">
-        <f t="shared" ref="M36:N36" si="4">SUM(M28:M34)</f>
+        <f t="shared" ref="M36:N36" si="5">SUM(M28:M34)</f>
         <v>12086</v>
       </c>
       <c r="N36" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12762</v>
       </c>
     </row>
@@ -19065,35 +19063,35 @@
         <v>3669.1581439799993</v>
       </c>
       <c r="C49" s="28">
-        <f t="shared" ref="C49:G49" si="5">SUM(C38:C48)</f>
+        <f t="shared" ref="C49:G49" si="6">SUM(C38:C48)</f>
         <v>2831.0546912399996</v>
       </c>
       <c r="D49" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2006.47707846</v>
       </c>
       <c r="E49" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2670.1413306300001</v>
       </c>
       <c r="F49" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1702.3702002999996</v>
       </c>
       <c r="G49" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3401.9881934</v>
       </c>
       <c r="H49" s="28">
-        <f t="shared" ref="H49" si="6">SUM(H38:H48)</f>
+        <f t="shared" ref="H49" si="7">SUM(H38:H48)</f>
         <v>2149</v>
       </c>
       <c r="I49" s="28">
-        <f t="shared" ref="I49" si="7">SUM(I38:I48)</f>
+        <f t="shared" ref="I49" si="8">SUM(I38:I48)</f>
         <v>2134</v>
       </c>
       <c r="J49" s="28">
-        <f t="shared" ref="J49" si="8">SUM(J38:J48)</f>
+        <f t="shared" ref="J49" si="9">SUM(J38:J48)</f>
         <v>2119</v>
       </c>
       <c r="K49" s="28">
@@ -19431,39 +19429,39 @@
         <v>231</v>
       </c>
       <c r="B62" s="2">
-        <f>(B4-B5)/B4*100%</f>
+        <f t="shared" ref="B62:J62" si="10">(B4-B5)/B4*100%</f>
         <v>0.32742596361592763</v>
       </c>
       <c r="C62" s="2">
-        <f>(C4-C5)/C4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.31526282747779194</v>
       </c>
       <c r="D62" s="2">
-        <f>(D4-D5)/D4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.29302003831052476</v>
       </c>
       <c r="E62" s="2">
-        <f>(E4-E5)/E4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.23962722571984171</v>
       </c>
       <c r="F62" s="2">
-        <f>(F4-F5)/F4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.25404744811115887</v>
       </c>
       <c r="G62" s="2">
-        <f>(G4-G5)/G4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.76585960073755655</v>
       </c>
       <c r="H62" s="2">
-        <f>(H4-H5)/H4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.82467710909590541</v>
       </c>
       <c r="I62" s="2">
-        <f>(I4-I5)/I4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.76688995215311007</v>
       </c>
       <c r="J62" s="2">
-        <f>(J4-J5)/J4*100%</f>
+        <f t="shared" si="10"/>
         <v>0.71368359145265636</v>
       </c>
       <c r="K62" s="2">
@@ -19519,39 +19517,39 @@
         <v>233</v>
       </c>
       <c r="B64" s="2">
-        <f>B19/B4</f>
+        <f t="shared" ref="B64:J64" si="11">B19/B4</f>
         <v>0.11950599416841706</v>
       </c>
       <c r="C64" s="2">
-        <f>C19/C4</f>
+        <f t="shared" si="11"/>
         <v>6.9332008330489317E-2</v>
       </c>
       <c r="D64" s="2">
-        <f>D19/D4</f>
+        <f t="shared" si="11"/>
         <v>7.6404821131212414E-2</v>
       </c>
       <c r="E64" s="2">
-        <f>E19/E4</f>
+        <f t="shared" si="11"/>
         <v>5.5787105408461107E-3</v>
       </c>
       <c r="F64" s="2">
-        <f>F19/F4</f>
+        <f t="shared" si="11"/>
         <v>1.2532418450001023E-2</v>
       </c>
       <c r="G64" s="2">
-        <f>G19/G4</f>
+        <f t="shared" si="11"/>
         <v>0.47568510841504458</v>
       </c>
       <c r="H64" s="2">
-        <f>H19/H4</f>
+        <f t="shared" si="11"/>
         <v>0.48756526518274251</v>
       </c>
       <c r="I64" s="2">
-        <f>I19/I4</f>
+        <f t="shared" si="11"/>
         <v>0.44985645933014357</v>
       </c>
       <c r="J64" s="2">
-        <f>J19/J4</f>
+        <f t="shared" si="11"/>
         <v>0.41205155851793768</v>
       </c>
       <c r="K64" s="2">
@@ -19620,27 +19618,27 @@
         <v>244</v>
       </c>
       <c r="B67" s="16">
-        <f>SUM(B22:B23)</f>
+        <f t="shared" ref="B67:G67" si="12">SUM(B22:B23)</f>
         <v>32.131736230000001</v>
       </c>
       <c r="C67" s="16">
-        <f>SUM(C22:C23)</f>
+        <f t="shared" si="12"/>
         <v>48.092396859999994</v>
       </c>
       <c r="D67" s="16">
-        <f>SUM(D22:D23)</f>
+        <f t="shared" si="12"/>
         <v>49.496326639999992</v>
       </c>
       <c r="E67" s="16">
-        <f>SUM(E22:E23)</f>
+        <f t="shared" si="12"/>
         <v>46.338024239999996</v>
       </c>
       <c r="F67" s="16">
-        <f>SUM(F22:F23)</f>
+        <f t="shared" si="12"/>
         <v>47.013920279999994</v>
       </c>
       <c r="G67" s="16">
-        <f>SUM(G22:G23)</f>
+        <f t="shared" si="12"/>
         <v>52.71841328</v>
       </c>
       <c r="H67" s="16">
@@ -19670,35 +19668,35 @@
         <v>245</v>
       </c>
       <c r="B69" s="16">
-        <f>C59-B59</f>
+        <f t="shared" ref="B69:I69" si="13">C59-B59</f>
         <v>-838.10345273999974</v>
       </c>
       <c r="C69" s="16">
-        <f>D59-C59</f>
+        <f t="shared" si="13"/>
         <v>-824.57761277999953</v>
       </c>
       <c r="D69" s="16">
-        <f>E59-D59</f>
+        <f t="shared" si="13"/>
         <v>663.66425217000005</v>
       </c>
       <c r="E69" s="16">
-        <f>F59-E59</f>
+        <f t="shared" si="13"/>
         <v>-967.77113033000046</v>
       </c>
       <c r="F69" s="16">
-        <f>G59-F59</f>
+        <f t="shared" si="13"/>
         <v>1699.6179931000004</v>
       </c>
       <c r="G69" s="16">
-        <f>H59-G59</f>
+        <f t="shared" si="13"/>
         <v>-762.9881934</v>
       </c>
       <c r="H69" s="16">
-        <f>I59-H59</f>
+        <f t="shared" si="13"/>
         <v>-110</v>
       </c>
       <c r="I69" s="16">
-        <f>J59-I59</f>
+        <f t="shared" si="13"/>
         <v>-112</v>
       </c>
       <c r="J69" s="16">
@@ -19712,7 +19710,7 @@
         <v>-123</v>
       </c>
       <c r="M69" s="16">
-        <f t="shared" ref="M69" si="9">N59-M59</f>
+        <f t="shared" ref="M69" si="14">N59-M59</f>
         <v>-126</v>
       </c>
       <c r="N69" s="16">
@@ -19724,35 +19722,35 @@
         <v>247</v>
       </c>
       <c r="B70" s="30">
-        <f>C36-B36-(C59-B59)</f>
+        <f t="shared" ref="B70:I70" si="15">C36-B36-(C59-B59)</f>
         <v>1745.4274704899999</v>
       </c>
       <c r="C70" s="30">
-        <f>D36-C36-(D59-C59)</f>
+        <f t="shared" si="15"/>
         <v>32.484754419999717</v>
       </c>
       <c r="D70" s="30">
-        <f>E36-D36-(E59-D59)</f>
+        <f t="shared" si="15"/>
         <v>-747.56385962000013</v>
       </c>
       <c r="E70" s="30">
-        <f>F36-E36-(F59-E59)</f>
+        <f t="shared" si="15"/>
         <v>736.67661106000037</v>
       </c>
       <c r="F70" s="30">
-        <f>G36-F36-(G59-F59)</f>
+        <f t="shared" si="15"/>
         <v>4053.9024530899997</v>
       </c>
       <c r="G70" s="30">
-        <f>H36-G36-(H59-G59)</f>
+        <f t="shared" si="15"/>
         <v>-1519.4389449100004</v>
       </c>
       <c r="H70" s="30">
-        <f>I36-H36-(I59-H59)</f>
+        <f t="shared" si="15"/>
         <v>436</v>
       </c>
       <c r="I70" s="30">
-        <f>J36-I36-(J59-I59)</f>
+        <f t="shared" si="15"/>
         <v>474</v>
       </c>
       <c r="J70" s="16">
@@ -19763,11 +19761,11 @@
         <v>3997.5610550899996</v>
       </c>
       <c r="L70" s="30">
-        <f t="shared" ref="L70:N70" si="10">M36-L36-M49+L49</f>
+        <f t="shared" ref="L70:M70" si="16">M36-L36-M49+L49</f>
         <v>-816</v>
       </c>
       <c r="M70" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>819</v>
       </c>
       <c r="N70" s="30">
@@ -19783,51 +19781,51 @@
         <v>-403.05921060000014</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" ref="C71:J71" si="11">C66+C67-C69-C70</f>
+        <f t="shared" ref="C71:J71" si="17">C66+C67-C69-C70</f>
         <v>1074.0732633899997</v>
       </c>
       <c r="D71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>396.91683977000008</v>
       </c>
       <c r="E71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>290.43320564999999</v>
       </c>
       <c r="F71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-5676.4877295000006</v>
       </c>
       <c r="G71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6307.3426827999992</v>
       </c>
       <c r="H71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5046.75</v>
       </c>
       <c r="I71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>4389</v>
       </c>
       <c r="J71" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3899.75</v>
       </c>
       <c r="K71" s="16">
-        <f t="shared" ref="K71" si="12">K66+K67-K69-K70</f>
+        <f t="shared" ref="K71" si="18">K66+K67-K69-K70</f>
         <v>127.35448940000015</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" ref="L71" si="13">L66+L67-L69-L70</f>
+        <f t="shared" ref="L71" si="19">L66+L67-L69-L70</f>
         <v>6978</v>
       </c>
       <c r="M71" s="16">
-        <f t="shared" ref="M71" si="14">M66+M67-M69-M70</f>
+        <f t="shared" ref="M71" si="20">M66+M67-M69-M70</f>
         <v>5668</v>
       </c>
       <c r="N71" s="16">
-        <f t="shared" ref="N71" si="15">N66+N67-N69-N70</f>
+        <f t="shared" ref="N71" si="21">N66+N67-N69-N70</f>
         <v>6346</v>
       </c>
     </row>
@@ -19924,19 +19922,19 @@
         <v>10740.732633899997</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:K74" si="16">D71/(C73-C72)</f>
+        <f t="shared" ref="C74:I74" si="22">D71/(C73-C72)</f>
         <v>3969.1683977000012</v>
       </c>
       <c r="D74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>2904.3320565000004</v>
       </c>
       <c r="E74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>-56764.877295000013</v>
       </c>
       <c r="F74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>63073.426827999996</v>
       </c>
       <c r="G74">
@@ -19944,19 +19942,19 @@
         <v>50467.500000000007</v>
       </c>
       <c r="H74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>43890.000000000007</v>
       </c>
       <c r="I74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>38997.5</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74" si="17">M71/(L73-L72)</f>
+        <f t="shared" ref="L74" si="23">M71/(L73-L72)</f>
         <v>56680.000000000007</v>
       </c>
       <c r="M74">
-        <f t="shared" ref="M74:N74" si="18">N71/(M73-M72)</f>
+        <f t="shared" ref="M74" si="24">N71/(M73-M72)</f>
         <v>63460.000000000007</v>
       </c>
     </row>
@@ -19996,7 +19994,9 @@
       <c r="M75" s="20">
         <v>1721.16</v>
       </c>
-      <c r="N75" s="20"/>
+      <c r="N75" s="20" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
@@ -20007,23 +20007,23 @@
         <v>6.2476631807975966</v>
       </c>
       <c r="C76">
-        <f t="shared" ref="C76:K76" si="19">C74/C75</f>
+        <f t="shared" ref="C76:I76" si="25">C74/C75</f>
         <v>2.3087835906489222</v>
       </c>
       <c r="D76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1.6893902001558903</v>
       </c>
       <c r="E76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>-33.018961175806794</v>
       </c>
       <c r="F76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>36.688514639707762</v>
       </c>
       <c r="G76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>29.355906372879783</v>
       </c>
       <c r="H76">
@@ -20031,15 +20031,15 @@
         <v>25.529909956025037</v>
       </c>
       <c r="I76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>22.684043370017914</v>
       </c>
       <c r="L76">
-        <f t="shared" ref="L76" si="20">L74/L75</f>
+        <f t="shared" ref="L76" si="26">L74/L75</f>
         <v>32.950423216444982</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76:N76" si="21">M74/M75</f>
+        <f t="shared" ref="M76" si="27">M74/M75</f>
         <v>36.870482697715495</v>
       </c>
     </row>
@@ -20121,31 +20121,31 @@
         <v>240</v>
       </c>
       <c r="B3">
-        <f>B2/1000000</f>
+        <f t="shared" ref="B3:H3" si="0">B2/1000000</f>
         <v>2657.1424088700001</v>
       </c>
       <c r="C3">
-        <f>C2/1000000</f>
+        <f t="shared" si="0"/>
         <v>2309.9260681700002</v>
       </c>
       <c r="D3">
-        <f>D2/1000000</f>
+        <f t="shared" si="0"/>
         <v>2438.38015774</v>
       </c>
       <c r="E3">
-        <f>E2/1000000</f>
+        <f t="shared" si="0"/>
         <v>1771.9774966800001</v>
       </c>
       <c r="F3">
-        <f>F2/1000000</f>
+        <f t="shared" si="0"/>
         <v>1786.7738677899999</v>
       </c>
       <c r="G3">
-        <f>G2/1000000</f>
+        <f t="shared" si="0"/>
         <v>1955.1838092</v>
       </c>
       <c r="H3">
-        <f>H2/1000000</f>
+        <f t="shared" si="0"/>
         <v>593.78389486000003</v>
       </c>
     </row>

--- a/方大碳素估值.xlsx
+++ b/方大碳素估值.xlsx
@@ -1258,7 +1258,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>fff</t>
+    <t>fffffff</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -2007,10 +2007,10 @@
                   <c:v>588.1151921799999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>581.3675876099993</c:v>
+                  <c:v>581.3675876099992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.1015113999995</c:v>
+                  <c:v>780.1015113999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>889.6945717099995</c:v>
@@ -2019,7 +2019,7 @@
                   <c:v>965.3219846100004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902.9111498599995</c:v>
+                  <c:v>902.9111498599993</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1183.23571039</c:v>
@@ -2046,7 +2046,7 @@
                   <c:v>949.05876201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>945.4663590999991</c:v>
+                  <c:v>945.466359099999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>753.4474996799999</c:v>
@@ -2079,7 +2079,7 @@
                   <c:v>533.5155219199999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>473.3281420499995</c:v>
+                  <c:v>473.3281420499994</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>598.23864497</c:v>
@@ -2283,11 +2283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1462582656"/>
-        <c:axId val="1537347104"/>
+        <c:axId val="797993824"/>
+        <c:axId val="798802800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1462582656"/>
+        <c:axId val="797993824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1537347104"/>
+        <c:crossAx val="798802800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1537347104"/>
+        <c:axId val="798802800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1462582656"/>
+        <c:crossAx val="797993824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2670,11 +2670,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1537013280"/>
-        <c:axId val="1490893616"/>
+        <c:axId val="798064384"/>
+        <c:axId val="798066704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1537013280"/>
+        <c:axId val="798064384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1490893616"/>
+        <c:crossAx val="798066704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1490893616"/>
+        <c:axId val="798066704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1537013280"/>
+        <c:crossAx val="798064384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2800,10 +2800,10 @@
                   <c:v>143.1170427800001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.37830380999979</c:v>
+                  <c:v>91.37830380999976</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.12290491999991</c:v>
+                  <c:v>70.1229049199999</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>193.90463809</c:v>
@@ -2833,7 +2833,7 @@
                   <c:v>131.86484223</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.38483983999991</c:v>
+                  <c:v>75.3848398399999</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-71.31218788000001</c:v>
@@ -2848,10 +2848,10 @@
                   <c:v>-17.86843796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.382120369999995</c:v>
+                  <c:v>6.382120369999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.307820209999994</c:v>
+                  <c:v>4.307820209999993</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.45368392</c:v>
@@ -3055,11 +3055,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1460299696"/>
-        <c:axId val="1460302016"/>
+        <c:axId val="798110608"/>
+        <c:axId val="798112656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1460299696"/>
+        <c:axId val="798110608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,7 +3069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1460302016"/>
+        <c:crossAx val="798112656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3077,7 +3077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1460302016"/>
+        <c:axId val="798112656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1460299696"/>
+        <c:crossAx val="798110608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3288,11 +3288,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1540598528"/>
-        <c:axId val="1540600848"/>
+        <c:axId val="798142144"/>
+        <c:axId val="798150736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1540598528"/>
+        <c:axId val="798142144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3335,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540600848"/>
+        <c:crossAx val="798150736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1540600848"/>
+        <c:axId val="798150736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3394,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1540598528"/>
+        <c:crossAx val="798142144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,11 +3594,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1537987424"/>
-        <c:axId val="1537989472"/>
+        <c:axId val="798203040"/>
+        <c:axId val="798205088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1537987424"/>
+        <c:axId val="798203040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3640,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1537989472"/>
+        <c:crossAx val="798205088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +3648,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1537989472"/>
+        <c:axId val="798205088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,7 +3698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1537987424"/>
+        <c:crossAx val="798203040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3919,11 +3919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1538007376"/>
-        <c:axId val="1538009856"/>
+        <c:axId val="798735184"/>
+        <c:axId val="798737504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1538007376"/>
+        <c:axId val="798735184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3965,7 +3965,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1538009856"/>
+        <c:crossAx val="798737504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3973,7 +3973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1538009856"/>
+        <c:axId val="798737504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3993,6 +3993,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4023,7 +4024,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1538007376"/>
+        <c:crossAx val="798735184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/方大碳素估值.xlsx
+++ b/方大碳素估值.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/penpen926/workspace/finance/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="16440" tabRatio="754" firstSheet="1" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="利润表raw" sheetId="1" r:id="rId1"/>
@@ -29,11 +24,8 @@
     <sheet name="NCC" sheetId="7" r:id="rId15"/>
     <sheet name="FCFF" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="252">
   <si>
     <t>报表日期</t>
   </si>
@@ -1257,22 +1249,18 @@
     </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>fffffff</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="166" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="167" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1406,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1851,7 +1840,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFill="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFill="1"/>
@@ -1861,82 +1850,82 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="61">
-    <cellStyle name="20%-个性色1" xfId="18" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="22" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="26" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="30" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="34" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="38" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="19" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="23" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="27" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="31" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="35" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="39" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="20" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="24" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="28" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="32" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="36" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="41"/>
     <cellStyle name="Note 2" xfId="42"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="个性色1" xfId="17" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="25" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="29" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="33" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="37" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1951,7 +1940,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1983,127 +1972,127 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>431.26423733</c:v>
+                  <c:v>431.26423732999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1101.89618506</c:v>
+                  <c:v>1101.8961850600001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>639.6908736</c:v>
+                  <c:v>639.6908735999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1169.84681812</c:v>
+                  <c:v>1169.8468181200001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>437.04861007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>578.0277131500001</c:v>
+                  <c:v>578.02771315000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>518.6978192400001</c:v>
+                  <c:v>518.69781924000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>588.1151921799999</c:v>
+                  <c:v>588.11519217999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>581.3675876099992</c:v>
+                  <c:v>581.36758760999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>780.1015113999994</c:v>
+                  <c:v>780.10151140000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>889.6945717099995</c:v>
+                  <c:v>889.69457170999954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>965.3219846100004</c:v>
+                  <c:v>965.32198461000053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>902.9111498599993</c:v>
+                  <c:v>902.91114986000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1183.23571039</c:v>
+                  <c:v>1183.2357103899999</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1278.1558289</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1161.74291991</c:v>
+                  <c:v>1161.7429199100002</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>843.43404217</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1168.88171162</c:v>
+                  <c:v>1168.8817116199998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>946.29359808</c:v>
+                  <c:v>946.29359808000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>992.09683827</c:v>
+                  <c:v>992.09683826999981</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>949.05876201</c:v>
+                  <c:v>949.05876201000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>945.466359099999</c:v>
+                  <c:v>945.46635909999986</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>753.4474996799999</c:v>
+                  <c:v>753.44749967999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>725.4765811300003</c:v>
+                  <c:v>725.47658113000034</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>904.18796335</c:v>
+                  <c:v>904.18796335000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>883.3173373000002</c:v>
+                  <c:v>883.31733730000019</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>854.5695267699994</c:v>
+                  <c:v>854.56952676999981</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>806.9340411100002</c:v>
+                  <c:v>806.93404111000018</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>633.9578744500001</c:v>
+                  <c:v>633.95787445000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>557.43508356</c:v>
+                  <c:v>557.43508355999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>605.49781106</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>533.5155219199999</c:v>
+                  <c:v>533.51552191999986</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>473.3281420499994</c:v>
+                  <c:v>473.32814205</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>598.23864497</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>637.1482960999994</c:v>
+                  <c:v>637.14829609999992</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>686.5764984500004</c:v>
+                  <c:v>686.57649845000037</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>692.74337554</c:v>
+                  <c:v>692.74337553999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1120.68901065</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3415.84437267</c:v>
+                  <c:v>3415.8443726699998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3121.1993459</c:v>
+                  <c:v>3121.1993459000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3521.91979806</c:v>
+                  <c:v>3521.9197980599997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2283,11 +2272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="797993824"/>
-        <c:axId val="798802800"/>
+        <c:axId val="44708992"/>
+        <c:axId val="44710528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="797993824"/>
+        <c:axId val="44708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,7 +2286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="798802800"/>
+        <c:crossAx val="44710528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2305,7 +2294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="798802800"/>
+        <c:axId val="44710528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,7 +2305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="797993824"/>
+        <c:crossAx val="44708992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2336,7 +2325,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2369,127 +2358,127 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>0.144698797693836</c:v>
+                  <c:v>0.14469879769383567</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.243527356451042</c:v>
+                  <c:v>0.2435273564510422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.286301492917656</c:v>
+                  <c:v>0.28630149291765566</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.226364721254963</c:v>
+                  <c:v>0.22636472125496282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0858946345899312</c:v>
+                  <c:v>8.589463458993124E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0885583194816743</c:v>
+                  <c:v>8.8558319481674252E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0536002188941218</c:v>
+                  <c:v>5.3600218894121823E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00407757168046086</c:v>
+                  <c:v>4.077571680460859E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0768033063101435</c:v>
+                  <c:v>7.6803306310143468E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.121170147710263</c:v>
+                  <c:v>0.12117014771026273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.154335543367612</c:v>
+                  <c:v>0.15433554336761238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.160102496688165</c:v>
+                  <c:v>0.16010249668816451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.239229079188458</c:v>
+                  <c:v>0.23922907918845843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.243197886695858</c:v>
+                  <c:v>0.24319788669585829</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.228949168564439</c:v>
+                  <c:v>0.22894916856443936</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.213807197111073</c:v>
+                  <c:v>0.21380719711107346</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.103892259855381</c:v>
+                  <c:v>0.10389225985538099</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.161884865765453</c:v>
+                  <c:v>0.16188486576545277</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.150210128112759</c:v>
+                  <c:v>0.15021012811275913</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.139054610894902</c:v>
+                  <c:v>0.1390546108949024</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.135396902229586</c:v>
+                  <c:v>0.13539690222958609</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.144106794192331</c:v>
+                  <c:v>0.14410679419233119</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.119552989553024</c:v>
+                  <c:v>0.11955298955302383</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.100500721803381</c:v>
+                  <c:v>0.10050072180338111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.170548953492658</c:v>
+                  <c:v>0.17054895349265764</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.149569336601564</c:v>
+                  <c:v>0.14956933660156416</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.134128263912968</c:v>
+                  <c:v>0.13412826391296834</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.0902151690704745</c:v>
+                  <c:v>9.0215169070474513E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.101896973242967</c:v>
+                  <c:v>0.10189697324296716</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.100718434772713</c:v>
+                  <c:v>0.10071843477271319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0410114375890198</c:v>
+                  <c:v>4.1011437589019747E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.011067812114875</c:v>
+                  <c:v>1.1067812114874986E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.00669017905059507</c:v>
+                  <c:v>-6.690179050595076E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.00140959430461688</c:v>
+                  <c:v>1.4095943046168787E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0342129490442933</c:v>
+                  <c:v>3.4212949044293332E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0228756455838605</c:v>
+                  <c:v>2.2875645583860495E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.131280321921676</c:v>
+                  <c:v>0.13128032192167643</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.289172387685072</c:v>
+                  <c:v>0.28917238768507203</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.50438219405794</c:v>
+                  <c:v>0.50438219405793994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.578106362478927</c:v>
+                  <c:v>0.57810636247892666</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.690769532758836</c:v>
+                  <c:v>0.69076953275883601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2669,12 +2658,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="798064384"/>
-        <c:axId val="798066704"/>
+        <c:axId val="44747392"/>
+        <c:axId val="44749184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="798064384"/>
+        <c:axId val="44747392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="798066704"/>
+        <c:crossAx val="44749184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="798066704"/>
+        <c:axId val="44749184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,7 +2693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="798064384"/>
+        <c:crossAx val="44747392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2723,7 +2713,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2758,124 +2748,124 @@
                   <c:v>54.6794498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244.4528373700001</c:v>
+                  <c:v>244.45283737000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.86103216</c:v>
+                  <c:v>203.86103215999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>117.87453495</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.89832168</c:v>
+                  <c:v>33.898321680000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.53942561</c:v>
+                  <c:v>93.539425609999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.502735220000005</c:v>
+                  <c:v>1.5027352200000053</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-148.41847136</c:v>
+                  <c:v>-148.41847136000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.59049659</c:v>
+                  <c:v>41.590496590000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103.26055997</c:v>
+                  <c:v>103.26055996999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144.52169996</c:v>
+                  <c:v>144.52169996000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>132.39585828</c:v>
+                  <c:v>132.39585828000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>176.49496307</c:v>
+                  <c:v>176.49496306999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>225.25540927</c:v>
+                  <c:v>225.25540926999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143.1170427800001</c:v>
+                  <c:v>143.11704278000008</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>91.37830380999976</c:v>
+                  <c:v>91.37830380999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70.1229049199999</c:v>
+                  <c:v>70.122904919999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193.90463809</c:v>
+                  <c:v>193.90463808999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>123.0113318299999</c:v>
+                  <c:v>123.01133182999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>85.0941960800001</c:v>
+                  <c:v>85.094196080000074</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>110.36932069</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>106.91735508</c:v>
+                  <c:v>106.91735508000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.50288532</c:v>
+                  <c:v>35.50288531999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-18.90155292000003</c:v>
+                  <c:v>-18.901552920000029</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>127.58341149</c:v>
+                  <c:v>127.58341148999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>131.86484223</c:v>
+                  <c:v>131.86484223000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.3848398399999</c:v>
+                  <c:v>75.384839839999984</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-71.31218788000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-13.94063555</c:v>
+                  <c:v>-13.940635550000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>38.42761528000001</c:v>
+                  <c:v>38.427615280000005</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-17.86843796</c:v>
+                  <c:v>-17.868437960000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.382120369999994</c:v>
+                  <c:v>6.3821203700000018</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.307820209999993</c:v>
+                  <c:v>4.30782021</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1.45368392</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>58.45962822</c:v>
+                  <c:v>58.459628219999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-31.2949681</c:v>
+                  <c:v>-31.294968099999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>72.48789091</c:v>
+                  <c:v>72.48789090999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>375.8153249</c:v>
+                  <c:v>375.81532490000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1768.17529477</c:v>
+                  <c:v>1768.1752947700002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1755.71862063</c:v>
+                  <c:v>1755.7186206299998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2029.26553149</c:v>
+                  <c:v>2029.2655314900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3055,11 +3045,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="798110608"/>
-        <c:axId val="798112656"/>
+        <c:axId val="45232512"/>
+        <c:axId val="45234048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="798110608"/>
+        <c:axId val="45232512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3069,7 +3059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="798112656"/>
+        <c:crossAx val="45234048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3077,7 +3067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="798112656"/>
+        <c:axId val="45234048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="798110608"/>
+        <c:crossAx val="45232512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3108,7 +3098,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3153,26 +3143,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3212,31 +3182,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0091231E7</c:v>
+                  <c:v>20091231</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0101231E7</c:v>
+                  <c:v>20101231</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0111231E7</c:v>
+                  <c:v>20111231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0121231E7</c:v>
+                  <c:v>20121231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0131231E7</c:v>
+                  <c:v>20131231</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0141231E7</c:v>
+                  <c:v>20141231</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0151231E7</c:v>
+                  <c:v>20151231</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0161231E7</c:v>
+                  <c:v>20161231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0171231E7</c:v>
+                  <c:v>20171231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3248,7 +3218,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>238.128395</c:v>
+                  <c:v>238.12839500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>245.223702</c:v>
@@ -3260,16 +3230,16 @@
                   <c:v>619.88198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>288.366575</c:v>
+                  <c:v>288.36657500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-96.939312</c:v>
+                  <c:v>-96.939312000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-94.746551</c:v>
+                  <c:v>-94.746550999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-185.596323</c:v>
+                  <c:v>-185.59632300000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>137.166203</c:v>
@@ -3288,11 +3258,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="798142144"/>
-        <c:axId val="798150736"/>
+        <c:axId val="48417024"/>
+        <c:axId val="48250880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="798142144"/>
+        <c:axId val="48417024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3332,10 +3302,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798150736"/>
+        <c:crossAx val="48250880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="798150736"/>
+        <c:axId val="48250880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,10 +3361,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798142144"/>
+        <c:crossAx val="48417024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3432,7 +3402,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3446,7 +3416,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3492,26 +3462,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3550,34 +3500,34 @@
             <c:numRef>
               <c:f>运营资本追加!$C$7:$K$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00_ </c:formatCode>
+                <c:formatCode>#,000_ </c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-108.153402</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85.126264</c:v>
+                  <c:v>85.126264000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1055.49837924</c:v>
+                  <c:v>1055.4983792400003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-870.4773645400003</c:v>
+                  <c:v>-870.47736454000039</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1669.28885151</c:v>
+                  <c:v>1669.2888515100003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-17.23676510999966</c:v>
+                  <c:v>-17.236765109999656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-601.9396851000004</c:v>
+                  <c:v>-601.93968510000036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>713.909621</c:v>
+                  <c:v>713.90962100000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3760.362310700001</c:v>
+                  <c:v>3760.3623107000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3594,11 +3544,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="798203040"/>
-        <c:axId val="798205088"/>
+        <c:axId val="47735552"/>
+        <c:axId val="47737472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="798203040"/>
+        <c:axId val="47735552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3637,10 +3587,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798205088"/>
+        <c:crossAx val="47737472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3648,7 +3598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="798205088"/>
+        <c:axId val="47737472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3668,6 +3618,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="#,000_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3695,10 +3646,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798203040"/>
+        <c:crossAx val="47735552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3736,7 +3687,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3750,7 +3701,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3787,7 +3738,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3863,7 +3814,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3878,28 +3829,28 @@
                   <c:v>17.33926816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.86964496</c:v>
+                  <c:v>17.869644960000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.31055064</c:v>
+                  <c:v>19.310550639999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28.26132763</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.13173623</c:v>
+                  <c:v>32.131736230000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48.09239686</c:v>
+                  <c:v>48.092396860000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.49632664</c:v>
+                  <c:v>49.496326639999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.33802424</c:v>
+                  <c:v>46.338024240000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.01392028</c:v>
+                  <c:v>47.013920280000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>52.71841328</c:v>
@@ -3919,11 +3870,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="798735184"/>
-        <c:axId val="798737504"/>
+        <c:axId val="47833088"/>
+        <c:axId val="47834624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="798735184"/>
+        <c:axId val="47833088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3962,10 +3913,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798737504"/>
+        <c:crossAx val="47834624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3973,7 +3924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="798737504"/>
+        <c:axId val="47834624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4021,10 +3972,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="798735184"/>
+        <c:crossAx val="47833088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4062,7 +4013,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6196,34 +6147,34 @@
       <selection pane="topRight" activeCell="A6" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="9" width="16.1640625" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" customWidth="1"/>
-    <col min="11" max="13" width="16.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
-    <col min="15" max="17" width="16.1640625" customWidth="1"/>
-    <col min="18" max="18" width="14.83203125" customWidth="1"/>
-    <col min="19" max="21" width="16.1640625" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" customWidth="1"/>
-    <col min="23" max="25" width="16.1640625" customWidth="1"/>
-    <col min="26" max="26" width="14.83203125" customWidth="1"/>
-    <col min="27" max="29" width="16.1640625" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" customWidth="1"/>
-    <col min="31" max="33" width="16.1640625" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" customWidth="1"/>
-    <col min="35" max="37" width="16.1640625" customWidth="1"/>
-    <col min="38" max="38" width="14.83203125" customWidth="1"/>
-    <col min="39" max="41" width="16.1640625" customWidth="1"/>
-    <col min="42" max="42" width="13.1640625" customWidth="1"/>
-    <col min="43" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="14.875" customWidth="1"/>
+    <col min="15" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="18" width="14.875" customWidth="1"/>
+    <col min="19" max="21" width="16.125" customWidth="1"/>
+    <col min="22" max="22" width="14.875" customWidth="1"/>
+    <col min="23" max="25" width="16.125" customWidth="1"/>
+    <col min="26" max="26" width="14.875" customWidth="1"/>
+    <col min="27" max="29" width="16.125" customWidth="1"/>
+    <col min="30" max="30" width="14.875" customWidth="1"/>
+    <col min="31" max="33" width="16.125" customWidth="1"/>
+    <col min="34" max="34" width="14.875" customWidth="1"/>
+    <col min="35" max="37" width="16.125" customWidth="1"/>
+    <col min="38" max="38" width="14.875" customWidth="1"/>
+    <col min="39" max="41" width="16.125" customWidth="1"/>
+    <col min="42" max="42" width="13.125" customWidth="1"/>
+    <col min="43" max="43" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -6351,7 +6302,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43">
       <c r="A2" s="4"/>
       <c r="B2" s="4">
         <v>0</v>
@@ -6477,7 +6428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -6605,7 +6556,7 @@
         <v>3521919798.0599999</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -6774,7 +6725,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -6902,7 +6853,7 @@
         <v>1088929384.6400001</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -7030,7 +6981,7 @@
         <v>593783894.86000001</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -7158,7 +7109,7 @@
         <v>64387327.390000001</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -7286,7 +7237,7 @@
         <v>42301679.880000003</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -7414,7 +7365,7 @@
         <v>415140283.13999999</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -7542,7 +7493,7 @@
         <v>12690359.24</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -7670,7 +7621,7 @@
         <v>-39374159.869999997</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -7798,7 +7749,7 @@
         <v>-19231802.129999999</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -7926,7 +7877,7 @@
         <v>19076282.030000001</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -8054,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -8183,7 +8134,7 @@
       </c>
       <c r="AQ15" s="1"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -8352,7 +8303,7 @@
         <v>1088.9293846400001</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -8480,7 +8431,7 @@
         <v>2432834893.3200002</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
@@ -8649,7 +8600,7 @@
         <v>2432.83489332</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -8777,7 +8728,7 @@
         <v>7521133.6600000001</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -8905,7 +8856,7 @@
         <v>8050088.71</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -9033,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -9161,7 +9112,7 @@
         <v>2432305938.27</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42">
       <c r="A23" s="4" t="s">
         <v>34</v>
       </c>
@@ -9330,7 +9281,7 @@
         <v>2432.3059382699998</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42">
       <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
@@ -9458,7 +9409,7 @@
         <v>403040406.77999997</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -9586,7 +9537,7 @@
         <v>2029265531.49</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
@@ -9755,7 +9706,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42">
       <c r="A27" s="4" t="s">
         <v>29</v>
       </c>
@@ -9924,7 +9875,7 @@
         <v>0.16570300653324319</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42">
       <c r="A28" s="4" t="s">
         <v>30</v>
       </c>
@@ -9973,7 +9924,7 @@
       <c r="AO28" s="5"/>
       <c r="AP28" s="14"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
@@ -10101,7 +10052,7 @@
         <v>1894467635.8499999</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42">
       <c r="A30" s="4" t="s">
         <v>123</v>
       </c>
@@ -10270,7 +10221,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -10398,7 +10349,7 @@
         <v>134797895.63999999</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -10444,7 +10395,7 @@
       <c r="AO32" s="5"/>
       <c r="AP32" s="14"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -10572,7 +10523,7 @@
         <v>1.0590999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -10700,7 +10651,7 @@
         <v>1.0590999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" s="4" t="s">
         <v>24</v>
       </c>
@@ -10828,7 +10779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42">
       <c r="A36" s="4" t="s">
         <v>25</v>
       </c>
@@ -10956,7 +10907,7 @@
         <v>2029265531.49</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" s="4" t="s">
         <v>26</v>
       </c>
@@ -11084,7 +11035,7 @@
         <v>1894467635.8499999</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" s="4" t="s">
         <v>27</v>
       </c>
@@ -11212,7 +11163,7 @@
         <v>134797895.63999999</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42">
       <c r="A45" s="3"/>
       <c r="C45" s="2"/>
     </row>
@@ -11234,13 +11185,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11278,12 +11229,12 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -11321,7 +11272,7 @@
         <v>3123608529.8299999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -11359,7 +11310,7 @@
         <v>933062.33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -11397,7 +11348,7 @@
         <v>18113703.219999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -11435,7 +11386,7 @@
         <v>3142655295.3800001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -11473,7 +11424,7 @@
         <v>840924632.85000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -11511,7 +11462,7 @@
         <v>632128451.74000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -11549,7 +11500,7 @@
         <v>884444496.09000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>134</v>
       </c>
@@ -11587,7 +11538,7 @@
         <v>97844715.969999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>135</v>
       </c>
@@ -11625,7 +11576,7 @@
         <v>2455342296.6500001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -11663,12 +11614,12 @@
         <v>687312998.73000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -11706,7 +11657,7 @@
         <v>144740453.33000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>139</v>
       </c>
@@ -11744,7 +11695,7 @@
         <v>21211162.949999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>140</v>
       </c>
@@ -11782,7 +11733,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>141</v>
       </c>
@@ -11820,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -11858,7 +11809,7 @@
         <v>480000000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -11896,7 +11847,7 @@
         <v>645965216.27999997</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -11934,7 +11885,7 @@
         <v>34034760.479999997</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>145</v>
       </c>
@@ -11972,7 +11923,7 @@
         <v>75205296.239999995</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -12010,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -12048,7 +11999,7 @@
         <v>190000000</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -12086,7 +12037,7 @@
         <v>299240056.72000003</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -12124,12 +12075,12 @@
         <v>346725159.56</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -12167,7 +12118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -12205,7 +12156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>153</v>
       </c>
@@ -12243,7 +12194,7 @@
         <v>200000000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -12281,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -12319,7 +12270,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -12357,7 +12308,7 @@
         <v>236000000</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -12395,7 +12346,7 @@
         <v>236000000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -12433,7 +12384,7 @@
         <v>7742400.1100000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -12471,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -12509,7 +12460,7 @@
         <v>57768007.829999998</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>161</v>
       </c>
@@ -12547,7 +12498,7 @@
         <v>301510407.94</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>162</v>
       </c>
@@ -12585,7 +12536,7 @@
         <v>-65510407.939999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -12623,7 +12574,7 @@
         <v>29043417.239999998</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>164</v>
       </c>
@@ -12661,7 +12612,7 @@
         <v>997571167.59000003</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>165</v>
       </c>
@@ -12699,7 +12650,7 @@
         <v>1572465931.21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -12737,12 +12688,12 @@
         <v>2570037098.8000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -12780,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -12818,7 +12769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -12856,7 +12807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -12894,7 +12845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>171</v>
       </c>
@@ -12932,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -12970,7 +12921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>173</v>
       </c>
@@ -13008,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -13046,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -13084,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -13122,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>177</v>
       </c>
@@ -13160,7 +13111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -13198,7 +13149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -13236,7 +13187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>180</v>
       </c>
@@ -13274,7 +13225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -13312,7 +13263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -13350,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -13388,7 +13339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -13426,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -13464,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>185</v>
       </c>
@@ -13502,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -13540,7 +13491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>187</v>
       </c>
@@ -13578,7 +13529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>188</v>
       </c>
@@ -13616,7 +13567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>189</v>
       </c>
@@ -13654,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>190</v>
       </c>
@@ -13692,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -13730,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>192</v>
       </c>
@@ -13768,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
         <v>193</v>
       </c>
@@ -13806,7 +13757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>194</v>
       </c>
@@ -13844,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
         <v>195</v>
       </c>
@@ -13882,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
         <v>196</v>
       </c>
@@ -13920,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
         <v>197</v>
       </c>
@@ -13958,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
         <v>198</v>
       </c>
@@ -14013,12 +13964,12 @@
       <selection activeCell="A50" sqref="A50:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14044,17 +13995,17 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -14080,7 +14031,7 @@
         <v>3123.60852983</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -14106,7 +14057,7 @@
         <v>0.93306232999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -14132,7 +14083,7 @@
         <v>18.113703219999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14158,7 +14109,7 @@
         <v>3142.6552953800001</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -14184,7 +14135,7 @@
         <v>840.92463285000008</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -14210,7 +14161,7 @@
         <v>632.12845174000006</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -14236,7 +14187,7 @@
         <v>884.44449609000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -14262,7 +14213,7 @@
         <v>97.844715969999996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -14288,7 +14239,7 @@
         <v>2455.3422966500002</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -14314,12 +14265,12 @@
         <v>687.31299873</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -14345,7 +14296,7 @@
         <v>144.74045333000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -14371,7 +14322,7 @@
         <v>21.211162949999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -14397,7 +14348,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -14423,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -14449,7 +14400,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -14475,7 +14426,7 @@
         <v>645.96521627999994</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -14501,7 +14452,7 @@
         <v>34.034760479999996</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -14527,7 +14478,7 @@
         <v>75.205296239999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -14553,7 +14504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -14579,7 +14530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -14605,7 +14556,7 @@
         <v>299.24005672000004</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -14631,7 +14582,7 @@
         <v>346.72515956000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -14657,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -14683,7 +14634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -14709,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -14735,7 +14686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -14761,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -14787,7 +14738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -14813,7 +14764,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -14839,7 +14790,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -14865,7 +14816,7 @@
         <v>7.7424001100000002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -14891,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -14917,7 +14868,7 @@
         <v>57.768007829999995</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -14943,7 +14894,7 @@
         <v>301.51040793999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -14969,7 +14920,7 @@
         <v>-65.510407939999993</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -14995,7 +14946,7 @@
         <v>29.04341724</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -15021,7 +14972,7 @@
         <v>997.57116759000007</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -15047,7 +14998,7 @@
         <v>1572.46593121</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>166</v>
       </c>
@@ -15073,7 +15024,7 @@
         <v>2570.0370988</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>167</v>
       </c>
@@ -15099,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -15125,7 +15076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -15151,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -15177,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -15203,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -15229,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -15255,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -15281,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -15307,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -15333,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -15359,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -15385,7 +15336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -15411,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -15437,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -15463,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -15489,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -15515,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -15541,7 +15492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -15567,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -15593,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -15619,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -15645,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -15671,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -15697,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -15723,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -15749,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -15775,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -15801,7 +15752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -15827,7 +15778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -15853,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -15879,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -15905,7 +15856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -15931,7 +15882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>198</v>
       </c>
@@ -15974,13 +15925,13 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16024,7 +15975,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="15" t="s">
         <v>75</v>
       </c>
@@ -16059,7 +16010,7 @@
         <v>2964878023</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -16100,7 +16051,7 @@
         <v>137166203</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -16150,7 +16101,7 @@
         <v>139.18458955555559</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="K5">
         <f>AVERAGE(C4:K4)</f>
         <v>139.18458955555559</v>
@@ -16172,13 +16123,13 @@
       <selection pane="topRight" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -16222,7 +16173,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="20" t="s">
         <v>213</v>
       </c>
@@ -16257,7 +16208,7 @@
         <v>9055120005.7000008</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="20" t="s">
         <v>216</v>
       </c>
@@ -16302,7 +16253,7 @@
         <v>9055.1200057000005</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="20" t="s">
         <v>94</v>
       </c>
@@ -16337,7 +16288,7 @@
         <v>3401988193</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="20" t="s">
         <v>217</v>
       </c>
@@ -16382,7 +16333,7 @@
         <v>3401.9881930000001</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15">
       <c r="A6" s="22" t="s">
         <v>214</v>
       </c>
@@ -16423,7 +16374,7 @@
         <v>3760362310.7000008</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="25" t="s">
         <v>215</v>
       </c>
@@ -16489,18 +16440,18 @@
       <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="15" customWidth="1"/>
     <col min="15" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="19.33203125" customWidth="1"/>
-    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+    <col min="20" max="21" width="19.375" customWidth="1"/>
+    <col min="22" max="22" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="42.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16568,7 +16519,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -16626,7 +16577,7 @@
         <v>11270.400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -16661,7 +16612,7 @@
         <v>3513.1368803800001</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -16696,7 +16647,7 @@
         <v>4827.4633658900002</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -16731,7 +16682,7 @@
         <v>4830.4277729300002</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="23" customFormat="1" ht="13.5">
       <c r="A6" s="23" t="s">
         <v>211</v>
       </c>
@@ -16786,7 +16737,7 @@
         <v>5973.3120000000008</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -16821,12 +16772,12 @@
         <v>0.17767176781517674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -16861,7 +16812,7 @@
         <v>3620.4185970799999</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22">
       <c r="A11" s="24" t="s">
         <v>212</v>
       </c>
@@ -16915,7 +16866,7 @@
         <v>55.963000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="23" customFormat="1" ht="13.5">
       <c r="A12" s="24" t="s">
         <v>200</v>
       </c>
@@ -16967,7 +16918,7 @@
         <v>139.18458955555559</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22">
       <c r="A13" s="23" t="s">
         <v>215</v>
       </c>
@@ -17017,7 +16968,7 @@
         <v>3760.3623107000008</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="23" t="s">
         <v>201</v>
       </c>
@@ -17083,7 +17034,7 @@
         <v>2129.7280997444445</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -17103,7 +17054,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>203</v>
       </c>
@@ -17123,7 +17074,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -17134,7 +17085,7 @@
         <v>47327.291105432101</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>204</v>
       </c>
@@ -17157,7 +17108,7 @@
         <v>1719.16</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -17178,7 +17129,7 @@
         <v>27.529311469224563</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21">
       <c r="M20">
         <v>1719.16</v>
       </c>
@@ -17189,7 +17140,7 @@
         <v>1719.16</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="M21">
         <f>M19/M20</f>
         <v>29.031854215786243</v>
@@ -17217,12 +17168,12 @@
       <selection activeCell="A5" sqref="A5:N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -17266,7 +17217,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="20" t="s">
         <v>172</v>
       </c>
@@ -17304,7 +17255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="20" t="s">
         <v>173</v>
       </c>
@@ -17342,7 +17293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="21" t="s">
         <v>209</v>
       </c>
@@ -17387,7 +17338,7 @@
         <v>52718413.280000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15">
       <c r="A5" s="22" t="s">
         <v>210</v>
       </c>
@@ -17456,21 +17407,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N75" sqref="N75"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -17484,7 +17435,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="15">
       <c r="A2" s="14" t="s">
         <v>230</v>
       </c>
@@ -17537,7 +17488,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" s="14"/>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -17546,7 +17497,7 @@
       <c r="F3" s="28"/>
       <c r="G3" s="28"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15">
       <c r="A4" s="14" t="s">
         <v>28</v>
       </c>
@@ -17590,7 +17541,7 @@
         <v>14372</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -17625,7 +17576,7 @@
         <v>1955.1838092</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -17660,7 +17611,7 @@
         <v>166.02655465999999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
@@ -17695,7 +17646,7 @@
         <v>193.27036274</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15">
       <c r="A8" s="14" t="s">
         <v>5</v>
       </c>
@@ -17730,7 +17681,7 @@
         <v>1119.69901334</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
@@ -17765,7 +17716,7 @@
         <v>41.405342909999995</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" s="14" t="s">
         <v>7</v>
       </c>
@@ -17800,7 +17751,7 @@
         <v>37.551797530000002</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
@@ -17835,7 +17786,7 @@
         <v>-43.032607509999998</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15">
       <c r="A12" s="14" t="s">
         <v>9</v>
       </c>
@@ -17870,7 +17821,7 @@
         <v>8.8080578900000006</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15">
       <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
@@ -17914,7 +17865,7 @@
         <v>8755</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
@@ -17940,7 +17891,7 @@
         <v>24.938546850000002</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" s="14" t="s">
         <v>14</v>
       </c>
@@ -17966,7 +17917,7 @@
         <v>21.974139809999997</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -17992,7 +17943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="15">
       <c r="A17" s="14" t="s">
         <v>16</v>
       </c>
@@ -18036,7 +17987,7 @@
         <v>8776</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15">
       <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
@@ -18086,7 +18037,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15">
       <c r="A19" s="14" t="s">
         <v>18</v>
       </c>
@@ -18136,7 +18087,7 @@
         <v>6582</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15">
       <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
@@ -18162,7 +18113,7 @@
         <v>3620.4185970799999</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15">
       <c r="A21" s="14"/>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -18171,7 +18122,7 @@
       <c r="F21" s="28"/>
       <c r="G21" s="28"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -18197,7 +18148,7 @@
         <v>43.045394469999998</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -18223,7 +18174,7 @@
         <v>9.6730188100000003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15">
       <c r="A24" s="14"/>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -18232,7 +18183,7 @@
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" s="34" t="s">
         <v>241</v>
       </c>
@@ -18243,12 +18194,12 @@
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -18283,7 +18234,7 @@
         <v>1616.538055</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="15">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -18321,7 +18272,7 @@
       <c r="M28" s="30"/>
       <c r="N28" s="30"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="15">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -18365,7 +18316,7 @@
         <v>4955</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="15">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -18400,7 +18351,7 @@
         <v>791.89941539999995</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -18435,7 +18386,7 @@
         <v>171.46439619999998</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -18479,7 +18430,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="15">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -18523,7 +18474,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="15">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -18558,7 +18509,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="15">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -18587,7 +18538,7 @@
         <v>10987.965194</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="15">
       <c r="A36" t="s">
         <v>238</v>
       </c>
@@ -18643,7 +18594,7 @@
         <v>12762</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="15">
       <c r="A37" s="31" t="s">
         <v>77</v>
       </c>
@@ -18658,7 +18609,7 @@
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="15">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -18702,7 +18653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="15">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -18746,7 +18697,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -18781,7 +18732,7 @@
         <v>344.71120960000002</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -18816,7 +18767,7 @@
         <v>394.28407900000002</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" ht="15">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -18851,7 +18802,7 @@
         <v>488.5068455</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" ht="15">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -18886,7 +18837,7 @@
         <v>736.80675610000003</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" ht="15">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -18921,7 +18872,7 @@
         <v>7.5978147300000005</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" ht="15">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -18956,7 +18907,7 @@
         <v>1.96719815</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" ht="15">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -18991,7 +18942,7 @@
         <v>497.88373080000002</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="15">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -19026,7 +18977,7 @@
         <v>37.713393009999997</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" ht="15">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -19055,7 +19006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" ht="15">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -19108,7 +19059,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" ht="15">
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="28"/>
@@ -19116,7 +19067,7 @@
       <c r="F50" s="28"/>
       <c r="G50" s="28"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" ht="15">
       <c r="A51" s="31" t="s">
         <v>55</v>
       </c>
@@ -19127,7 +19078,7 @@
       <c r="F51" s="30"/>
       <c r="G51" s="30"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="15">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -19153,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" ht="15">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -19179,7 +19130,7 @@
         <v>28.889282100000003</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" ht="15">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -19214,7 +19165,7 @@
         <v>1619.4652000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" ht="15">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -19249,7 +19200,7 @@
         <v>363.97388710000001</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="15">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -19284,7 +19235,7 @@
         <v>1.3188753100000001</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="15">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -19319,7 +19270,7 @@
         <v>479.92005439999997</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="15">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -19354,7 +19305,7 @@
         <v>107.4729282</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" ht="15">
       <c r="A59" s="17" t="s">
         <v>246</v>
       </c>
@@ -19401,7 +19352,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -19414,7 +19365,7 @@
       <c r="J60" s="16"/>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" ht="15">
       <c r="A61" s="34" t="s">
         <v>242</v>
       </c>
@@ -19425,7 +19376,7 @@
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" ht="15">
       <c r="A62" s="14" t="s">
         <v>231</v>
       </c>
@@ -19469,7 +19420,7 @@
         <v>0.76585960073755655</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="15">
       <c r="A63" s="14" t="s">
         <v>29</v>
       </c>
@@ -19513,7 +19464,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" ht="15">
       <c r="A64" s="14" t="s">
         <v>233</v>
       </c>
@@ -19557,7 +19508,7 @@
         <v>0.47568510841504458</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" ht="15">
       <c r="A65" s="14"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -19570,7 +19521,7 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" ht="15">
       <c r="A66" s="17" t="s">
         <v>243</v>
       </c>
@@ -19614,7 +19565,7 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" ht="15">
       <c r="A67" s="17" t="s">
         <v>244</v>
       </c>
@@ -19664,7 +19615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="15">
       <c r="A69" s="17" t="s">
         <v>245</v>
       </c>
@@ -19718,7 +19669,7 @@
         <v>-120</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" ht="15">
       <c r="A70" s="17" t="s">
         <v>247</v>
       </c>
@@ -19773,7 +19724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" ht="15">
       <c r="A71" s="17" t="s">
         <v>248</v>
       </c>
@@ -19830,7 +19781,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" ht="15">
       <c r="A72" s="17" t="s">
         <v>218</v>
       </c>
@@ -19872,7 +19823,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="15">
       <c r="A73" s="17" t="s">
         <v>203</v>
       </c>
@@ -19895,26 +19846,26 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="H73" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="I73" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J73" s="2">
         <v>0.14499999999999999</v>
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="M73" s="2">
-        <v>0.14499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="N73" s="2">
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" ht="15">
       <c r="A74" s="17" t="s">
         <v>249</v>
       </c>
@@ -19944,22 +19895,22 @@
       </c>
       <c r="H74">
         <f t="shared" si="22"/>
-        <v>43890.000000000007</v>
+        <v>79799.999999999985</v>
       </c>
       <c r="I74">
         <f t="shared" si="22"/>
-        <v>38997.5</v>
+        <v>70904.545454545441</v>
       </c>
       <c r="L74">
         <f t="shared" ref="L74" si="23">M71/(L73-L72)</f>
-        <v>56680.000000000007</v>
+        <v>75573.333333333343</v>
       </c>
       <c r="M74">
         <f t="shared" ref="M74" si="24">N71/(M73-M72)</f>
-        <v>63460.000000000007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+        <v>84613.333333333343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15">
       <c r="A75" s="17" t="s">
         <v>250</v>
       </c>
@@ -19995,11 +19946,9 @@
       <c r="M75" s="20">
         <v>1721.16</v>
       </c>
-      <c r="N75" s="20" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="20"/>
+    </row>
+    <row r="76" spans="1:14" ht="15">
       <c r="A76" s="17" t="s">
         <v>251</v>
       </c>
@@ -20029,19 +19978,19 @@
       </c>
       <c r="H76">
         <f>H74/H75</f>
-        <v>25.529909956025037</v>
+        <v>46.418018101863687</v>
       </c>
       <c r="I76">
         <f t="shared" si="25"/>
-        <v>22.684043370017914</v>
+        <v>41.243715218214383</v>
       </c>
       <c r="L76">
         <f t="shared" ref="L76" si="26">L74/L75</f>
-        <v>32.950423216444982</v>
+        <v>43.933897621926647</v>
       </c>
       <c r="M76">
         <f t="shared" ref="M76" si="27">M74/M75</f>
-        <v>36.870482697715495</v>
+        <v>49.160643596953996</v>
       </c>
     </row>
   </sheetData>
@@ -20058,14 +20007,14 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -20091,7 +20040,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -20117,7 +20066,7 @@
         <v>593783894.86000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>240</v>
       </c>
@@ -20150,7 +20099,7 @@
         <v>593.78389486000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>240</v>
       </c>
@@ -20191,33 +20140,33 @@
       <selection pane="topRight" activeCell="E4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.375" bestFit="1" customWidth="1"/>
     <col min="2" max="42" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="45" width="16.1640625" customWidth="1"/>
-    <col min="46" max="46" width="14.83203125" customWidth="1"/>
-    <col min="47" max="49" width="16.1640625" customWidth="1"/>
-    <col min="50" max="50" width="14.83203125" customWidth="1"/>
-    <col min="51" max="53" width="16.1640625" customWidth="1"/>
-    <col min="54" max="54" width="14.83203125" customWidth="1"/>
-    <col min="55" max="57" width="16.1640625" customWidth="1"/>
-    <col min="58" max="58" width="14.83203125" customWidth="1"/>
-    <col min="59" max="61" width="16.1640625" customWidth="1"/>
-    <col min="62" max="62" width="14.83203125" customWidth="1"/>
-    <col min="63" max="65" width="16.1640625" customWidth="1"/>
-    <col min="66" max="66" width="14.83203125" customWidth="1"/>
-    <col min="67" max="69" width="16.1640625" customWidth="1"/>
-    <col min="70" max="70" width="14.83203125" customWidth="1"/>
-    <col min="71" max="73" width="16.1640625" customWidth="1"/>
-    <col min="74" max="74" width="14.83203125" customWidth="1"/>
-    <col min="75" max="77" width="16.1640625" customWidth="1"/>
-    <col min="78" max="78" width="14.83203125" customWidth="1"/>
-    <col min="79" max="81" width="16.1640625" customWidth="1"/>
-    <col min="82" max="82" width="13.1640625" customWidth="1"/>
+    <col min="43" max="45" width="16.125" customWidth="1"/>
+    <col min="46" max="46" width="14.875" customWidth="1"/>
+    <col min="47" max="49" width="16.125" customWidth="1"/>
+    <col min="50" max="50" width="14.875" customWidth="1"/>
+    <col min="51" max="53" width="16.125" customWidth="1"/>
+    <col min="54" max="54" width="14.875" customWidth="1"/>
+    <col min="55" max="57" width="16.125" customWidth="1"/>
+    <col min="58" max="58" width="14.875" customWidth="1"/>
+    <col min="59" max="61" width="16.125" customWidth="1"/>
+    <col min="62" max="62" width="14.875" customWidth="1"/>
+    <col min="63" max="65" width="16.125" customWidth="1"/>
+    <col min="66" max="66" width="14.875" customWidth="1"/>
+    <col min="67" max="69" width="16.125" customWidth="1"/>
+    <col min="70" max="70" width="14.875" customWidth="1"/>
+    <col min="71" max="73" width="16.125" customWidth="1"/>
+    <col min="74" max="74" width="14.875" customWidth="1"/>
+    <col min="75" max="77" width="16.125" customWidth="1"/>
+    <col min="78" max="78" width="14.875" customWidth="1"/>
+    <col min="79" max="81" width="16.125" customWidth="1"/>
+    <col min="82" max="82" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -20345,7 +20294,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" s="1" customFormat="1">
       <c r="B2" s="10">
         <v>0</v>
       </c>
@@ -20470,7 +20419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -20598,7 +20547,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="4" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -20766,7 +20715,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -20894,7 +20843,7 @@
         <v>1088.9293846400001</v>
       </c>
     </row>
-    <row r="6" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" s="1" customFormat="1">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -21022,7 +20971,7 @@
         <v>2432.83489332</v>
       </c>
     </row>
-    <row r="7" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>121</v>
       </c>
@@ -21191,7 +21140,7 @@
         <v>0.69076953275883601</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" s="1" customFormat="1">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -21319,7 +21268,7 @@
         <v>2432.3059382699998</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" s="1" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -21447,7 +21396,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="10" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" s="1" customFormat="1">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -21615,7 +21564,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="11" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" s="1" customFormat="1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -21743,7 +21692,7 @@
         <v>0.16570300653324319</v>
       </c>
     </row>
-    <row r="12" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" s="1" customFormat="1">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -21791,7 +21740,7 @@
       <c r="AO12" s="10"/>
       <c r="AP12" s="9"/>
     </row>
-    <row r="13" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" s="1" customFormat="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -21919,7 +21868,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="28" spans="43:43" x14ac:dyDescent="0.2">
+    <row r="28" spans="43:43">
       <c r="AQ28" s="2"/>
     </row>
   </sheetData>
@@ -21939,14 +21888,14 @@
       <selection pane="topRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="16.1640625" customWidth="1"/>
+    <col min="2" max="11" width="16.125" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -21990,7 +21939,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="14" t="s">
         <v>31</v>
       </c>
@@ -22034,7 +21983,7 @@
         <v>10202</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
@@ -22069,7 +22018,7 @@
         <v>3513.1368803800001</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
@@ -22104,7 +22053,7 @@
         <v>4827.4633658900002</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="14" t="s">
         <v>34</v>
       </c>
@@ -22139,7 +22088,7 @@
         <v>4830.4277729300002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
         <v>35</v>
       </c>
@@ -22183,7 +22132,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -22228,7 +22177,7 @@
         <v>0.17767176781517674</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
@@ -22243,7 +22192,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
         <v>123</v>
       </c>
@@ -22278,7 +22227,7 @@
         <v>3620.4185970799999</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="3"/>
     </row>
   </sheetData>
@@ -22295,13 +22244,13 @@
       <selection activeCell="A5" sqref="A5:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
         <v>230</v>
       </c>
@@ -22327,7 +22276,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="14"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -22337,7 +22286,7 @@
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
@@ -22363,7 +22312,7 @@
         <v>3521.9197980599997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="14" t="s">
         <v>1</v>
       </c>
@@ -22389,7 +22338,7 @@
         <v>1088.9293846400001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>240</v>
       </c>
@@ -22415,7 +22364,7 @@
         <v>593.78389486000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="14" t="s">
         <v>231</v>
       </c>
@@ -22448,7 +22397,7 @@
         <v>0.69081369052190755</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
@@ -22474,7 +22423,7 @@
         <v>64.387327389999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -22500,7 +22449,7 @@
         <v>42.301679880000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="14" t="s">
         <v>5</v>
       </c>
@@ -22526,7 +22475,7 @@
         <v>415.14028314000001</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
@@ -22552,7 +22501,7 @@
         <v>12.690359239999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="14" t="s">
         <v>7</v>
       </c>
@@ -22578,7 +22527,7 @@
         <v>-39.37415987</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
@@ -22604,7 +22553,7 @@
         <v>-19.231802129999998</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
@@ -22630,7 +22579,7 @@
         <v>19.076282030000002</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
@@ -22656,7 +22605,7 @@
         <v>2432.83489332</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="14" t="s">
         <v>13</v>
       </c>
@@ -22682,7 +22631,7 @@
         <v>7.5211336600000003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
@@ -22708,7 +22657,7 @@
         <v>8.0500887100000007</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -22734,7 +22683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="14" t="s">
         <v>16</v>
       </c>
@@ -22760,7 +22709,7 @@
         <v>2432.3059382699998</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
@@ -22786,7 +22735,7 @@
         <v>403.04040677999996</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="14" t="s">
         <v>18</v>
       </c>
@@ -22812,7 +22761,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
@@ -22838,7 +22787,7 @@
         <v>0.27896919242942375</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
@@ -22864,7 +22813,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -22890,7 +22839,7 @@
         <v>134.79789563999998</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
@@ -22916,7 +22865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
@@ -22942,7 +22891,7 @@
         <v>1.0590999999999999E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="14" t="s">
         <v>23</v>
       </c>
@@ -22968,7 +22917,7 @@
         <v>1.0590999999999999E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="14" t="s">
         <v>24</v>
       </c>
@@ -22994,7 +22943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="14" t="s">
         <v>25</v>
       </c>
@@ -23020,7 +22969,7 @@
         <v>2029.2655314900001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="14" t="s">
         <v>26</v>
       </c>
@@ -23046,7 +22995,7 @@
         <v>1894.4676358499999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="14" t="s">
         <v>27</v>
       </c>
@@ -23072,7 +23021,7 @@
         <v>134.79789563999998</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="3"/>
     </row>
   </sheetData>
@@ -23091,17 +23040,17 @@
       <selection pane="topRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="42" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="42" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -23229,7 +23178,7 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42">
       <c r="A2" s="15" t="s">
         <v>124</v>
       </c>
@@ -23357,7 +23306,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42">
       <c r="A3" s="15" t="s">
         <v>37</v>
       </c>
@@ -23403,7 +23352,7 @@
       <c r="AO3" s="15"/>
       <c r="AP3" s="15"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -23531,7 +23480,7 @@
         <v>2292472975</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42">
       <c r="A5" s="15" t="s">
         <v>39</v>
       </c>
@@ -23659,7 +23608,7 @@
         <v>229286219</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42">
       <c r="A6" s="15" t="s">
         <v>40</v>
       </c>
@@ -23787,7 +23736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42">
       <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
@@ -23915,7 +23864,7 @@
         <v>3181781928</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42">
       <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
@@ -24043,7 +23992,7 @@
         <v>1392378053</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42">
       <c r="A9" s="15" t="s">
         <v>43</v>
       </c>
@@ -24171,7 +24120,7 @@
         <v>347575088.69999999</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42">
       <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
@@ -24299,7 +24248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42">
       <c r="A11" s="15" t="s">
         <v>45</v>
       </c>
@@ -24427,7 +24376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42">
       <c r="A12" s="15" t="s">
         <v>46</v>
       </c>
@@ -24555,7 +24504,7 @@
         <v>129165416.7</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42">
       <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
@@ -24683,7 +24632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42">
       <c r="A14" s="15" t="s">
         <v>48</v>
       </c>
@@ -24811,7 +24760,7 @@
         <v>1705673404</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42">
       <c r="A15" s="15" t="s">
         <v>49</v>
       </c>
@@ -24939,7 +24888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42">
       <c r="A16" s="15" t="s">
         <v>50</v>
       </c>
@@ -25067,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42">
       <c r="A17" s="15" t="s">
         <v>51</v>
       </c>
@@ -25195,7 +25144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42">
       <c r="A18" s="15" t="s">
         <v>52</v>
       </c>
@@ -25323,7 +25272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42">
       <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
@@ -25451,7 +25400,7 @@
         <v>3527215618</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42">
       <c r="A20" s="15" t="s">
         <v>54</v>
       </c>
@@ -25579,7 +25528,7 @@
         <v>12805548702</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42">
       <c r="A21" s="15" t="s">
         <v>55</v>
       </c>
@@ -25625,7 +25574,7 @@
       <c r="AO21" s="15"/>
       <c r="AP21" s="15"/>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42">
       <c r="A22" s="15" t="s">
         <v>56</v>
       </c>
@@ -25753,7 +25702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42">
       <c r="A23" s="15" t="s">
         <v>57</v>
       </c>
@@ -25881,7 +25830,7 @@
         <v>27143237.219999999</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42">
       <c r="A24" s="15" t="s">
         <v>58</v>
       </c>
@@ -26009,7 +25958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42">
       <c r="A25" s="15" t="s">
         <v>59</v>
       </c>
@@ -26137,7 +26086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42">
       <c r="A26" s="15" t="s">
         <v>60</v>
       </c>
@@ -26265,7 +26214,7 @@
         <v>285020691.69999999</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42">
       <c r="A27" s="15" t="s">
         <v>61</v>
       </c>
@@ -26393,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42">
       <c r="A28" s="15" t="s">
         <v>62</v>
       </c>
@@ -26521,7 +26470,7 @@
         <v>1609418213</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42">
       <c r="A29" s="15" t="s">
         <v>63</v>
       </c>
@@ -26649,7 +26598,7 @@
         <v>420851221</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42">
       <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
@@ -26777,7 +26726,7 @@
         <v>1146325.78</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42">
       <c r="A31" s="15" t="s">
         <v>65</v>
       </c>
@@ -26905,7 +26854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42">
       <c r="A32" s="15" t="s">
         <v>66</v>
       </c>
@@ -27033,7 +26982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42">
       <c r="A33" s="15" t="s">
         <v>67</v>
       </c>
@@ -27161,7 +27110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42">
       <c r="A34" s="15" t="s">
         <v>68</v>
       </c>
@@ -27289,7 +27238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42">
       <c r="A35" s="15" t="s">
         <v>69</v>
       </c>
@@ -27417,7 +27366,7 @@
         <v>462994922.60000002</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42">
       <c r="A36" s="15" t="s">
         <v>70</v>
       </c>
@@ -27545,7 +27494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42">
       <c r="A37" s="15" t="s">
         <v>71</v>
       </c>
@@ -27673,7 +27622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42">
       <c r="A38" s="15" t="s">
         <v>72</v>
       </c>
@@ -27801,7 +27750,7 @@
         <v>3804088.07</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42">
       <c r="A39" s="15" t="s">
         <v>73</v>
       </c>
@@ -27929,7 +27878,7 @@
         <v>80827291.819999993</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42">
       <c r="A40" s="15" t="s">
         <v>74</v>
       </c>
@@ -28057,7 +28006,7 @@
         <v>102704259.7</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42">
       <c r="A41" s="15" t="s">
         <v>75</v>
       </c>
@@ -28185,7 +28134,7 @@
         <v>2993910251</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:42">
       <c r="A42" s="15" t="s">
         <v>76</v>
       </c>
@@ -28313,7 +28262,7 @@
         <v>15799458953</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:42">
       <c r="A43" s="15" t="s">
         <v>77</v>
       </c>
@@ -28359,7 +28308,7 @@
       <c r="AO43" s="15"/>
       <c r="AP43" s="15"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:42">
       <c r="A44" s="15" t="s">
         <v>78</v>
       </c>
@@ -28487,7 +28436,7 @@
         <v>749000000</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:42">
       <c r="A45" s="15" t="s">
         <v>79</v>
       </c>
@@ -28615,7 +28564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:42">
       <c r="A46" s="15" t="s">
         <v>80</v>
       </c>
@@ -28743,7 +28692,7 @@
         <v>81020205.900000006</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:42">
       <c r="A47" s="15" t="s">
         <v>81</v>
       </c>
@@ -28871,7 +28820,7 @@
         <v>396324850.5</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:42">
       <c r="A48" s="15" t="s">
         <v>82</v>
       </c>
@@ -28999,7 +28948,7 @@
         <v>309895193.69999999</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:42">
       <c r="A49" s="15" t="s">
         <v>83</v>
       </c>
@@ -29127,7 +29076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:42">
       <c r="A50" s="15" t="s">
         <v>84</v>
       </c>
@@ -29255,7 +29204,7 @@
         <v>246365111.19999999</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:42">
       <c r="A51" s="15" t="s">
         <v>85</v>
       </c>
@@ -29383,7 +29332,7 @@
         <v>833744073.70000005</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:42">
       <c r="A52" s="15" t="s">
         <v>86</v>
       </c>
@@ -29511,7 +29460,7 @@
         <v>7772551.7000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42">
       <c r="A53" s="15" t="s">
         <v>87</v>
       </c>
@@ -29639,7 +29588,7 @@
         <v>1967198.15</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42">
       <c r="A54" s="15" t="s">
         <v>88</v>
       </c>
@@ -29767,7 +29716,7 @@
         <v>490223874.30000001</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42">
       <c r="A55" s="15" t="s">
         <v>89</v>
       </c>
@@ -29895,7 +29844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42">
       <c r="A56" s="15" t="s">
         <v>90</v>
       </c>
@@ -30023,7 +29972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42">
       <c r="A57" s="15" t="s">
         <v>91</v>
       </c>
@@ -30151,7 +30100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42">
       <c r="A58" s="15" t="s">
         <v>92</v>
       </c>
@@ -30279,7 +30228,7 @@
         <v>1285043.75</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42">
       <c r="A59" s="15" t="s">
         <v>93</v>
       </c>
@@ -30407,7 +30356,7 @@
         <v>2780617.99</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42">
       <c r="A60" s="15" t="s">
         <v>94</v>
       </c>
@@ -30535,7 +30484,7 @@
         <v>3120378721</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:42">
       <c r="A61" s="15" t="s">
         <v>95</v>
       </c>
@@ -30581,7 +30530,7 @@
       <c r="AO61" s="15"/>
       <c r="AP61" s="15"/>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:42">
       <c r="A62" s="15" t="s">
         <v>96</v>
       </c>
@@ -30709,7 +30658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:42">
       <c r="A63" s="15" t="s">
         <v>97</v>
       </c>
@@ -30837,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:42">
       <c r="A64" s="15" t="s">
         <v>98</v>
       </c>
@@ -30965,7 +30914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:42">
       <c r="A65" s="15" t="s">
         <v>99</v>
       </c>
@@ -31093,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:42">
       <c r="A66" s="15" t="s">
         <v>100</v>
       </c>
@@ -31221,7 +31170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:42">
       <c r="A67" s="15" t="s">
         <v>101</v>
       </c>
@@ -31349,7 +31298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:42">
       <c r="A68" s="15" t="s">
         <v>102</v>
       </c>
@@ -31477,7 +31426,7 @@
         <v>10252207.58</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:42">
       <c r="A69" s="15" t="s">
         <v>103</v>
       </c>
@@ -31605,7 +31554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:42">
       <c r="A70" s="15" t="s">
         <v>104</v>
       </c>
@@ -31733,7 +31682,7 @@
         <v>345504037.69999999</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:42">
       <c r="A71" s="15" t="s">
         <v>105</v>
       </c>
@@ -31861,7 +31810,7 @@
         <v>355756245.30000001</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:42">
       <c r="A72" s="15" t="s">
         <v>106</v>
       </c>
@@ -31989,7 +31938,7 @@
         <v>3476134966</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:42">
       <c r="A73" s="15" t="s">
         <v>107</v>
       </c>
@@ -32035,7 +31984,7 @@
       <c r="AO73" s="15"/>
       <c r="AP73" s="15"/>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:42">
       <c r="A74" s="15" t="s">
         <v>108</v>
       </c>
@@ -32163,7 +32112,7 @@
         <v>1788794378</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:42">
       <c r="A75" s="15" t="s">
         <v>109</v>
       </c>
@@ -32291,7 +32240,7 @@
         <v>2295171283</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:42">
       <c r="A76" s="15" t="s">
         <v>110</v>
       </c>
@@ -32419,7 +32368,7 @@
         <v>327976140</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:42">
       <c r="A77" s="15" t="s">
         <v>111</v>
       </c>
@@ -32547,7 +32496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:42">
       <c r="A78" s="15" t="s">
         <v>112</v>
       </c>
@@ -32675,7 +32624,7 @@
         <v>31259667.850000001</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:42">
       <c r="A79" s="15" t="s">
         <v>113</v>
       </c>
@@ -32803,7 +32752,7 @@
         <v>519122454.30000001</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:42">
       <c r="A80" s="15" t="s">
         <v>114</v>
       </c>
@@ -32931,7 +32880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:42">
       <c r="A81" s="15" t="s">
         <v>115</v>
       </c>
@@ -33059,7 +33008,7 @@
         <v>7391074088</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:42">
       <c r="A82" s="15" t="s">
         <v>116</v>
       </c>
@@ -33187,7 +33136,7 @@
         <v>11697445731</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:42">
       <c r="A83" s="15" t="s">
         <v>117</v>
       </c>
@@ -33315,7 +33264,7 @@
         <v>625878255.70000005</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:42">
       <c r="A84" s="15" t="s">
         <v>118</v>
       </c>
@@ -33443,7 +33392,7 @@
         <v>12323323987</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:42">
       <c r="A85" s="15" t="s">
         <v>119</v>
       </c>
@@ -33588,12 +33537,12 @@
       <selection activeCell="A20" sqref="A20:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -33619,12 +33568,12 @@
         <v>20180331</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -33650,7 +33599,7 @@
         <v>2292.4729750000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -33676,7 +33625,7 @@
         <v>229.28621899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -33702,7 +33651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -33728,7 +33677,7 @@
         <v>3181.7819279999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -33754,7 +33703,7 @@
         <v>1392.3780529999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -33780,7 +33729,7 @@
         <v>347.57508869999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -33806,7 +33755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -33832,7 +33781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -33858,7 +33807,7 @@
         <v>129.16541670000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -33884,7 +33833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -33910,7 +33859,7 @@
         <v>1705.6734039999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -33936,7 +33885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -33962,7 +33911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -33988,7 +33937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -34014,7 +33963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -34040,7 +33989,7 @@
         <v>3527.2156180000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -34066,7 +34015,7 @@
         <v>12805.548702</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="31" t="s">
         <v>55</v>
       </c>
@@ -34078,7 +34027,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -34104,7 +34053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -34130,7 +34079,7 @@
         <v>27.14323722</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -34156,7 +34105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -34182,7 +34131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -34208,7 +34157,7 @@
         <v>285.02069169999999</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -34234,7 +34183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -34260,7 +34209,7 @@
         <v>1609.4182129999999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -34286,7 +34235,7 @@
         <v>420.85122100000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -34312,7 +34261,7 @@
         <v>1.14632578</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -34338,7 +34287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -34364,7 +34313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -34390,7 +34339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -34416,7 +34365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -34442,7 +34391,7 @@
         <v>462.99492260000005</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -34468,7 +34417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -34494,7 +34443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -34520,7 +34469,7 @@
         <v>3.8040880699999997</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -34546,7 +34495,7 @@
         <v>80.827291819999999</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -34572,7 +34521,7 @@
         <v>102.70425970000001</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -34598,7 +34547,7 @@
         <v>2993.9102509999998</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -34624,7 +34573,7 @@
         <v>15799.458952999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="31" t="s">
         <v>77</v>
       </c>
@@ -34636,7 +34585,7 @@
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -34662,7 +34611,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -34688,7 +34637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -34714,7 +34663,7 @@
         <v>81.020205900000008</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -34740,7 +34689,7 @@
         <v>396.32485050000003</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -34766,7 +34715,7 @@
         <v>309.89519369999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -34792,7 +34741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -34818,7 +34767,7 @@
         <v>246.3651112</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -34844,7 +34793,7 @@
         <v>833.74407370000006</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -34870,7 +34819,7 @@
         <v>7.7725517000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -34896,7 +34845,7 @@
         <v>1.96719815</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -34922,7 +34871,7 @@
         <v>490.22387430000003</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -34948,7 +34897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -34974,7 +34923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -35000,7 +34949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -35026,7 +34975,7 @@
         <v>1.28504375</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -35052,7 +35001,7 @@
         <v>2.7806179900000001</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -35078,7 +35027,7 @@
         <v>3120.378721</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="31" t="s">
         <v>95</v>
       </c>
@@ -35090,7 +35039,7 @@
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -35116,7 +35065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -35142,7 +35091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -35168,7 +35117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -35194,7 +35143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -35220,7 +35169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -35246,7 +35195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -35272,7 +35221,7 @@
         <v>10.25220758</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -35298,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -35324,7 +35273,7 @@
         <v>345.50403769999997</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -35350,7 +35299,7 @@
         <v>355.75624529999999</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -35376,7 +35325,7 @@
         <v>3476.1349660000001</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="31" t="s">
         <v>107</v>
       </c>
@@ -35388,7 +35337,7 @@
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -35414,7 +35363,7 @@
         <v>1788.7943780000001</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -35440,7 +35389,7 @@
         <v>2295.1712830000001</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -35466,7 +35415,7 @@
         <v>327.97613999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -35492,7 +35441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -35518,7 +35467,7 @@
         <v>31.259667850000003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -35544,7 +35493,7 @@
         <v>519.12245429999996</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -35570,7 +35519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -35596,7 +35545,7 @@
         <v>7391.0740880000003</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -35622,7 +35571,7 @@
         <v>11697.445731</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -35648,7 +35597,7 @@
         <v>625.87825570000007</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -35674,7 +35623,7 @@
         <v>12323.323987</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -35714,13 +35663,13 @@
       <selection activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35755,7 +35704,7 @@
         <v>20171231</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -35790,12 +35739,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -35830,7 +35779,7 @@
         <v>1616538055</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -35865,7 +35814,7 @@
         <v>316307133.30000001</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -35900,7 +35849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -35935,7 +35884,7 @@
         <v>3102085426</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -35970,7 +35919,7 @@
         <v>791899415.39999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -36005,7 +35954,7 @@
         <v>171464396.19999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -36040,7 +35989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -36075,7 +36024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -36110,7 +36059,7 @@
         <v>86785282.409999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -36145,7 +36094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -36180,7 +36129,7 @@
         <v>1406253492</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -36215,7 +36164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -36250,7 +36199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -36285,7 +36234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -36320,7 +36269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -36355,7 +36304,7 @@
         <v>3496631993</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -36390,12 +36339,12 @@
         <v>10987965194</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -36430,7 +36379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -36465,7 +36414,7 @@
         <v>28889282.100000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -36500,7 +36449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -36535,7 +36484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -36570,7 +36519,7 @@
         <v>285020691.69999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -36605,7 +36554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -36640,7 +36589,7 @@
         <v>1619465200</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -36675,7 +36624,7 @@
         <v>363973887.10000002</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -36710,7 +36659,7 @@
         <v>1318875.31</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -36745,7 +36694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -36780,7 +36729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -36815,7 +36764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -36850,7 +36799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -36885,7 +36834,7 @@
         <v>479920054.39999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -36920,7 +36869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -36955,7 +36904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -36990,7 +36939,7 @@
         <v>4575152.87</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -37025,7 +36974,7 @@
         <v>74241950.590000004</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -37060,7 +37009,7 @@
         <v>107472928.2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -37095,7 +37044,7 @@
         <v>2964878023</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -37130,12 +37079,12 @@
         <v>13952843217</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -37170,7 +37119,7 @@
         <v>806768007.79999995</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -37205,7 +37154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -37240,7 +37189,7 @@
         <v>85749158.709999993</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -37275,7 +37224,7 @@
         <v>344711209.60000002</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -37310,7 +37259,7 @@
         <v>394284079</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -37345,7 +37294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -37380,7 +37329,7 @@
         <v>488506845.5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -37415,7 +37364,7 @@
         <v>736806756.10000002</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -37450,7 +37399,7 @@
         <v>7597814.7300000004</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -37485,7 +37434,7 @@
         <v>1967198.15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -37520,7 +37469,7 @@
         <v>497883730.80000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -37555,7 +37504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -37590,7 +37539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -37625,7 +37574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -37660,7 +37609,7 @@
         <v>37713393.009999998</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -37695,7 +37644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -37730,12 +37679,12 @@
         <v>3401988193</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -37770,7 +37719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>97</v>
       </c>
@@ -37805,7 +37754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -37840,7 +37789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -37875,7 +37824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>100</v>
       </c>
@@ -37910,7 +37859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>101</v>
       </c>
@@ -37945,7 +37894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>102</v>
       </c>
@@ -37980,7 +37929,7 @@
         <v>9993687.2200000007</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>103</v>
       </c>
@@ -38015,7 +37964,7 @@
         <v>257169520.80000001</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>104</v>
       </c>
@@ -38050,7 +37999,7 @@
         <v>90000000</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>105</v>
       </c>
@@ -38085,7 +38034,7 @@
         <v>357163208.10000002</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>106</v>
       </c>
@@ -38120,12 +38069,12 @@
         <v>3759151401</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>108</v>
       </c>
@@ -38160,7 +38109,7 @@
         <v>1788794378</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -38195,7 +38144,7 @@
         <v>2200741283</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>110</v>
       </c>
@@ -38230,7 +38179,7 @@
         <v>327976140</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>111</v>
       </c>
@@ -38265,7 +38214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -38300,7 +38249,7 @@
         <v>25323027.399999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11">
       <c r="A79" t="s">
         <v>113</v>
       </c>
@@ -38335,7 +38284,7 @@
         <v>519122454.30000001</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -38370,7 +38319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -38405,7 +38354,7 @@
         <v>5496606452</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>116</v>
       </c>
@@ -38440,7 +38389,7 @@
         <v>9702611455</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -38475,7 +38424,7 @@
         <v>491080360.10000002</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>118</v>
       </c>
@@ -38510,7 +38459,7 @@
         <v>10193691815</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -38559,7 +38508,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="53.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
@@ -38570,7 +38519,7 @@
     <col min="66" max="66" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -38770,7 +38719,7 @@
         <v>19700101</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -38967,12 +38916,12 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66">
       <c r="A3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -39172,7 +39121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -39372,7 +39321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -39572,7 +39521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -39772,7 +39721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -39972,7 +39921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66">
       <c r="A9" t="s">
         <v>132</v>
       </c>
@@ -40172,7 +40121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66">
       <c r="A10" t="s">
         <v>133</v>
       </c>
@@ -40372,7 +40321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66">
       <c r="A11" t="s">
         <v>134</v>
       </c>
@@ -40572,7 +40521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -40772,7 +40721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66">
       <c r="A13" t="s">
         <v>136</v>
       </c>
@@ -40972,12 +40921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66">
       <c r="A14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -41177,7 +41126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66">
       <c r="A16" t="s">
         <v>139</v>
       </c>
@@ -41377,7 +41326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66">
       <c r="A17" t="s">
         <v>140</v>
       </c>
@@ -41577,7 +41526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -41777,7 +41726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -41977,7 +41926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66">
       <c r="A20" t="s">
         <v>143</v>
       </c>
@@ -42177,7 +42126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66">
       <c r="A21" t="s">
         <v>144</v>
       </c>
@@ -42377,7 +42326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66">
       <c r="A22" t="s">
         <v>145</v>
       </c>
@@ -42577,7 +42526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -42777,7 +42726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -42977,7 +42926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66">
       <c r="A25" t="s">
         <v>148</v>
       </c>
@@ -43177,7 +43126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -43377,12 +43326,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66">
       <c r="A27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -43582,7 +43531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -43782,7 +43731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66">
       <c r="A30" t="s">
         <v>153</v>
       </c>
@@ -43982,7 +43931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -44182,7 +44131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -44382,7 +44331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -44582,7 +44531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66">
       <c r="A34" t="s">
         <v>157</v>
       </c>
@@ -44782,7 +44731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66">
       <c r="A35" t="s">
         <v>158</v>
       </c>
@@ -44982,7 +44931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66">
       <c r="A36" t="s">
         <v>159</v>
       </c>
@@ -45182,7 +45131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66">
       <c r="A37" t="s">
         <v>160</v>
       </c>
@@ -45382,7 +45331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -45582,7 +45531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -45782,7 +45731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -45982,7 +45931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:66">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -46182,7 +46131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:66">
       <c r="A42" t="s">
         <v>165</v>
       </c>
@@ -46382,7 +46331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:66">
       <c r="A43" t="s">
         <v>166</v>
       </c>
@@ -46582,12 +46531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:66">
       <c r="A44" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:66">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -46787,7 +46736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:66">
       <c r="A46" t="s">
         <v>117</v>
       </c>
@@ -46987,7 +46936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:66">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -47187,7 +47136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:66">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -47387,7 +47336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:66">
       <c r="A49" t="s">
         <v>171</v>
       </c>
@@ -47587,7 +47536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:66">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -47787,7 +47736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:66">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -47987,7 +47936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:66">
       <c r="A52" t="s">
         <v>174</v>
       </c>
@@ -48187,7 +48136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:66">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -48387,7 +48336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:66">
       <c r="A54" t="s">
         <v>176</v>
       </c>
@@ -48587,7 +48536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:66">
       <c r="A55" t="s">
         <v>177</v>
       </c>
@@ -48787,7 +48736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:66">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -48987,7 +48936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:66">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -49187,7 +49136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:66">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -49387,7 +49336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:66">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -49587,7 +49536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:66">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -49787,7 +49736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:66">
       <c r="A61" t="s">
         <v>182</v>
       </c>
@@ -49987,7 +49936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:66">
       <c r="A62" t="s">
         <v>183</v>
       </c>
@@ -50187,7 +50136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:66">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -50387,7 +50336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:66">
       <c r="A64" t="s">
         <v>185</v>
       </c>
@@ -50587,7 +50536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:66">
       <c r="A65" t="s">
         <v>186</v>
       </c>
@@ -50787,7 +50736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:66">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -50987,7 +50936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:66">
       <c r="A67" t="s">
         <v>188</v>
       </c>
@@ -51187,7 +51136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:66">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -51387,7 +51336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:66">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -51587,7 +51536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:66">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -51787,7 +51736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:66">
       <c r="A71" t="s">
         <v>192</v>
       </c>
@@ -51987,7 +51936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:66">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -52187,7 +52136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:66">
       <c r="A73" t="s">
         <v>194</v>
       </c>
@@ -52387,7 +52336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:66">
       <c r="A74" t="s">
         <v>195</v>
       </c>
@@ -52587,7 +52536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:66">
       <c r="A75" t="s">
         <v>196</v>
       </c>
@@ -52787,7 +52736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:66">
       <c r="A76" t="s">
         <v>197</v>
       </c>
@@ -52987,7 +52936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:66" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:66">
       <c r="A77" t="s">
         <v>198</v>
       </c>
